--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="927">
   <si>
     <t>Project Theme/Title</t>
   </si>
@@ -528,6 +528,21 @@
   </si>
   <si>
     <t>TV-6: Robustness of the Counting Rule for Detecting Adversaries in Wireless Sensor Networks</t>
+  </si>
+  <si>
+    <t>JW-1: An educational game application</t>
+  </si>
+  <si>
+    <t>JW-2: educational data analysis</t>
+  </si>
+  <si>
+    <t>JW-3: An AI_based automatic writing assistant system for supporting language learning</t>
+  </si>
+  <si>
+    <t>JW-4: An AI-based speech feedback system for second language learners</t>
+  </si>
+  <si>
+    <t>JW-5: A learning support application for Autism spectrum disorder (ASD) pupils</t>
   </si>
   <si>
     <t>An interval temporal network is a network whose edges are active for one or more time intervals and inactive the rest of the time. Work has been done previously on instantaneous connectivity of interval temporal networks, where the network is considered to be connected during a period of time [x,y], if it is connected for all time instances within the continuous time interval [x,y]. This project will look at the implementation of existing and possible development of new approaches to preserve connectivity of an interval temporal network over time (by maintaining a 'bank' of extra edges, available during certain time intervals, which can reconnect the network in case it becomes disconnected).</t>
@@ -1429,6 +1444,21 @@
 </t>
   </si>
   <si>
+    <t>In recent years, educational digital games or serious games constituting supportive, engaging and motivational contexts for learning, are used in various fields. The student(s) doing this project will implement an educational VR game. This game will allow the single learner to play aganist AI or multiple learners to play a digital game together. The design should also allow instructors to manage the teaching materials and modify the rules of the educational game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept map/ knowledge map can be used as assessment tool for learner achievement. However, few assessments are done automatically. In this project, the student needs to perform a supervised learning to datasets of knowledge maps created by learners who study with the same target contents, and present a model for automatically predicting learnerâ€™s understanding level of the target e-book. </t>
+  </si>
+  <si>
+    <t>Design and implement an automatic assistant function to support learners in essay writing or sentence translating. The system should also record all the learner behaviour and report the analysis result in a dashboard.</t>
+  </si>
+  <si>
+    <t>The student(s) doing this project will design an audio model and implement an AI-based speech feedback system. This system will give feedback to the learner who inputs an audio record. The feedback will help the learner better identify their speech issues. Sample audio recordings and corresponding feedback will be provided by an expert(Dr Kaoru Umezawa, Assisstant Professor (Teaching) in Japanese, Centre for Foreign Language Studies Study (CFLS), School of Modern Languages &amp; Cultures (MLaC), durham university) for training the model.</t>
+  </si>
+  <si>
+    <t>Explore, design, and implement a supportive game/application/system addressing the learning difficulty of ASD pupils considering they are more sensitive to sounds or lights. The system should be also able to record the learning behavior and report to the learners or their carers through a dashboard. VR technique could be considered. This is a joint project with Professor BRADLEY STEVEN in CS department, and Professor RIBY DEBORAH and Dr Mary Hanley in the Department of Psychology.</t>
+  </si>
+  <si>
     <t>https://www.worldscientific.com/doi/pdf/10.1142/S0129626419500099</t>
   </si>
   <si>
@@ -2168,6 +2198,25 @@
 https://ieeexplore.ieee.org/document/8395351</t>
   </si>
   <si>
+    <t>&lt;li/&gt;
+https://www.pygame.org/wiki/tutorials
+&lt;li/&gt;
+https://www.sciencedirect.com/science/article/abs/pii/S036013151730043X</t>
+  </si>
+  <si>
+    <t>&lt;li/&gt;
+http://faculty.marshall.usc.edu/gareth-james/ISL/
+&lt;li/&gt;
+https://www.coursera.org/learn/machine-learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1007/s10639-019-10050-0
+https://rua.ua.es/dspace/bitstream/10045/73035/1/2018_Fernandez-Herrero_etal_Bibliometric-Study-Use-Virtual-Reality.pdf
+https://ieeexplore.ieee.org/abstract/document/8010470
+https://link.springer.com/article/10.1007/s40489-021-00259-6
+</t>
+  </si>
+  <si>
     <t>Implementation and evaluation of existing algorithms with possible development of new approaches.</t>
   </si>
   <si>
@@ -2779,6 +2828,22 @@
     <t>The student is expected to obtain numerical results of the reference [3]. Also, the student should propose new methods that outperform the existing methods.</t>
   </si>
   <si>
+    <t xml:space="preserve">Implementation of an educational VR game. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the learner outcome analyzing and a prediction model
+</t>
+  </si>
+  <si>
+    <t>Design and implement an automatic writing assistant system</t>
+  </si>
+  <si>
+    <t>an audio model and an AI-based speech feedback system.</t>
+  </si>
+  <si>
+    <t>Implementation of a learning support game /application/system for ASD pupils.</t>
+  </si>
+  <si>
     <t xml:space="preserve">An interest and background knowledge in graph theory and graph algorithms </t>
   </si>
   <si>
@@ -3203,6 +3268,21 @@
     <t>Data Science, Networks and Systems</t>
   </si>
   <si>
+    <t>C#, interest in game design</t>
+  </si>
+  <si>
+    <t>python/Java, interested in machine learning and data analystic</t>
+  </si>
+  <si>
+    <t>Python/Java, interested in NLP and Data analytic</t>
+  </si>
+  <si>
+    <t>python/Java, interested in Audio signal processing</t>
+  </si>
+  <si>
+    <t>Python/Java/C#</t>
+  </si>
+  <si>
     <t>CS Level 3: Yes, CS Level 4: Yes</t>
   </si>
   <si>
@@ -3661,6 +3741,21 @@
   </si>
   <si>
     <t>Detection, Sensor, Fusion, Robust, Energy</t>
+  </si>
+  <si>
+    <t>interactive game, Gamification in education</t>
+  </si>
+  <si>
+    <t>knowledge map, machine learning, supervised learning</t>
+  </si>
+  <si>
+    <t>writing assistant, Data analytic</t>
+  </si>
+  <si>
+    <t>audio, second language speaker, automatic feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning support, data analysis, Autism spectrum disorder (ASD) </t>
   </si>
   <si>
     <t>No</t>
@@ -4037,7 +4132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4074,25 +4169,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E2" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="F2" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G2" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="H2" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4100,25 +4195,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E3" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="F3" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G3" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
       <c r="H3" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4126,22 +4221,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F4" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G4" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="H4" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4149,25 +4244,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E5" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="F5" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G5" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="H5" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4175,22 +4270,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E6" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="F6" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G6" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="H6" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4198,25 +4293,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E7" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="F7" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G7" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="H7" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4224,25 +4319,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="E8" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="F8" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G8" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
       <c r="H8" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4250,25 +4345,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E9" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="F9" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G9" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="H9" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4276,25 +4371,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="E10" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="F10" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G10" t="s">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="H10" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4302,25 +4397,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E11" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="F11" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G11" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="H11" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4328,25 +4423,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E12" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="F12" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G12" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="H12" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4354,25 +4449,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E13" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="F13" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G13" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="H13" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4380,25 +4475,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="E14" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="F14" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G14" t="s">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="H14" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4406,22 +4501,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="F15" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="H15" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4429,22 +4524,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="E16" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="F16" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H16" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4452,25 +4547,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="E17" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="F17" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G17" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="H17" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4478,25 +4573,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D18" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="E18" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="F18" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G18" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="H18" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4504,25 +4599,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="F19" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G19" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="H19" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4530,25 +4625,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="F20" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G20" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="H20" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4556,25 +4651,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D21" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="E21" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="F21" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G21" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="H21" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4582,25 +4677,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E22" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="F22" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G22" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="H22" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4608,19 +4703,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E23" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="F23" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H23" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4628,25 +4723,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D24" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="E24" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="F24" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G24" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="H24" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4654,25 +4749,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D25" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E25" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="F25" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G25" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="H25" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4680,25 +4775,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D26" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E26" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="F26" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G26" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="H26" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4706,25 +4801,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D27" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="E27" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="F27" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G27" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="H27" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4732,25 +4827,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D28" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="E28" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="F28" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G28" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
       <c r="H28" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4758,25 +4853,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E29" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="F29" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G29" t="s">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="H29" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4784,25 +4879,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D30" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="E30" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="F30" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G30" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
       <c r="H30" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4810,22 +4905,22 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E31" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="F31" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G31" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="H31" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4833,22 +4928,22 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E32" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="F32" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G32" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
       <c r="H32" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4856,25 +4951,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D33" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E33" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="F33" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G33" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="H33" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4882,25 +4977,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="E34" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="F34" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G34" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
       <c r="H34" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4908,25 +5003,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D35" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E35" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="F35" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G35" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="H35" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4934,25 +5029,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D36" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E36" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="F36" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G36" t="s">
-        <v>780</v>
+        <v>803</v>
       </c>
       <c r="H36" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4960,25 +5055,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D37" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="E37" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="F37" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G37" t="s">
-        <v>781</v>
+        <v>804</v>
       </c>
       <c r="H37" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4986,22 +5081,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="E38" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F38" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G38" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="H38" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5009,25 +5104,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D39" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="E39" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="F39" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G39" t="s">
-        <v>783</v>
+        <v>806</v>
       </c>
       <c r="H39" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5035,25 +5130,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D40" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E40" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="F40" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G40" t="s">
-        <v>784</v>
+        <v>807</v>
       </c>
       <c r="H40" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5061,25 +5156,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E41" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="F41" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G41" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
       <c r="H41" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5087,25 +5182,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="E42" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="F42" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G42" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="H42" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5113,25 +5208,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D43" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="E43" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="F43" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G43" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="H43" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5139,25 +5234,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D44" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E44" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="F44" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G44" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
       <c r="H44" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5165,22 +5260,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E45" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="F45" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G45" t="s">
-        <v>788</v>
+        <v>811</v>
       </c>
       <c r="H45" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5188,16 +5283,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F46" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H46" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5205,19 +5300,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E47" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="F47" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H47" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5225,22 +5320,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E48" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="F48" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G48" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="H48" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5248,25 +5343,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D49" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E49" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="F49" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G49" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="H49" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5274,25 +5369,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D50" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E50" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="F50" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G50" t="s">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="H50" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5300,25 +5395,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D51" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E51" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="F51" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G51" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
       <c r="H51" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5326,25 +5421,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D52" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E52" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="F52" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G52" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="H52" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5352,25 +5447,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D53" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="E53" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="F53" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G53" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="H53" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5378,25 +5473,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D54" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E54" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="F54" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G54" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
       <c r="H54" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5404,25 +5499,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D55" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="E55" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="F55" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G55" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="H55" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5430,25 +5525,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C56" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D56" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="E56" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="F56" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G56" t="s">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="H56" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5456,25 +5551,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D57" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="E57" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="F57" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G57" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="H57" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5482,25 +5577,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D58" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="E58" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="F58" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G58" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="H58" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5508,25 +5603,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D59" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="E59" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="F59" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G59" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="H59" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5534,25 +5629,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D60" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="E60" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F60" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G60" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="H60" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5560,25 +5655,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C61" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D61" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E61" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F61" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G61" t="s">
-        <v>802</v>
+        <v>825</v>
       </c>
       <c r="H61" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5586,25 +5681,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="E62" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="F62" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G62" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="H62" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5612,22 +5707,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E63" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="F63" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G63" t="s">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="H63" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5635,25 +5730,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="E64" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="F64" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G64" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="H64" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5661,25 +5756,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="E65" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="F65" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G65" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="H65" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5687,25 +5782,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C66" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="E66" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="F66" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G66" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="H66" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5713,25 +5808,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="E67" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="F67" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G67" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="H67" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5739,25 +5834,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="E68" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="F68" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G68" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="H68" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5765,25 +5860,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="E69" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="F69" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G69" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="H69" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5791,25 +5886,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="E70" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="F70" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G70" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="H70" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5817,25 +5912,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C71" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D71" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="E71" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="F71" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G71" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="H71" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5843,25 +5938,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="E72" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="F72" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G72" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="H72" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5869,25 +5964,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E73" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="F73" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G73" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="H73" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5895,25 +5990,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D74" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="E74" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="F74" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G74" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="H74" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5921,25 +6016,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D75" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="E75" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="F75" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G75" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="H75" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5947,25 +6042,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="E76" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="F76" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G76" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="H76" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5973,25 +6068,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D77" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="E77" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F77" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G77" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="H77" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5999,25 +6094,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="E78" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="F78" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G78" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="H78" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6025,25 +6120,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="E79" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F79" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G79" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="H79" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6051,25 +6146,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D80" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E80" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F80" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G80" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="H80" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6077,25 +6172,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D81" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="E81" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F81" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G81" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="H81" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6103,25 +6198,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D82" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E82" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="F82" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G82" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="H82" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6129,25 +6224,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C83" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D83" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="E83" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="F83" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G83" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="H83" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6155,25 +6250,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D84" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="E84" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F84" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G84" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="H84" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6181,22 +6276,22 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D85" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="F85" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G85" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
       <c r="H85" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6204,25 +6299,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D86" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="E86" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="F86" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G86" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="H86" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6230,19 +6325,19 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D87" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="F87" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G87" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="H87" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6250,25 +6345,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="E88" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="F88" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G88" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="H88" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6276,22 +6371,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D89" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="E89" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="F89" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G89" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="H89" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6299,22 +6394,22 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D90" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="E90" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="F90" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G90" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="H90" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6322,22 +6417,22 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D91" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E91" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="F91" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G91" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="H91" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6345,25 +6440,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D92" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E92" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="F92" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G92" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="H92" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6371,25 +6466,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C93" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D93" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="E93" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="F93" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G93" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="H93" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6397,25 +6492,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D94" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="E94" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="F94" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G94" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="H94" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6423,25 +6518,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D95" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="E95" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="F95" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G95" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="H95" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6449,25 +6544,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D96" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="E96" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F96" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G96" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="H96" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6475,25 +6570,25 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D97" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="E97" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="F97" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G97" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="H97" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6501,22 +6596,22 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D98" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="E98" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="F98" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G98" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="H98" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6524,19 +6619,19 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D99" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="E99" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="F99" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H99" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6544,25 +6639,25 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D100" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="E100" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="F100" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G100" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="H100" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6570,25 +6665,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D101" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E101" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="F101" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G101" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="H101" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6596,25 +6691,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D102" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="E102" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="F102" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G102" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="H102" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6622,22 +6717,22 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D103" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="E103" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="F103" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G103" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="H103" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6645,25 +6740,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D104" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="E104" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="F104" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G104" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="H104" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6671,25 +6766,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D105" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="E105" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="F105" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G105" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="H105" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6697,25 +6792,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D106" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="E106" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="F106" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G106" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="H106" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6723,25 +6818,25 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C107" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D107" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="E107" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="F107" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G107" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="H107" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6749,25 +6844,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D108" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="E108" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="F108" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G108" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="H108" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6775,25 +6870,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D109" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="E109" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="F109" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G109" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="H109" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6801,25 +6896,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C110" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D110" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="E110" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="F110" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G110" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="H110" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6827,25 +6922,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C111" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D111" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="E111" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="F111" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G111" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="H111" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6853,25 +6948,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D112" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="E112" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="F112" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G112" t="s">
-        <v>852</v>
+        <v>875</v>
       </c>
       <c r="H112" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6879,25 +6974,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C113" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D113" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="E113" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="F113" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G113" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="H113" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6905,25 +7000,25 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C114" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D114" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="E114" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="F114" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G114" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="H114" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6931,25 +7026,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C115" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D115" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="E115" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="F115" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G115" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="H115" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6957,25 +7052,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C116" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D116" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="E116" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="F116" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G116" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="H116" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6983,25 +7078,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C117" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D117" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="E117" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="F117" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G117" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="H117" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7009,25 +7104,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C118" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D118" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="E118" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F118" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G118" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="H118" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7035,25 +7130,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C119" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D119" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="E119" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F119" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G119" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="H119" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7061,25 +7156,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C120" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D120" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="E120" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="F120" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G120" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="H120" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7087,25 +7182,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D121" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="E121" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="F121" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G121" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="H121" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7113,25 +7208,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D122" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="E122" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="F122" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G122" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="H122" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7139,25 +7234,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D123" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="E123" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="F123" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G123" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="H123" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7165,25 +7260,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D124" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="E124" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="F124" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G124" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="H124" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7191,25 +7286,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D125" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="E125" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="F125" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G125" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="H125" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7217,22 +7312,22 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D126" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E126" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
       <c r="F126" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G126" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="H126" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7240,19 +7335,19 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D127" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="E127" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="F127" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="H127" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7260,25 +7355,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C128" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D128" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E128" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F128" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G128" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="H128" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7286,25 +7381,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C129" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D129" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="E129" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="F129" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G129" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="H129" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7312,25 +7407,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C130" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D130" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="E130" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F130" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G130" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="H130" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7338,25 +7433,25 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C131" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D131" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="E131" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F131" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G131" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="H131" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7364,25 +7459,25 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C132" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D132" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="E132" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F132" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G132" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="H132" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7390,25 +7485,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D133" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="E133" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F133" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G133" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="H133" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7416,25 +7511,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D134" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="E134" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="F134" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G134" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
       <c r="H134" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7442,19 +7537,19 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C135" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D135" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="F135" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H135" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7462,16 +7557,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D136" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F136" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H136" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7479,19 +7574,19 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D137" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="E137" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="F137" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H137" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7499,19 +7594,19 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D138" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F138" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H138" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7519,19 +7614,19 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C139" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D139" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="F139" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H139" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7539,25 +7634,25 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C140" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D140" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="E140" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="F140" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G140" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="H140" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7565,25 +7660,25 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C141" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D141" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="E141" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="F141" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G141" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="H141" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7591,25 +7686,25 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C142" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D142" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="E142" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="F142" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G142" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="H142" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7617,25 +7712,25 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C143" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D143" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="E143" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="F143" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G143" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="H143" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7643,25 +7738,25 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C144" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D144" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="E144" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="F144" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G144" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="H144" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7669,25 +7764,25 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C145" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D145" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E145" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="F145" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G145" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="H145" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7695,25 +7790,25 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C146" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D146" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="E146" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="F146" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G146" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="H146" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7721,22 +7816,22 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D147" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="E147" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="F147" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G147" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
       <c r="H147" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7744,25 +7839,25 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D148" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="E148" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="F148" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G148" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="H148" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7770,25 +7865,25 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D149" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="E149" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="F149" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G149" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="H149" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7796,25 +7891,25 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D150" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="E150" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="F150" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G150" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
       <c r="H150" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7822,25 +7917,25 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D151" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="E151" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="F151" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G151" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="H151" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7848,25 +7943,25 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D152" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="E152" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="F152" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G152" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="H152" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7874,25 +7969,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C153" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D153" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="E153" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="F153" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G153" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="H153" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7900,22 +7995,22 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D154" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="E154" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="F154" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G154" t="s">
-        <v>888</v>
+        <v>911</v>
       </c>
       <c r="H154" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7923,25 +8018,25 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D155" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="E155" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="F155" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G155" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="H155" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7949,25 +8044,25 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D156" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="E156" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="F156" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G156" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="H156" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -7975,19 +8070,19 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D157" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="E157" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="F157" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="H157" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -7995,25 +8090,25 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C158" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D158" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="E158" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="F158" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="G158" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="H158" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8021,25 +8116,25 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D159" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="E159" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="F159" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G159" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="H159" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8047,25 +8142,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D160" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="E160" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="F160" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G160" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="H160" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8073,25 +8168,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D161" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="E161" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="F161" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G161" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="H161" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8099,25 +8194,25 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C162" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D162" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="E162" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="F162" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="G162" t="s">
-        <v>895</v>
+        <v>918</v>
       </c>
       <c r="H162" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8125,25 +8220,149 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D163" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="E163" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="F163" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="G163" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="H163" t="s">
-        <v>897</v>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>337</v>
+      </c>
+      <c r="C164" t="s">
+        <v>484</v>
+      </c>
+      <c r="D164" t="s">
+        <v>635</v>
+      </c>
+      <c r="E164" t="s">
+        <v>765</v>
+      </c>
+      <c r="F164" t="s">
+        <v>770</v>
+      </c>
+      <c r="G164" t="s">
+        <v>920</v>
+      </c>
+      <c r="H164" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" t="s">
+        <v>338</v>
+      </c>
+      <c r="C165" t="s">
+        <v>485</v>
+      </c>
+      <c r="D165" t="s">
+        <v>636</v>
+      </c>
+      <c r="E165" t="s">
+        <v>766</v>
+      </c>
+      <c r="F165" t="s">
+        <v>772</v>
+      </c>
+      <c r="G165" t="s">
+        <v>921</v>
+      </c>
+      <c r="H165" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" t="s">
+        <v>339</v>
+      </c>
+      <c r="D166" t="s">
+        <v>637</v>
+      </c>
+      <c r="E166" t="s">
+        <v>767</v>
+      </c>
+      <c r="F166" t="s">
+        <v>772</v>
+      </c>
+      <c r="G166" t="s">
+        <v>922</v>
+      </c>
+      <c r="H166" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>340</v>
+      </c>
+      <c r="D167" t="s">
+        <v>638</v>
+      </c>
+      <c r="E167" t="s">
+        <v>768</v>
+      </c>
+      <c r="F167" t="s">
+        <v>772</v>
+      </c>
+      <c r="G167" t="s">
+        <v>923</v>
+      </c>
+      <c r="H167" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>341</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D168" t="s">
+        <v>639</v>
+      </c>
+      <c r="E168" t="s">
+        <v>769</v>
+      </c>
+      <c r="F168" t="s">
+        <v>770</v>
+      </c>
+      <c r="G168" t="s">
+        <v>924</v>
+      </c>
+      <c r="H168" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -8216,6 +8435,7 @@
     <hyperlink ref="C160" r:id="rId66"/>
     <hyperlink ref="C161" r:id="rId67"/>
     <hyperlink ref="C163" r:id="rId68"/>
+    <hyperlink ref="C168" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -61,17 +61,16 @@
     <t>AA-3: Multi-Modal, Scale, and Class detection of ophthalmologic diseases through anomaly detection</t>
   </si>
   <si>
-    <t xml:space="preserve">AA-4: Revealing retinal changes in Alport syndrome with image processing and machine learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA-5: Why can't I find Wally? Exploring the effect of distractors on the performance of convolutional neural networks in cluttered scenes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA-6: Can surgery revitalize the eyes? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA-7: Automatic detection of cell density in eyes using deep learning </t>
+    <t>AA-4: Revealing retinal changes in Alport syndrome with image processing and machine learning</t>
+  </si>
+  <si>
+    <t>AA-5: Why can't I find Wally? Exploring the effect of distractors on the performance of convolutional neural networks in cluttered scenes</t>
+  </si>
+  <si>
+    <t>AA-6: Can surgery revitalize the eyes?</t>
+  </si>
+  <si>
+    <t>AA-7: Automatic detection of cell density in eyes using deep learning</t>
   </si>
   <si>
     <t>GA-1: Carbon Intelligent Computing for for Control and Optimisation of Data Centres</t>
@@ -101,7 +100,7 @@
     <t>SC-1: Using NLP to understand political success based on party manifestos</t>
   </si>
   <si>
-    <t xml:space="preserve">SC-2: Debating what’s important to civic life: NLP and data analysis of political debates </t>
+    <t>SC-2: Debating what’s important to civic life: NLP and data analysis of political debates</t>
   </si>
   <si>
     <t>SC-3: Conspiracy theories: understanding and predicting conspiratorial content using natural language processing</t>
@@ -110,7 +109,7 @@
     <t>RCr-1: Predicting student experiences based on their characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">RCr-2: Using Mermaid to Enhance Accessibility of Diagrams. </t>
+    <t>RCr-2: Using Mermaid to Enhance Accessibility of Diagrams.</t>
   </si>
   <si>
     <t>SSD-1: Machine Learning for Game Playing</t>
@@ -227,7 +226,7 @@
     <t>AJ-2: Machine learning applications in Internet of things (IoT)</t>
   </si>
   <si>
-    <t xml:space="preserve">AJ-3: Data analytics for improving healthcare systems </t>
+    <t>AJ-3: Data analytics for improving healthcare systems</t>
   </si>
   <si>
     <t>AJ-4: Network resource management for service provisioning in wireless sensor networks</t>
@@ -368,8 +367,7 @@
     <t>LMo-1: SYCL-based Parallelization of HPCCG</t>
   </si>
   <si>
-    <t>LMo-2: 
-Enabling Fine-Grained Task-Parallelism on Massively Parallel Hardware with SYCL</t>
+    <t>LMo-2: Enabling Fine-Grained Task-Parallelism on Massively Parallel Hardware with SYCL</t>
   </si>
   <si>
     <t>BMo-1: Dispersion of mobile robots on a dynamic graph with fault tolerance</t>
@@ -399,12 +397,10 @@
     <t>AR-1: Seismic Risk Assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">AR-2: Containerised UQ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR-3: Stress Recovery Methods
-</t>
+    <t>AR-2: Containerised UQ</t>
+  </si>
+  <si>
+    <t>AR-3: Stress Recovery Methods</t>
   </si>
   <si>
     <t>AR-4: Higher-order Visualisation in Paraview</t>
@@ -473,7 +469,7 @@
     <t>IAS-5: Community detection in large-scale social networks</t>
   </si>
   <si>
-    <t xml:space="preserve">IAS-6: Embedding virtual machines in data centre networks </t>
+    <t>IAS-6: Embedding virtual machines in data centre networks</t>
   </si>
   <si>
     <t>IAS-7: Solving the Travelling Salesperson Problem using meta-heuristics</t>
@@ -497,13 +493,13 @@
     <t>DS-5: Unsupervised authorship clustering</t>
   </si>
   <si>
-    <t xml:space="preserve">AT-1: Exploring and Simulating Network  Distributed Algorithms </t>
+    <t>AT-1: Exploring and Simulating Network  Distributed Algorithms</t>
   </si>
   <si>
     <t>AT-2: Improving Project Allocations: Software or Theory for the Matching Problem</t>
   </si>
   <si>
-    <t xml:space="preserve">AT-3: Designing and Testing Self-healing Distributed and/or Compact routing Algorithms  </t>
+    <t>AT-3: Designing and Testing Self-healing Distributed and/or Compact routing Algorithms</t>
   </si>
   <si>
     <t>AT-4: Characterising Equilibria of the EU Grant Games</t>
@@ -521,7 +517,7 @@
     <t>TV-3: Finding Optimal Entanglement Distribution Policies for Quantum Networks Using MDPs</t>
   </si>
   <si>
-    <t xml:space="preserve">TV-4: Achieving Distance Independent Entanglement Rates in Quantum Networks </t>
+    <t>TV-4: Achieving Distance Independent Entanglement Rates in Quantum Networks</t>
   </si>
   <si>
     <t>TV-5: Energy Efficient Counting Rule for Detecting Adversaries in Wireless Sensor Networks</t>
@@ -3283,13 +3279,16 @@
     <t>Python/Java/C#</t>
   </si>
   <si>
-    <t>CS Level 3: Yes, CS Level 4: Yes</t>
-  </si>
-  <si>
-    <t>CS Level 3: Yes, CS Level 4: No</t>
-  </si>
-  <si>
-    <t>CS Level 3: No, CS Level 4: Yes</t>
+    <t>CS Level 3: ✅
+CS Level 4: ✅</t>
+  </si>
+  <si>
+    <t>CS Level 3: ✅
+CS Level 4: ❌</t>
+  </si>
+  <si>
+    <t>CS Level 3: ❌
+CS Level 4: ✅</t>
   </si>
   <si>
     <t>temporal graph, graph connectivity, algorithm</t>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -2627,7 +2627,7 @@
 &lt;ul&gt;
 &lt;li&gt; Porting of queue data structure to SYCL &lt;/li&gt;
 &lt;li&gt; Porting of task producer-consumer mechanism to SYCL&lt;/li&gt;
-&lt;li&gt; Performance analysis with parallel efficiency as performance metric&lt;\&gt;
+&lt;li&gt; Performance analysis with parallel efficiency as performance metric&lt;/li&gt;
 &lt;/ul&gt;
 Advanced: 
 &lt;ul&gt;

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="933">
   <si>
     <t>Project Theme/Title</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>LMo-2: Enabling Fine-Grained Task-Parallelism on Massively Parallel Hardware with SYCL</t>
+  </si>
+  <si>
+    <t>LMo-3: Reinforcement Learning-based AI Player for Games with Imperfect Information</t>
   </si>
   <si>
     <t>BMo-1: Dispersion of mobile robots on a dynamic graph with fault tolerance</t>
@@ -1187,6 +1190,9 @@
  </t>
   </si>
   <si>
+    <t>Reinforcement learning (RL) is a machine learning technique that enables AI agents to learn beneficial strategies for reacting to dynamic environments. The AI player starts out with random actions in a trial-and-error manner and receives feedback for its actions via quantitative rewards and/or punishments. For AI players in games, this involves playing the game against another (AI) player or (past versions of) the AI player itself, and using the overall outcome of the game as feedback. In the context of multi-player games with perfect information such as Go or chess, RL has produced the strongest AI players that can even beat human champions. For multi-player games with imperfect information such as rummikub or qwirkle, RL algorithms are less well studied since hidden information and uncertainty result in more complex state-action graphs. The purpose of this project is to develop an RL-based AI player for a multi-player abstract strategy game with imperfect information, and to evaluate its competitiveness against an existing rule-based expert system.</t>
+  </si>
+  <si>
     <t>In this project, we're going to look at the problem of dispersion, where there are k robots that must autonomously work together to spread out over a given graph so that no node has too many robots on it in the end. This problem can act as a theoretical abstraction for situations where entities (robots) must share resources (nodes). For example, consider a bunch of electric cars moving around a city, trying to find an electric charging station to use (among many present in the city). The charging stations  (nodes) are connected to each other by roads (edges) and the electric cars (robots) want to move around so that they are not waiting in line at the same charging station. 
 &lt;br&gt;
 Now, with the problem and motivation out of the way, we're going to tweak things so life isn't so simple. What if the roads between stations changed with time and the robots didn't know about those changes in advance? What if some of the cars were actually faulty and didn't move around as expected. Well, we're going to study these things and come up with algorithms to still solve the problem despite these challenges.</t>
@@ -1925,6 +1931,14 @@
 &lt;a href="https://dl.acm.org/doi/abs/10.1145/3394277.3401858"&gt; Background information on underlying tasking framework and theory behind it&lt;/a&gt;
 &lt;br&gt;
 &lt;a href="https://www.khronos.org/sycl"&gt;Information about SYCL&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;&lt;a href="https://en.wikipedia.org/wiki/Qwirkle"&gt; Rules of qwirkle&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://arxiv.org/abs/1707.06347"&gt; Proximal Policy Optimization&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="https://github.com/davidADSP/SIMPLE"&gt; Python API for Proximal Policy Optimization in Games&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;&lt;a href="http://incompleteideas.net/book/RLbook2020.pdf"&gt; Introduction to RL incl. Q-learning and Monte Carlo Methods&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;a href="https://arxiv.org/abs/1707.06391" target="_blank" rel="noopener noreferrer"&gt;https://arxiv.org/abs/1707.06391&lt;/a&gt; &lt;br&gt;
@@ -2636,6 +2650,9 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
+    <t>Python implementation of an RL-based AI player for a multi-player abstract strategy game, and its evaluation against an existing rule-based expert system</t>
+  </si>
+  <si>
     <t>Algorithm(s) that solve the given problem along with proofs about correctness and runtime of the algorithms. Depending on the interest and effort of the student, we may expand the scope of the project in a way that may lead to a publication.</t>
   </si>
   <si>
@@ -3135,6 +3152,9 @@
     <t>C++, or a keen interest to learn it.</t>
   </si>
   <si>
+    <t>An understanding of reinforcement learning techniques, and the ability to use Python APIs</t>
+  </si>
+  <si>
     <t>&lt;ul&gt;
 &lt;li&gt; Strong foundations in algorithms, including the ability to prove correctness and bounds on algorithms. &lt;/li&gt;
 &lt;li&gt; Decent level of comfort working with graphs. &lt;/li&gt;
@@ -3600,6 +3620,9 @@
   </si>
   <si>
     <t>C++, Parallel Programming, High Performance Computing, Software Engineering, GPU Computing, SYCL, CUDA</t>
+  </si>
+  <si>
+    <t>Q-learning, Proximal Policy Optimization, Monte Carlo Tree Search</t>
   </si>
   <si>
     <t>Dispersion, distributed computing, theory, algorithms, fault tolerance</t>
@@ -4131,7 +4154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4168,25 +4191,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="H2" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4194,25 +4217,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F3" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G3" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="H3" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4220,22 +4243,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F4" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G4" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="H4" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4243,25 +4266,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F5" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G5" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="H5" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4269,22 +4292,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E6" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F6" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G6" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="H6" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4292,25 +4315,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F7" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G7" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="H7" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4318,25 +4341,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E8" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F8" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G8" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="H8" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4344,25 +4367,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F9" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G9" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="H9" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4370,25 +4393,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E10" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F10" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G10" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="H10" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4396,25 +4419,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F11" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G11" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="H11" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4422,25 +4445,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F12" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G12" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="H12" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4448,25 +4471,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E13" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F13" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G13" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="H13" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4474,25 +4497,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E14" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F14" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G14" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="H14" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4500,22 +4523,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E15" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F15" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="H15" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4523,22 +4546,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F16" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H16" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4546,25 +4569,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E17" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F17" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G17" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="H17" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4572,25 +4595,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E18" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F18" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G18" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="H18" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4598,25 +4621,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D19" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E19" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F19" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G19" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="H19" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4624,25 +4647,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D20" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E20" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G20" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="H20" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4650,25 +4673,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D21" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E21" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F21" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G21" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="H21" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4676,25 +4699,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D22" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F22" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G22" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="H22" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4702,19 +4725,19 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F23" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H23" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4722,25 +4745,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D24" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E24" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F24" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G24" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="H24" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4748,25 +4771,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E25" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F25" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G25" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="H25" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4774,25 +4797,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D26" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E26" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F26" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G26" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="H26" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4800,25 +4823,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E27" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F27" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G27" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="H27" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4826,25 +4849,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D28" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E28" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F28" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G28" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="H28" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4852,25 +4875,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D29" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E29" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F29" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G29" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="H29" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4878,25 +4901,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D30" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E30" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F30" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G30" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="H30" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4904,22 +4927,22 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E31" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F31" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G31" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="H31" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4927,22 +4950,22 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E32" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F32" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G32" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="H32" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4950,25 +4973,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D33" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E33" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F33" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G33" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="H33" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4976,25 +4999,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E34" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F34" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G34" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="H34" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5002,25 +5025,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D35" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E35" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F35" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G35" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="H35" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5028,25 +5051,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D36" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E36" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F36" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G36" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="H36" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5054,25 +5077,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D37" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E37" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F37" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G37" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="H37" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5080,22 +5103,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E38" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F38" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G38" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H38" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5103,25 +5126,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E39" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F39" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G39" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="H39" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5129,25 +5152,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E40" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F40" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G40" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="H40" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5155,25 +5178,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D41" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E41" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F41" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G41" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H41" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5181,25 +5204,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D42" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E42" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F42" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G42" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="H42" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5207,25 +5230,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D43" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E43" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F43" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G43" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="H43" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5233,25 +5256,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D44" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E44" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F44" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G44" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="H44" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5259,22 +5282,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C45" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E45" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F45" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G45" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="H45" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5282,16 +5305,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F46" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H46" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5299,19 +5322,19 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E47" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F47" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H47" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5319,22 +5342,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E48" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F48" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G48" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="H48" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5342,25 +5365,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D49" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E49" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F49" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G49" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="H49" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5368,25 +5391,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D50" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E50" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F50" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G50" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="H50" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5394,25 +5417,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D51" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E51" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F51" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G51" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="H51" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5420,25 +5443,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D52" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E52" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F52" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G52" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="H52" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5446,25 +5469,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D53" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E53" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F53" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G53" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="H53" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5472,25 +5495,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D54" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E54" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F54" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G54" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="H54" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5498,25 +5521,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D55" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E55" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F55" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G55" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="H55" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5524,25 +5547,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D56" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E56" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F56" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G56" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="H56" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5550,25 +5573,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D57" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E57" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F57" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G57" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="H57" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5576,25 +5599,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D58" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E58" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F58" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G58" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H58" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5602,25 +5625,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D59" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E59" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F59" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G59" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="H59" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5628,25 +5651,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D60" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E60" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F60" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G60" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="H60" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5654,25 +5677,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D61" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E61" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F61" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G61" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="H61" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5680,25 +5703,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D62" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E62" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F62" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G62" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="H62" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5706,22 +5729,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E63" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F63" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G63" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="H63" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5729,25 +5752,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D64" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E64" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F64" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G64" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="H64" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5755,25 +5778,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C65" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D65" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E65" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F65" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G65" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="H65" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5781,25 +5804,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E66" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F66" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G66" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="H66" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5807,25 +5830,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D67" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E67" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F67" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G67" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="H67" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5833,25 +5856,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E68" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F68" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G68" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="H68" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5859,25 +5882,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D69" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E69" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F69" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G69" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="H69" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5885,25 +5908,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D70" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E70" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F70" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G70" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="H70" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5911,25 +5934,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D71" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F71" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G71" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="H71" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5937,25 +5960,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D72" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E72" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F72" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G72" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="H72" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5963,25 +5986,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D73" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E73" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F73" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G73" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="H73" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5989,25 +6012,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E74" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F74" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G74" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="H74" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6015,25 +6038,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D75" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E75" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F75" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G75" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="H75" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6041,25 +6064,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D76" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E76" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F76" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G76" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="H76" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6067,25 +6090,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D77" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E77" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F77" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G77" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="H77" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6093,25 +6116,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D78" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E78" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F78" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G78" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="H78" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6119,25 +6142,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D79" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E79" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F79" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G79" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="H79" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6145,25 +6168,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D80" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E80" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F80" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G80" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="H80" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6171,25 +6194,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D81" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="E81" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F81" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G81" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H81" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6197,25 +6220,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D82" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E82" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F82" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G82" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="H82" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6223,25 +6246,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D83" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E83" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F83" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G83" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="H83" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6249,25 +6272,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D84" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E84" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F84" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G84" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="H84" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6275,22 +6298,22 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D85" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F85" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G85" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="H85" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6298,25 +6321,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D86" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E86" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F86" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G86" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="H86" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6324,19 +6347,19 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D87" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F87" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G87" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="H87" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6344,25 +6367,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C88" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D88" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E88" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F88" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G88" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="H88" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6370,22 +6393,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D89" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E89" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F89" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G89" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="H89" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6393,22 +6416,22 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E90" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F90" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G90" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="H90" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6416,22 +6439,22 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E91" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F91" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G91" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="H91" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6439,25 +6462,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E92" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F92" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G92" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="H92" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6465,25 +6488,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D93" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E93" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F93" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G93" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="H93" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6491,25 +6514,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C94" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D94" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E94" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F94" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G94" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="H94" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6517,25 +6540,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D95" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E95" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F95" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G95" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="H95" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6543,25 +6566,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D96" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E96" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="F96" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G96" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="H96" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6569,25 +6592,25 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D97" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E97" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F97" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G97" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="H97" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6595,22 +6618,22 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E98" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F98" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G98" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H98" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6618,19 +6641,19 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E99" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F99" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H99" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6638,25 +6661,25 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D100" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E100" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F100" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G100" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="H100" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6664,25 +6687,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D101" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E101" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F101" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G101" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="H101" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6690,25 +6713,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D102" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E102" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F102" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G102" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="H102" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6716,22 +6739,22 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D103" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E103" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F103" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G103" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="H103" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6739,25 +6762,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D104" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E104" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F104" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G104" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="H104" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6765,25 +6788,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D105" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E105" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F105" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G105" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="H105" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6791,25 +6814,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D106" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E106" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F106" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G106" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="H106" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6817,25 +6840,25 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C107" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D107" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E107" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="F107" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G107" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="H107" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6843,25 +6866,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D108" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E108" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F108" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G108" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="H108" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6869,25 +6892,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D109" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E109" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F109" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G109" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="H109" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6895,25 +6918,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C110" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D110" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E110" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F110" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G110" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="H110" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6921,25 +6944,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C111" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D111" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E111" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F111" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G111" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H111" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6947,25 +6970,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C112" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D112" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E112" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F112" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G112" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="H112" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6973,25 +6996,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D113" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E113" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F113" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G113" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="H113" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6999,25 +7022,25 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C114" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D114" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E114" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="F114" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G114" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="H114" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7025,25 +7048,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C115" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D115" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E115" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="F115" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G115" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="H115" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7051,25 +7074,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C116" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D116" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E116" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F116" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G116" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="H116" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7077,25 +7100,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C117" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D117" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E117" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F117" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="G117" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="H117" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7103,25 +7126,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C118" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D118" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E118" t="s">
-        <v>689</v>
+        <v>738</v>
       </c>
       <c r="F118" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G118" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="H118" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7129,25 +7152,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C119" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D119" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E119" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F119" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G119" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="H119" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7155,25 +7178,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C120" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D120" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E120" t="s">
-        <v>734</v>
+        <v>693</v>
       </c>
       <c r="F120" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G120" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="H120" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7181,25 +7204,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>294</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>448</v>
+        <v>295</v>
+      </c>
+      <c r="C121" t="s">
+        <v>450</v>
       </c>
       <c r="D121" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E121" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F121" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G121" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="H121" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7207,25 +7230,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D122" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E122" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F122" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G122" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="H122" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7233,25 +7256,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D123" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E123" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F123" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="G123" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="H123" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7259,25 +7282,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D124" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E124" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F124" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G124" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="H124" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7285,25 +7308,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
-      </c>
-      <c r="C125" t="s">
-        <v>452</v>
+        <v>299</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="D125" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E125" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F125" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G125" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="H125" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7311,22 +7334,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>455</v>
       </c>
       <c r="D126" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E126" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="F126" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G126" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="H126" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7334,19 +7360,22 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D127" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E127" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F127" t="s">
-        <v>772</v>
+        <v>777</v>
+      </c>
+      <c r="G127" t="s">
+        <v>895</v>
       </c>
       <c r="H127" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7354,25 +7383,19 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>301</v>
-      </c>
-      <c r="C128" t="s">
-        <v>453</v>
+        <v>302</v>
       </c>
       <c r="D128" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E128" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F128" t="s">
-        <v>772</v>
-      </c>
-      <c r="G128" t="s">
-        <v>890</v>
+        <v>777</v>
       </c>
       <c r="H128" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7380,25 +7403,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C129" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D129" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E129" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F129" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G129" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="H129" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7406,25 +7429,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C130" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D130" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E130" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="F130" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G130" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="H130" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7432,25 +7455,25 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C131" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D131" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E131" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F131" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G131" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="H131" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7458,25 +7481,25 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D132" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E132" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F132" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G132" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="H132" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7484,25 +7507,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C133" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D133" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E133" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F133" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G133" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="H133" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7510,25 +7533,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C134" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D134" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E134" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F134" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G134" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="H134" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7536,19 +7559,25 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C135" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D135" t="s">
-        <v>606</v>
+        <v>609</v>
+      </c>
+      <c r="E135" t="s">
+        <v>747</v>
       </c>
       <c r="F135" t="s">
-        <v>770</v>
+        <v>777</v>
+      </c>
+      <c r="G135" t="s">
+        <v>902</v>
       </c>
       <c r="H135" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7556,16 +7585,19 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="C136" t="s">
+        <v>463</v>
       </c>
       <c r="D136" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F136" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H136" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7573,19 +7605,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D137" t="s">
-        <v>608</v>
-      </c>
-      <c r="E137" t="s">
-        <v>744</v>
+        <v>611</v>
       </c>
       <c r="F137" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H137" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7593,19 +7622,19 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>311</v>
-      </c>
-      <c r="C138" t="s">
-        <v>461</v>
+        <v>312</v>
       </c>
       <c r="D138" t="s">
-        <v>609</v>
+        <v>612</v>
+      </c>
+      <c r="E138" t="s">
+        <v>749</v>
       </c>
       <c r="F138" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H138" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7613,19 +7642,19 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C139" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D139" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F139" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="H139" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7633,25 +7662,19 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C140" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D140" t="s">
-        <v>611</v>
-      </c>
-      <c r="E140" t="s">
-        <v>745</v>
+        <v>614</v>
       </c>
       <c r="F140" t="s">
-        <v>770</v>
-      </c>
-      <c r="G140" t="s">
-        <v>897</v>
+        <v>775</v>
       </c>
       <c r="H140" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7659,25 +7682,25 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C141" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D141" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E141" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="F141" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G141" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="H141" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7685,25 +7708,25 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C142" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D142" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E142" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="F142" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G142" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H142" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7711,25 +7734,25 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C143" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D143" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E143" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F143" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G143" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="H143" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7737,25 +7760,25 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C144" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D144" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E144" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="F144" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G144" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="H144" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7763,25 +7786,25 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C145" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D145" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E145" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F145" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G145" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="H145" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7789,25 +7812,25 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C146" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D146" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E146" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="F146" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="G146" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H146" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7815,22 +7838,25 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="C147" t="s">
+        <v>472</v>
       </c>
       <c r="D147" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E147" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F147" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G147" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="H147" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7838,25 +7864,22 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>321</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="D148" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E148" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F148" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G148" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="H148" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7864,25 +7887,25 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D149" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E149" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="F149" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G149" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="H149" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7890,25 +7913,25 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D150" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E150" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F150" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G150" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="H150" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7916,25 +7939,25 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D151" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E151" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F151" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G151" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="H151" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7942,25 +7965,25 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D152" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="E152" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F152" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G152" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="H152" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7968,25 +7991,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>326</v>
-      </c>
-      <c r="C153" t="s">
-        <v>475</v>
+        <v>327</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="D153" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E153" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F153" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G153" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="H153" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7994,22 +8017,25 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="C154" t="s">
+        <v>478</v>
       </c>
       <c r="D154" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E154" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F154" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G154" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="H154" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8017,25 +8043,22 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>328</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>476</v>
+        <v>329</v>
       </c>
       <c r="D155" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E155" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="F155" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G155" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="H155" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8043,25 +8066,25 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D156" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E156" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F156" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G156" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="H156" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8069,19 +8092,25 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="D157" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E157" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="F157" t="s">
-        <v>770</v>
+        <v>775</v>
+      </c>
+      <c r="G157" t="s">
+        <v>919</v>
       </c>
       <c r="H157" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8089,25 +8118,19 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>331</v>
-      </c>
-      <c r="C158" t="s">
-        <v>478</v>
+        <v>332</v>
       </c>
       <c r="D158" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E158" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F158" t="s">
-        <v>770</v>
-      </c>
-      <c r="G158" t="s">
-        <v>914</v>
+        <v>775</v>
       </c>
       <c r="H158" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8115,25 +8138,25 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>332</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>479</v>
+        <v>333</v>
+      </c>
+      <c r="C159" t="s">
+        <v>481</v>
       </c>
       <c r="D159" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E159" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F159" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G159" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="H159" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8141,25 +8164,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D160" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="E160" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F160" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G160" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H160" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8167,25 +8190,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D161" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E161" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F161" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G161" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="H161" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8193,25 +8216,25 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>335</v>
-      </c>
-      <c r="C162" t="s">
-        <v>482</v>
+        <v>336</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="D162" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E162" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F162" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="G162" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="H162" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8219,25 +8242,25 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>483</v>
+        <v>337</v>
+      </c>
+      <c r="C163" t="s">
+        <v>485</v>
       </c>
       <c r="D163" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E163" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="F163" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="G163" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="H163" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8245,25 +8268,25 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>337</v>
-      </c>
-      <c r="C164" t="s">
-        <v>484</v>
+        <v>338</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="D164" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E164" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F164" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="G164" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="H164" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8271,25 +8294,25 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C165" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D165" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E165" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F165" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G165" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="H165" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8297,22 +8320,25 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="C166" t="s">
+        <v>488</v>
       </c>
       <c r="D166" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E166" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F166" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G166" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="H166" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8320,22 +8346,22 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D167" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E167" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F167" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G167" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="H167" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8343,25 +8369,48 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>341</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>486</v>
+        <v>342</v>
       </c>
       <c r="D168" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E168" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F168" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="G168" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="H168" t="s">
-        <v>925</v>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" t="s">
+        <v>343</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D169" t="s">
+        <v>643</v>
+      </c>
+      <c r="E169" t="s">
+        <v>774</v>
+      </c>
+      <c r="F169" t="s">
+        <v>775</v>
+      </c>
+      <c r="G169" t="s">
+        <v>930</v>
+      </c>
+      <c r="H169" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -8419,22 +8468,22 @@
     <hyperlink ref="C106" r:id="rId51"/>
     <hyperlink ref="C108" r:id="rId52"/>
     <hyperlink ref="C109" r:id="rId53"/>
-    <hyperlink ref="C121" r:id="rId54"/>
-    <hyperlink ref="C122" r:id="rId55"/>
-    <hyperlink ref="C123" r:id="rId56"/>
-    <hyperlink ref="C124" r:id="rId57"/>
-    <hyperlink ref="C148" r:id="rId58"/>
-    <hyperlink ref="C149" r:id="rId59"/>
-    <hyperlink ref="C150" r:id="rId60"/>
-    <hyperlink ref="C151" r:id="rId61"/>
-    <hyperlink ref="C152" r:id="rId62"/>
-    <hyperlink ref="C155" r:id="rId63"/>
-    <hyperlink ref="C156" r:id="rId64"/>
-    <hyperlink ref="C159" r:id="rId65"/>
-    <hyperlink ref="C160" r:id="rId66"/>
-    <hyperlink ref="C161" r:id="rId67"/>
-    <hyperlink ref="C163" r:id="rId68"/>
-    <hyperlink ref="C168" r:id="rId69"/>
+    <hyperlink ref="C122" r:id="rId54"/>
+    <hyperlink ref="C123" r:id="rId55"/>
+    <hyperlink ref="C124" r:id="rId56"/>
+    <hyperlink ref="C125" r:id="rId57"/>
+    <hyperlink ref="C149" r:id="rId58"/>
+    <hyperlink ref="C150" r:id="rId59"/>
+    <hyperlink ref="C151" r:id="rId60"/>
+    <hyperlink ref="C152" r:id="rId61"/>
+    <hyperlink ref="C153" r:id="rId62"/>
+    <hyperlink ref="C156" r:id="rId63"/>
+    <hyperlink ref="C157" r:id="rId64"/>
+    <hyperlink ref="C160" r:id="rId65"/>
+    <hyperlink ref="C161" r:id="rId66"/>
+    <hyperlink ref="C162" r:id="rId67"/>
+    <hyperlink ref="C164" r:id="rId68"/>
+    <hyperlink ref="C169" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="957">
   <si>
     <t>Project Theme/Title</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>EB-4: Tracking the production and circulation of MIDI files during the 1990s</t>
+  </si>
+  <si>
+    <t>NBe-1: Tentative Title: Simulations of MicroServices: an exemplar for evaluation and comparison of decision-making techniques for self-adaptation</t>
+  </si>
+  <si>
+    <t>NBe-2: Tentative Title:  &lt;HR&gt;Surprises for Decision-Making in the case of Autonomous Systems:  Elicitation of Transition and Observation Models for Reinforcement Learning Techniques</t>
+  </si>
+  <si>
+    <t>NBe-3: Tentative Title: Conceptualizing Digital Twins for Decision-Making: The Case of Fidelity</t>
+  </si>
+  <si>
+    <t>NBe-4: Tentative Title: &lt;BR&gt;How good are your trade-offs?: Getting further insights about the trade-offs of Decision-Making Techniques for SAS using Non-Inferiority Trials</t>
   </si>
   <si>
     <t>SC-1: Using NLP to understand political success based on party manifestos</t>
@@ -609,6 +621,42 @@
   </si>
   <si>
     <t>MIDI files are a compact representation of music data, designed to be consumed by sequencers and synthesizers (both hardware and software). A new archive of approximately 400,000 MIDI files dating from the 1990s has been distilled from a large set of CD images (.iso files) that have been available online from the Internet Archive (archive.org). This project requires a set of tools for the analysis of MIDI files at scale, as well as their relations to each other, based on shared content, metadata, and co-occurence on the same CD image. Research questions include: (a) the design of an efficient and scalable software pipeline information extraction (IE) and other knowledge mining techniques to extract structured data from the plaintext metadata that these files include; (b) the production of temporal dynamic graphs that model historically interesting relations between files, as well as an evaluation of the suitability of standard and non-standard graph metrics for deriving insight from these graphs; (c) the design and implementation of a user interface, using standard data analysis frameworks, for the effective and user-friendly analysis of large volumes of MIDI files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microservices refer to small autonomous and self-adaptive services that work together to fulfil a particular goal. The popularity of the application of microservices has recently grown in the industry and as a result, has sparked an interest in the research community to evaluate the self-adaptive mechanisms in the microservices domain.  A number of challenges need to be addressed with respect to the self-adaptive decision-making approaches such as the quantification of the uncertainty of events that cannot be foreseen in advance and their effects and dealing with conflicting objectives that inherently involve multi-objective decision making.  
+Hence, the focus of this project is to develop an exemplar in the domain of microservices, which gives the opportunity to face the challenges described above. The exemplar should be able to provide a set of realistic simulation scenarios for microservices that can be used for experimentation and comparison purposes by the research community.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Description: 
+Experts define the transition and observation models in reinforcement learning techniques by considering the model of the world for the problem under study. Determining these initial transition and observation probabilities is a big challenge for the experts when considering the different runtime situations. There is a need for techniques to support experts in learning these values. 
+The goal is to investigate how to determine the optimal transition and observation probabilities considering the different runtime contexts. One of the prospective techniques to solve this problem is to use the concept of Surprise to identify the unexpected changes in the environment and learning process of the world model based on the surprising situations.
+The concept of Surprise is defined as a measure of unexpectedness and is a mismatch between an expected observation and an actual observation. Since the world is much more complex than any model of it, there will occasionally be a mismatch between the expectations arising from the model and the actual observation, e.g., when someone returns from work, and the location of the fridge is suddenly empty because your room-mate has sent it off for repair. Such mismatches can generate the feeling of surprise, and surprises can even manifest in changes such as pupil dilation.  Surprises have been a source of inspiration to develop computing-based and autonomous techniques [1, 2, 3]. In the case of self-adaptive and autonomous systems, the concept of Surprise can help the system to adapt the system’s behaviour during changes in the environment (to support decision making under uncertainty). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: 
+Context:
+Digital Twins (DTs) have emerged as a platform to underpin and drive the decision-making of its Real Twin (RT). The quality of the decision-making provided by the DT depends upon the degree of its fidelity concerning the RT and will ensure the RT's behaviour is inside the envelope of acceptability (EoA). A research concern in Autonomous Systems is finding techniques that ensure the autonomous behaviour is inside the Envelope of Acceptability (EoA). 
+Problem:
+A DT is seen as an abstraction of its Real Twin (RT), where the decision support is at heart. 
+The project is about conceptualising DTs as a reference architecture to guide the instantiation of technical solutions.  The conceptualisation allows stakeholders to have a common ground to develop technical solutions while focusing on the feedback loop for decision-making. 
+Particularly, the project should focus on the concept of the Fidelity of DTs and the fidelity assessment as a way to quantify and appraise how well the properties mirrored by a DT are aligned with the properties of the Real Twin (RT) to ensure the acceptability of the resultant behaviour. 
+The proposed conceptualisation will be applied to the characterisation of classes of applications.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: &lt;BR&gt;
+Context: The main objective of decision-making techniques for self-adaptive systems (SAS) is to support decisions for maintaining the satisfaction of quality of service (QoS) properties under environmental fluctuations. For this purpose, these techniques pursue the best possible trade-offs between the QoS properties in order to keep the system inside the acceptability envelope of good behaviour.  Understanding the nuances of these trade-offs is crucial to exploit the acceptability envelope.
+Question/Problem: Therefore, we pose the following questions (related to the assessment of the techniques and comparison between them) : 
+given a decision-making technique, what is the margin of acceptable sacrifice inflicted on one QoS property to satisfy another? (How does one technique compare to other techniques with respect to those margins of acceptability?)
+How can two techniques be compared with respect to those margins of acceptability? 
+(How effective are these techniques with respect to offering the best trade-offs to meet the QoS satisfaction levels required ?)  Specifically,  
+&lt;BR&gt;
+[Principal Ideas]  
+To answer these questions,  and under the umbrella of a cross-disciplinary initiative, we propose a novel approach based on the Non-Inferiority (NI) Trial, used in clinical trials,  to compare different decision-making techniques in SAS to tackle the previous questions. 
+</t>
   </si>
   <si>
     <t xml:space="preserve">Apply NLP and data analysis techniques to the manifesto project dataset to examine how political manifestos relate to voting practices or wider societal events and trends.  
@@ -1551,6 +1599,52 @@
 </t>
   </si>
   <si>
+    <t>RDMSim: an exemplar for evaluation and comparison of decision-making techniques for self-adaptation
+Authors: Huma Samin, Luis H Garcia Paucar, Nelly Bencomo, Cesar M Carranza Hurtado, Erik M Fredericks
+Publication date
+Conference
+2021 International Symposium on Software Engineering for Adaptive and Self-Managing Systems (SEAMS)
+Link:
+https://arxiv.org/pdf/2105.01978.pdf (among others that will be provided once the student has applied/accepted the project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References:
+[1] Bencomo, Nelly, and Amel Belaggoun. "A world full of surprises: Bayesian theory of surprise to quantify degrees of uncertainty." Companion Proceedings of the 36th International Conference on Software Engineering. 2014.
+Link: https://dl.acm.org/doi/pdf/10.1145/2591062.2591118?casa_token=3rYM9bTWU6QAAAAA:03mL2pDubTZPTE_JO65l7gFskPWwq7My4S5hSb3JDZqaRZ_8splx2rkk4hvUzqW8ZdhLPbc2zwvh
+&lt;BR&gt;
+[2] Xu, He A., et al. "Novelty is not surprise: Human exploratory and adaptive behavior in sequential decision-making." PLOS Computational Biology 17.6 (2021): e1009070.
+https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1009070
+&lt;BR&gt;
+[3] Baldi, Pierre, and Laurent Itti. "Of bits and wows: A Bayesian theory of surprise with applications to attention." Neural Networks 23.5 (2010): 649-666.
+https://www.sciencedirect.com/science/article/pii/S0893608009003256?casa_token=azRBWF_bcMIAAAAA:JvMY3HIDVr9F9xqbK8ZkVl04JiiOU1EUfl16xRGJy6hKVBrnN9UjegDfm2vwaLiALuWMAQDt
+</t>
+  </si>
+  <si>
+    <t>Paper 1:
+Link:
+https://education.dellemc.com/content/dam/dell-emc/documents/en-us/2018KS_Levina-Fidelity_of_the_Digial_Twin.pdf
+&lt;BR&gt;
+Paper 2: Decision-making under uncertainty: be aware of your priorities
+Authors: Huma Samin, Nelly Bencomo, Peter Sawyer
+Link:
+https://scholar.google.co.uk/citations?view_op=view_citation&amp;hl=en&amp;user=86H7HmkAAAAJ&amp;sortby=pubdate&amp;citation_for_view=86H7HmkAAAAJ:bKqednn6t2AC 
+Other References will be provided once the student chooses the project.</t>
+  </si>
+  <si>
+    <t>[1]  Decision-making under uncertainty: be aware of your priorities
+Authors: Huma Samin, Nelly Bencomo, Peter Sawyer
+Link:
+https://scholar.google.co.uk/citations?view_op=view_citation&amp;hl=en&amp;user=86H7HmkAAAAJ&amp;sortby=pubdate&amp;citation_for_view=86H7HmkAAAAJ:bKqednn6t2AC 
+&lt;BR&gt;
+[2] Schumi, Jennifer, and Janet T. Wittes. "Through the looking glass: understanding non-inferiority." Trials 12 (2011): 1-12.
+Link: https://link.springer.com/article/10.1186/1745-6215-12-106
+&lt;BR&gt;
+[3] Walker, J. "Non-inferiority statistics and equivalence studies." BJA education 19.8 (2019): 267.
+Link: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7808096/
+&lt;BR&gt;
+Other References will be provided once the student chooses the project.</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;ul&gt;
 &lt;li&gt;https://manifesto-project.wzb.eu/datasets &lt;/li&gt; 
 &lt;li&gt; https://manifesto-project.wzb.eu/publications/all &lt;/li&gt; 
@@ -2274,6 +2368,39 @@
     <t>To be discussed with supervisor</t>
   </si>
   <si>
+    <t xml:space="preserve">- A simulation tool for microservices (MS_Simulator) 
+- A research paper is envisioned to present 
+(i) MS_Simulator, a simulator for real-world experimentation, 
+(ii) a set of realistic simulation scenarios that can be used for experimentation and comparison purposes, 
+(iii) data for the sake of comparison.
+(other outcomes envisioned by the student are welcome)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-to apply surprise-based learning to optimise the transition and observation probabilities considering different runtime contexts.  &lt;BR&gt;
+- to apply the technique(s) on at least two substantial case studies &lt;BR&gt;
+- other outcomes foreseen by the student are welcome &lt;BR&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcomes:
+As a proof of concept, the fidelity assessment will be applied to two different substantial cases to evaluate the fitness of a DT to fulfil its role.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipated Outcomes: 
+&lt;BR&gt;
+- a novel approach to assess decision-making techniques concerning the acceptability of satisfaction of QoS. %We also present the mapping the NI Trial to the setup of decision-making techniques for SASs.
+&lt;BR&gt;
+- to evaluate the decision-making offered by two different SAS decision-making techniques based on reinforcement learning.  
+(i.e. multi-objective reinforcement learning techniques versus a single-objective reinforcement learning techniques. )
+&lt;BR&gt;
+- To provide insights about the achieved QoS properties' satisfaction by decision-making techniques and their nuances, to therefore exploit the envelope of acceptability.
+&lt;BR&gt;
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Potential outcomes may include: descriptive, predictive and/or explanatory data analytics; building prediction models based the manifestos and or related open datasets (e.g. government, news, google ngrams, ParlaSpeech Corpus, Hansard Speeches and Sentiment dataset); exploring political and other forms of bias in word embeddings trained on the manifestos data; visualisation of the data for a user-facing system. </t>
   </si>
   <si>
@@ -2906,6 +3033,21 @@
 Desirable (either as pre-requisite or co-requisite): COMP3517 Computational Modelling in the Humanities and Social Sciences OR COMP3717 Introduction to Music Processing</t>
   </si>
   <si>
+    <t xml:space="preserve">Preferably knowledge of Java or python
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferably, at least basic knowledge of AI techniques and Java and / or Python
+</t>
+  </si>
+  <si>
+    <t>Preferably knowledge of java or python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferably knowledge of Java or python
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Some understanding of data analytics and NLP; some level of experience with pandas, Matplotlib, Seaborn, R, PyTorch, Keras or similar is useful.  </t>
   </si>
   <si>
@@ -3362,6 +3504,20 @@
   </si>
   <si>
     <t>MIDI, music processing</t>
+  </si>
+  <si>
+    <t>Microservices, Self-Adaptation, Decision-Making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision-making, Uncertainty, Bayesian Learning, Reinforcement Learning, BAyesian Surprises
+</t>
+  </si>
+  <si>
+    <t>Digital Twins, Runtime Models, Fidelity, Decision-Support, Logistic regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords: Reinforcement Learning, multi-objective reinforcement learning technique, single-objective reinforcement learning technique, self-adaptive system
+</t>
   </si>
   <si>
     <t xml:space="preserve">data analytics, NLP, visualisation, politics, bias, visualisation </t>
@@ -4154,7 +4310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4191,25 +4347,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="F2" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G2" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="H2" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4217,25 +4373,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="F3" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G3" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="H3" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4243,22 +4399,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="F4" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="G4" t="s">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="H4" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4266,25 +4422,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D5" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="F5" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G5" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H5" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4292,22 +4448,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G6" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="H6" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4315,25 +4471,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="F7" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G7" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="H7" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4341,25 +4497,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="E8" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F8" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G8" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="H8" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4367,25 +4523,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E9" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F9" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G9" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="H9" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4393,25 +4549,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="F10" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="G10" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="H10" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4419,25 +4575,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E11" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F11" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G11" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="H11" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4445,25 +4601,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E12" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F12" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G12" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="H12" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4471,25 +4627,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D13" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="E13" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="F13" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G13" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="H13" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4497,25 +4653,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="E14" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="F14" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G14" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="H14" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4523,22 +4679,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D15" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="E15" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="F15" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="H15" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4546,22 +4702,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D16" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="E16" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="F16" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="H16" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4569,25 +4725,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D17" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="E17" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="F17" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G17" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="H17" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4595,25 +4751,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D18" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="E18" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="F18" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G18" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="H18" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4621,25 +4777,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D19" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E19" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="F19" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G19" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="H19" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4647,25 +4803,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E20" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="F20" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G20" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="H20" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4673,25 +4829,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E21" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="F21" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G21" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="H21" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4699,25 +4855,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D22" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E22" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="F22" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G22" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="H22" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4725,19 +4881,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+      <c r="D23" t="s">
+        <v>517</v>
       </c>
       <c r="E23" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="F23" t="s">
-        <v>775</v>
+        <v>795</v>
+      </c>
+      <c r="G23" t="s">
+        <v>816</v>
       </c>
       <c r="H23" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4745,25 +4907,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E24" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="F24" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G24" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
       <c r="H24" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4771,25 +4933,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D25" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E25" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="F25" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G25" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="H25" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4797,25 +4959,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>367</v>
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>375</v>
       </c>
       <c r="D26" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="E26" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="F26" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G26" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="H26" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4823,25 +4985,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D27" t="s">
-        <v>508</v>
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>376</v>
       </c>
       <c r="E27" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="F27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G27" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="H27" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4849,25 +5005,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>369</v>
+        <v>206</v>
+      </c>
+      <c r="C28" t="s">
+        <v>377</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E28" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="F28" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G28" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="H28" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4875,25 +5031,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E29" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="F29" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G29" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="H29" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4901,25 +5057,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" t="s">
-        <v>371</v>
+        <v>208</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="D30" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="E30" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F30" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G30" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="H30" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4927,22 +5083,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="D31" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E31" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="F31" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G31" t="s">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="H31" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4950,22 +5109,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>210</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="D32" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="E32" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="F32" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G32" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="H32" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4973,25 +5135,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D33" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E33" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="F33" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="G33" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="H33" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4999,25 +5161,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>373</v>
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>383</v>
       </c>
       <c r="D34" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="F34" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G34" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="H34" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5025,25 +5187,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>374</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="E35" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F35" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G35" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="H35" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5051,25 +5210,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>375</v>
+        <v>214</v>
       </c>
       <c r="D36" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="E36" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="F36" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G36" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H36" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5077,25 +5233,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>376</v>
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>384</v>
       </c>
       <c r="D37" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="E37" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="F37" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G37" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="H37" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5103,22 +5259,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>216</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="E38" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="F38" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G38" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="H38" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5126,25 +5285,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E39" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="F39" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G39" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="H39" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5152,25 +5311,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D40" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="E40" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="F40" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G40" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="H40" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5178,25 +5337,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D41" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="E41" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="F41" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G41" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="H41" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5204,25 +5363,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="E42" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F42" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G42" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="H42" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5230,25 +5386,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" t="s">
-        <v>381</v>
+        <v>221</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D43" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="E43" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="F43" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G43" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="H43" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5256,25 +5412,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D44" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="E44" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="F44" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G44" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
       <c r="H44" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5282,22 +5438,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" t="s">
-        <v>383</v>
+        <v>223</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D45" t="s">
+        <v>538</v>
       </c>
       <c r="E45" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F45" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G45" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
       <c r="H45" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5305,16 +5464,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>384</v>
+        <v>392</v>
+      </c>
+      <c r="D46" t="s">
+        <v>539</v>
+      </c>
+      <c r="E46" t="s">
+        <v>698</v>
       </c>
       <c r="F46" t="s">
-        <v>775</v>
+        <v>795</v>
+      </c>
+      <c r="G46" t="s">
+        <v>838</v>
       </c>
       <c r="H46" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5322,19 +5490,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>385</v>
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>393</v>
+      </c>
+      <c r="D47" t="s">
+        <v>540</v>
       </c>
       <c r="E47" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="F47" t="s">
-        <v>775</v>
+        <v>795</v>
+      </c>
+      <c r="G47" t="s">
+        <v>838</v>
       </c>
       <c r="H47" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5342,22 +5516,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
+      </c>
+      <c r="D48" t="s">
+        <v>541</v>
       </c>
       <c r="E48" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="F48" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G48" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="H48" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5365,25 +5542,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D49" t="s">
-        <v>526</v>
+        <v>227</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
       </c>
       <c r="E49" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="F49" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G49" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="H49" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5391,25 +5565,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D50" t="s">
-        <v>527</v>
-      </c>
-      <c r="E50" t="s">
-        <v>684</v>
+        <v>228</v>
+      </c>
+      <c r="C50" t="s">
+        <v>396</v>
       </c>
       <c r="F50" t="s">
-        <v>775</v>
-      </c>
-      <c r="G50" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="H50" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5417,25 +5582,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D51" t="s">
-        <v>528</v>
+        <v>397</v>
       </c>
       <c r="E51" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="F51" t="s">
-        <v>777</v>
-      </c>
-      <c r="G51" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="H51" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5443,25 +5602,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" t="s">
-        <v>529</v>
+        <v>398</v>
       </c>
       <c r="E52" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="F52" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G52" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="H52" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5469,25 +5625,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D53" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E53" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F53" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G53" t="s">
-        <v>822</v>
+        <v>842</v>
       </c>
       <c r="H53" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5495,25 +5651,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D54" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="E54" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="F54" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G54" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="H54" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5521,25 +5677,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D55" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="E55" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="F55" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="G55" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="H55" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5547,25 +5703,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" t="s">
-        <v>394</v>
+        <v>234</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D56" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="E56" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="F56" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="G56" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="H56" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5573,25 +5729,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D57" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="E57" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="F57" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G57" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="H57" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5599,25 +5755,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D58" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="E58" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="F58" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G58" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="H58" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5625,25 +5781,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="E59" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="F59" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G59" t="s">
-        <v>828</v>
+        <v>848</v>
       </c>
       <c r="H59" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5651,25 +5807,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C60" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D60" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="E60" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="F60" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G60" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="H60" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5677,25 +5833,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" t="s">
-        <v>399</v>
+        <v>239</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="D61" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="E61" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="F61" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G61" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="H61" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5703,25 +5859,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
-      </c>
-      <c r="C62" t="s">
-        <v>400</v>
+        <v>240</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D62" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="E62" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="F62" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G62" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="H62" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5729,22 +5885,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>237</v>
+        <v>241</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="D63" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="E63" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="F63" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G63" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
       <c r="H63" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5752,25 +5911,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D64" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="E64" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="F64" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G64" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="H64" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5778,25 +5937,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D65" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="E65" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="F65" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G65" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="H65" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5804,25 +5963,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D66" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="E66" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="F66" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G66" t="s">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="H66" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5830,25 +5989,22 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>404</v>
+        <v>245</v>
       </c>
       <c r="D67" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="E67" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="F67" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G67" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="H67" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5856,25 +6012,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D68" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E68" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="F68" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G68" t="s">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="H68" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5882,25 +6038,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D69" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="E69" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F69" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G69" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="H69" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5908,25 +6064,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D70" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E70" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="F70" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G70" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="H70" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5934,25 +6090,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" t="s">
-        <v>408</v>
+        <v>249</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D71" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="E71" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="F71" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="G71" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="H71" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5960,25 +6116,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>409</v>
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
+        <v>417</v>
       </c>
       <c r="D72" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="E72" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="F72" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="G72" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="H72" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5986,25 +6142,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>410</v>
+        <v>251</v>
+      </c>
+      <c r="C73" t="s">
+        <v>418</v>
       </c>
       <c r="D73" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="E73" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="F73" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G73" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="H73" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6012,25 +6168,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>411</v>
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>419</v>
       </c>
       <c r="D74" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="E74" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="F74" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G74" t="s">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="H74" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6038,25 +6194,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>412</v>
+        <v>253</v>
+      </c>
+      <c r="C75" t="s">
+        <v>420</v>
       </c>
       <c r="D75" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="E75" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="F75" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G75" t="s">
-        <v>844</v>
+        <v>864</v>
       </c>
       <c r="H75" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6064,25 +6220,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="E76" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="F76" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="G76" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="H76" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6090,25 +6246,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D77" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="E77" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="F77" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="G77" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="H77" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6116,25 +6272,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D78" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="E78" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="F78" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G78" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="H78" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6142,25 +6298,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="D79" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="E79" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="F79" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="G79" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="H79" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6168,25 +6324,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D80" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="E80" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
       <c r="F80" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G80" t="s">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="H80" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6194,25 +6350,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D81" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="E81" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="F81" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="G81" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="H81" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6220,25 +6376,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D82" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="E82" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="F82" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G82" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
       <c r="H82" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6246,25 +6402,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" t="s">
-        <v>420</v>
+        <v>261</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D83" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E83" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F83" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G83" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="H83" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6272,25 +6428,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D84" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="E84" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F84" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="G84" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="H84" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6298,22 +6454,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" t="s">
-        <v>422</v>
+        <v>263</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="D85" t="s">
-        <v>562</v>
+        <v>574</v>
+      </c>
+      <c r="E85" t="s">
+        <v>713</v>
       </c>
       <c r="F85" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G85" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="H85" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6321,25 +6480,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
-      </c>
-      <c r="C86" t="s">
-        <v>423</v>
+        <v>264</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="D86" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="E86" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="F86" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G86" t="s">
-        <v>855</v>
+        <v>875</v>
       </c>
       <c r="H86" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6347,19 +6506,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>432</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>576</v>
+      </c>
+      <c r="E87" t="s">
+        <v>729</v>
       </c>
       <c r="F87" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G87" t="s">
-        <v>856</v>
+        <v>876</v>
       </c>
       <c r="H87" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6367,25 +6532,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" t="s">
-        <v>424</v>
+        <v>266</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="D88" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="E88" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="F88" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G88" t="s">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="H88" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6393,22 +6558,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>434</v>
       </c>
       <c r="D89" t="s">
-        <v>566</v>
-      </c>
-      <c r="E89" t="s">
-        <v>713</v>
+        <v>578</v>
       </c>
       <c r="F89" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G89" t="s">
-        <v>858</v>
+        <v>878</v>
       </c>
       <c r="H89" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6416,22 +6581,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>264</v>
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>435</v>
       </c>
       <c r="D90" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="E90" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="F90" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G90" t="s">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="H90" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6439,22 +6607,19 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D91" t="s">
-        <v>568</v>
-      </c>
-      <c r="E91" t="s">
-        <v>715</v>
+        <v>580</v>
       </c>
       <c r="F91" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G91" t="s">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="H91" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6462,25 +6627,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C92" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="D92" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="E92" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="F92" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G92" t="s">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="H92" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6488,25 +6653,22 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
-      </c>
-      <c r="C93" t="s">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="D93" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="E93" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="F93" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G93" t="s">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="H93" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6514,25 +6676,22 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
-      </c>
-      <c r="C94" t="s">
-        <v>427</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E94" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="F94" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G94" t="s">
-        <v>863</v>
+        <v>883</v>
       </c>
       <c r="H94" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6540,25 +6699,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" t="s">
-        <v>427</v>
+        <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E95" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="F95" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G95" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="H95" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6566,25 +6722,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C96" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D96" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E96" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="F96" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G96" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="H96" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6592,25 +6748,25 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>271</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>429</v>
+        <v>275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>438</v>
       </c>
       <c r="D97" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="E97" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="F97" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G97" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="H97" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6618,22 +6774,25 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>439</v>
       </c>
       <c r="D98" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="E98" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F98" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G98" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="H98" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6641,19 +6800,25 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>439</v>
       </c>
       <c r="D99" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="E99" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="F99" t="s">
-        <v>775</v>
+        <v>795</v>
+      </c>
+      <c r="G99" t="s">
+        <v>888</v>
       </c>
       <c r="H99" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6661,25 +6826,25 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>274</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>430</v>
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>440</v>
       </c>
       <c r="D100" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="E100" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="F100" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G100" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="H100" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6687,25 +6852,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D101" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="E101" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F101" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G101" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="H101" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6713,25 +6878,22 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>432</v>
+        <v>280</v>
       </c>
       <c r="D102" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E102" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="F102" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G102" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="H102" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6739,22 +6901,19 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E103" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="F103" t="s">
-        <v>775</v>
-      </c>
-      <c r="G103" t="s">
-        <v>871</v>
+        <v>795</v>
       </c>
       <c r="H103" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6762,25 +6921,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="E104" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="F104" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G104" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="H104" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6788,25 +6947,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="E105" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="F105" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G105" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="H105" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6814,25 +6973,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="D106" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E106" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
       <c r="F106" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G106" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="H106" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6840,25 +6999,22 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>281</v>
-      </c>
-      <c r="C107" t="s">
-        <v>436</v>
+        <v>285</v>
       </c>
       <c r="D107" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E107" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="F107" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G107" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="H107" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6866,25 +7022,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D108" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="E108" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="F108" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G108" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="H108" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6892,25 +7048,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D109" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="E109" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="F109" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G109" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="H109" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6918,25 +7074,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>284</v>
-      </c>
-      <c r="C110" t="s">
-        <v>439</v>
+        <v>288</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="D110" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="E110" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="F110" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G110" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="H110" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6944,25 +7100,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C111" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D111" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E111" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="F111" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G111" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="H111" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6970,25 +7126,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
-      </c>
-      <c r="C112" t="s">
-        <v>441</v>
+        <v>290</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="D112" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="E112" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="F112" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G112" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="H112" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6996,25 +7152,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>287</v>
-      </c>
-      <c r="C113" t="s">
-        <v>442</v>
+        <v>291</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="D113" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E113" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="F113" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G113" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="H113" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7022,25 +7178,25 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C114" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D114" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="E114" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="F114" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G114" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="H114" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7048,25 +7204,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D115" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="E115" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="F115" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G115" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="H115" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7074,25 +7230,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D116" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="E116" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="F116" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G116" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="H116" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7100,25 +7256,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C117" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D117" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="E117" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="F117" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G117" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="H117" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7126,25 +7282,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C118" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D118" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="E118" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="F118" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G118" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="H118" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7152,25 +7308,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C119" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D119" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="E119" t="s">
-        <v>693</v>
+        <v>755</v>
       </c>
       <c r="F119" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G119" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="H119" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7178,25 +7334,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D120" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="E120" t="s">
-        <v>693</v>
+        <v>756</v>
       </c>
       <c r="F120" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G120" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="H120" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7204,25 +7360,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C121" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D121" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="E121" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="F121" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="G121" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="H121" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7230,25 +7386,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>451</v>
+        <v>300</v>
+      </c>
+      <c r="C122" t="s">
+        <v>459</v>
       </c>
       <c r="D122" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="E122" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="F122" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="G122" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="H122" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7256,25 +7412,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>297</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>452</v>
+        <v>301</v>
+      </c>
+      <c r="C123" t="s">
+        <v>460</v>
       </c>
       <c r="D123" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="E123" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="F123" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G123" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="H123" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7282,25 +7438,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>298</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>453</v>
+        <v>302</v>
+      </c>
+      <c r="C124" t="s">
+        <v>461</v>
       </c>
       <c r="D124" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="E124" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
       <c r="F124" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G124" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="H124" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7308,25 +7464,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>454</v>
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>462</v>
       </c>
       <c r="D125" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="E125" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="F125" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G125" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="H125" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7334,25 +7490,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
-      </c>
-      <c r="C126" t="s">
-        <v>455</v>
+        <v>304</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="D126" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E126" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="F126" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G126" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="H126" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7360,22 +7516,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>301</v>
+        <v>305</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D127" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="E127" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="F127" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G127" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="H127" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7383,19 +7542,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>302</v>
+        <v>306</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="D128" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="E128" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="F128" t="s">
-        <v>777</v>
+        <v>795</v>
+      </c>
+      <c r="G128" t="s">
+        <v>916</v>
       </c>
       <c r="H128" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7403,25 +7568,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>303</v>
-      </c>
-      <c r="C129" t="s">
-        <v>456</v>
+        <v>307</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="D129" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="E129" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="F129" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G129" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="H129" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7429,25 +7594,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C130" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D130" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="E130" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="F130" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G130" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="H130" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7455,25 +7620,22 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>305</v>
-      </c>
-      <c r="C131" t="s">
-        <v>458</v>
+        <v>309</v>
       </c>
       <c r="D131" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="E131" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="F131" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G131" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="H131" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7481,25 +7643,19 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>306</v>
-      </c>
-      <c r="C132" t="s">
-        <v>459</v>
+        <v>310</v>
       </c>
       <c r="D132" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="E132" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="F132" t="s">
-        <v>777</v>
-      </c>
-      <c r="G132" t="s">
-        <v>899</v>
+        <v>797</v>
       </c>
       <c r="H132" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7507,25 +7663,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C133" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D133" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E133" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="F133" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G133" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="H133" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7533,25 +7689,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C134" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D134" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="E134" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="F134" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G134" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="H134" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7559,25 +7715,25 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D135" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="E135" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="F135" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G135" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="H135" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7585,19 +7741,25 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C136" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D136" t="s">
-        <v>610</v>
+        <v>622</v>
+      </c>
+      <c r="E136" t="s">
+        <v>767</v>
       </c>
       <c r="F136" t="s">
-        <v>775</v>
+        <v>797</v>
+      </c>
+      <c r="G136" t="s">
+        <v>923</v>
       </c>
       <c r="H136" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7605,16 +7767,25 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+      <c r="C137" t="s">
+        <v>472</v>
       </c>
       <c r="D137" t="s">
-        <v>611</v>
+        <v>623</v>
+      </c>
+      <c r="E137" t="s">
+        <v>767</v>
       </c>
       <c r="F137" t="s">
-        <v>775</v>
+        <v>797</v>
+      </c>
+      <c r="G137" t="s">
+        <v>924</v>
       </c>
       <c r="H137" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7622,19 +7793,25 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>312</v>
+        <v>316</v>
+      </c>
+      <c r="C138" t="s">
+        <v>473</v>
       </c>
       <c r="D138" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="E138" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="F138" t="s">
-        <v>775</v>
+        <v>797</v>
+      </c>
+      <c r="G138" t="s">
+        <v>925</v>
       </c>
       <c r="H138" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7642,19 +7819,25 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C139" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D139" t="s">
-        <v>613</v>
+        <v>625</v>
+      </c>
+      <c r="E139" t="s">
+        <v>767</v>
       </c>
       <c r="F139" t="s">
-        <v>775</v>
+        <v>797</v>
+      </c>
+      <c r="G139" t="s">
+        <v>926</v>
       </c>
       <c r="H139" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7662,19 +7845,19 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C140" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D140" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="F140" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="H140" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7682,25 +7865,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>315</v>
-      </c>
-      <c r="C141" t="s">
-        <v>466</v>
+        <v>319</v>
       </c>
       <c r="D141" t="s">
-        <v>615</v>
-      </c>
-      <c r="E141" t="s">
-        <v>750</v>
+        <v>627</v>
       </c>
       <c r="F141" t="s">
-        <v>775</v>
-      </c>
-      <c r="G141" t="s">
-        <v>903</v>
+        <v>795</v>
       </c>
       <c r="H141" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7708,25 +7882,19 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>316</v>
-      </c>
-      <c r="C142" t="s">
-        <v>467</v>
+        <v>320</v>
       </c>
       <c r="D142" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="E142" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="F142" t="s">
-        <v>775</v>
-      </c>
-      <c r="G142" t="s">
-        <v>904</v>
+        <v>795</v>
       </c>
       <c r="H142" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7734,25 +7902,19 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C143" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D143" t="s">
-        <v>617</v>
-      </c>
-      <c r="E143" t="s">
-        <v>751</v>
+        <v>629</v>
       </c>
       <c r="F143" t="s">
-        <v>775</v>
-      </c>
-      <c r="G143" t="s">
-        <v>905</v>
+        <v>795</v>
       </c>
       <c r="H143" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7760,25 +7922,19 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C144" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D144" t="s">
-        <v>618</v>
-      </c>
-      <c r="E144" t="s">
-        <v>752</v>
+        <v>630</v>
       </c>
       <c r="F144" t="s">
-        <v>775</v>
-      </c>
-      <c r="G144" t="s">
-        <v>906</v>
+        <v>795</v>
       </c>
       <c r="H144" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7786,25 +7942,25 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C145" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D145" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="E145" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="F145" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G145" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="H145" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7812,25 +7968,25 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C146" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D146" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E146" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="F146" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G146" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="H146" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7838,25 +7994,25 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C147" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D147" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="E147" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="F147" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G147" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="H147" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7864,22 +8020,25 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>322</v>
+        <v>326</v>
+      </c>
+      <c r="C148" t="s">
+        <v>481</v>
       </c>
       <c r="D148" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="E148" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="F148" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G148" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="H148" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7887,25 +8046,25 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>323</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>473</v>
+        <v>327</v>
+      </c>
+      <c r="C149" t="s">
+        <v>482</v>
       </c>
       <c r="D149" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="E149" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="F149" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G149" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="H149" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7913,25 +8072,25 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>474</v>
+        <v>328</v>
+      </c>
+      <c r="C150" t="s">
+        <v>483</v>
       </c>
       <c r="D150" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="E150" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="F150" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="G150" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="H150" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7939,25 +8098,25 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>325</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>475</v>
+        <v>329</v>
+      </c>
+      <c r="C151" t="s">
+        <v>484</v>
       </c>
       <c r="D151" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="E151" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="F151" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="G151" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="H151" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7965,25 +8124,22 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>326</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>476</v>
+        <v>330</v>
       </c>
       <c r="D152" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="E152" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="F152" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G152" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="H152" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7991,25 +8147,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D153" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="E153" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="F153" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G153" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="H153" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8017,25 +8173,25 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
-      </c>
-      <c r="C154" t="s">
-        <v>478</v>
+        <v>332</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="D154" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="E154" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="F154" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G154" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="H154" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8043,22 +8199,25 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D155" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="E155" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="F155" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G155" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="H155" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8066,25 +8225,25 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D156" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="E156" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="F156" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G156" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="H156" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8092,25 +8251,25 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D157" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="E157" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="F157" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G157" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="H157" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8118,19 +8277,25 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>332</v>
+        <v>336</v>
+      </c>
+      <c r="C158" t="s">
+        <v>490</v>
       </c>
       <c r="D158" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="E158" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="F158" t="s">
-        <v>775</v>
+        <v>795</v>
+      </c>
+      <c r="G158" t="s">
+        <v>940</v>
       </c>
       <c r="H158" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8138,25 +8303,22 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>333</v>
-      </c>
-      <c r="C159" t="s">
-        <v>481</v>
+        <v>337</v>
       </c>
       <c r="D159" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="E159" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="F159" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G159" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
       <c r="H159" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8164,25 +8326,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D160" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="E160" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="F160" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G160" t="s">
-        <v>921</v>
+        <v>942</v>
       </c>
       <c r="H160" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8190,25 +8352,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D161" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="E161" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="F161" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="G161" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="H161" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8216,25 +8378,19 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>336</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>484</v>
+        <v>340</v>
       </c>
       <c r="D162" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="E162" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="F162" t="s">
-        <v>777</v>
-      </c>
-      <c r="G162" t="s">
-        <v>923</v>
+        <v>795</v>
       </c>
       <c r="H162" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8242,25 +8398,25 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C163" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D163" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E163" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="F163" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="G163" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="H163" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8268,25 +8424,25 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D164" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="E164" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="F164" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G164" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="H164" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8294,25 +8450,25 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>339</v>
-      </c>
-      <c r="C165" t="s">
-        <v>487</v>
+        <v>343</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="D165" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="E165" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="F165" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="G165" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="H165" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8320,25 +8476,25 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>340</v>
-      </c>
-      <c r="C166" t="s">
-        <v>488</v>
+        <v>344</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="D166" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="E166" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="F166" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G166" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="H166" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8346,22 +8502,25 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>345</v>
+      </c>
+      <c r="C167" t="s">
+        <v>497</v>
       </c>
       <c r="D167" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="E167" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="F167" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="G167" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="H167" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8369,22 +8528,25 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>342</v>
+        <v>346</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D168" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="E168" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="F168" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="G168" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="H168" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8392,25 +8554,123 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>489</v>
+        <v>347</v>
+      </c>
+      <c r="C169" t="s">
+        <v>499</v>
       </c>
       <c r="D169" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="E169" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="F169" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="G169" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="H169" t="s">
-        <v>931</v>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s">
+        <v>500</v>
+      </c>
+      <c r="D170" t="s">
+        <v>656</v>
+      </c>
+      <c r="E170" t="s">
+        <v>791</v>
+      </c>
+      <c r="F170" t="s">
+        <v>797</v>
+      </c>
+      <c r="G170" t="s">
+        <v>951</v>
+      </c>
+      <c r="H170" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" t="s">
+        <v>657</v>
+      </c>
+      <c r="E171" t="s">
+        <v>792</v>
+      </c>
+      <c r="F171" t="s">
+        <v>797</v>
+      </c>
+      <c r="G171" t="s">
+        <v>952</v>
+      </c>
+      <c r="H171" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172" t="s">
+        <v>658</v>
+      </c>
+      <c r="E172" t="s">
+        <v>793</v>
+      </c>
+      <c r="F172" t="s">
+        <v>797</v>
+      </c>
+      <c r="G172" t="s">
+        <v>953</v>
+      </c>
+      <c r="H172" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D173" t="s">
+        <v>659</v>
+      </c>
+      <c r="E173" t="s">
+        <v>794</v>
+      </c>
+      <c r="F173" t="s">
+        <v>795</v>
+      </c>
+      <c r="G173" t="s">
+        <v>954</v>
+      </c>
+      <c r="H173" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -8423,67 +8683,67 @@
     <hyperlink ref="C13" r:id="rId6"/>
     <hyperlink ref="C14" r:id="rId7"/>
     <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C26" r:id="rId9"/>
-    <hyperlink ref="C27" r:id="rId10"/>
-    <hyperlink ref="C28" r:id="rId11"/>
-    <hyperlink ref="C34" r:id="rId12"/>
-    <hyperlink ref="C35" r:id="rId13"/>
-    <hyperlink ref="C36" r:id="rId14"/>
-    <hyperlink ref="C37" r:id="rId15"/>
-    <hyperlink ref="C39" r:id="rId16"/>
-    <hyperlink ref="C40" r:id="rId17" location="t=aboutBook"/>
-    <hyperlink ref="C41" r:id="rId18"/>
-    <hyperlink ref="C44" r:id="rId19"/>
-    <hyperlink ref="C47" r:id="rId20"/>
-    <hyperlink ref="C48" r:id="rId21"/>
-    <hyperlink ref="C49" r:id="rId22"/>
-    <hyperlink ref="C50" r:id="rId23"/>
-    <hyperlink ref="C51" r:id="rId24" location=".Xhjy385zyM8;&#10;http://www.cp.jku.at/datasets/musicmicro/index.html;&#10;https://github.com/irecsys/CARSKit/tree/master/context-aware_data_sets;&#10;https://www.yelp.com/dataset"/>
-    <hyperlink ref="C52" r:id="rId25" location="heading20;&#10;https://www.sciencedirect.com/science/article/pii/B9780125587044500104;&#10;https://www.sciencedirect.com/science/article/abs/pii/0005791694900639;&#10;https://link.springer.com/chapter/10.1007/978-3-319-66790-4_1;&#10;https://link.springer.com/article/10.3758/s13428-016-0715-3;&#10;https://iui-lecture.org/&#10;https://www.youtube.com/watch?v=NOazEIijXTo&amp;list=PLsZdV05-bvLHcePpoXlIVFNfT7q2Y1kOx&amp;index=34"/>
-    <hyperlink ref="C53" r:id="rId26"/>
-    <hyperlink ref="C54" r:id="rId27"/>
-    <hyperlink ref="C55" r:id="rId28"/>
-    <hyperlink ref="C57" r:id="rId29"/>
-    <hyperlink ref="C58" r:id="rId30"/>
-    <hyperlink ref="C59" r:id="rId31"/>
-    <hyperlink ref="C67" r:id="rId32"/>
-    <hyperlink ref="C72" r:id="rId33"/>
-    <hyperlink ref="C73" r:id="rId34"/>
-    <hyperlink ref="C74" r:id="rId35"/>
-    <hyperlink ref="C75" r:id="rId36"/>
-    <hyperlink ref="C76" r:id="rId37"/>
-    <hyperlink ref="C77" r:id="rId38"/>
-    <hyperlink ref="C78" r:id="rId39"/>
-    <hyperlink ref="C79" r:id="rId40"/>
-    <hyperlink ref="C80" r:id="rId41"/>
-    <hyperlink ref="C81" r:id="rId42"/>
-    <hyperlink ref="C82" r:id="rId43"/>
-    <hyperlink ref="C84" r:id="rId44"/>
-    <hyperlink ref="C97" r:id="rId45"/>
-    <hyperlink ref="C100" r:id="rId46"/>
-    <hyperlink ref="C101" r:id="rId47"/>
-    <hyperlink ref="C102" r:id="rId48"/>
-    <hyperlink ref="C104" r:id="rId49"/>
-    <hyperlink ref="C105" r:id="rId50"/>
-    <hyperlink ref="C106" r:id="rId51"/>
-    <hyperlink ref="C108" r:id="rId52"/>
-    <hyperlink ref="C109" r:id="rId53"/>
-    <hyperlink ref="C122" r:id="rId54"/>
-    <hyperlink ref="C123" r:id="rId55"/>
-    <hyperlink ref="C124" r:id="rId56"/>
-    <hyperlink ref="C125" r:id="rId57"/>
-    <hyperlink ref="C149" r:id="rId58"/>
-    <hyperlink ref="C150" r:id="rId59"/>
-    <hyperlink ref="C151" r:id="rId60"/>
-    <hyperlink ref="C152" r:id="rId61"/>
-    <hyperlink ref="C153" r:id="rId62"/>
-    <hyperlink ref="C156" r:id="rId63"/>
-    <hyperlink ref="C157" r:id="rId64"/>
-    <hyperlink ref="C160" r:id="rId65"/>
-    <hyperlink ref="C161" r:id="rId66"/>
-    <hyperlink ref="C162" r:id="rId67"/>
-    <hyperlink ref="C164" r:id="rId68"/>
-    <hyperlink ref="C169" r:id="rId69"/>
+    <hyperlink ref="C30" r:id="rId9"/>
+    <hyperlink ref="C31" r:id="rId10"/>
+    <hyperlink ref="C32" r:id="rId11"/>
+    <hyperlink ref="C38" r:id="rId12"/>
+    <hyperlink ref="C39" r:id="rId13"/>
+    <hyperlink ref="C40" r:id="rId14"/>
+    <hyperlink ref="C41" r:id="rId15"/>
+    <hyperlink ref="C43" r:id="rId16"/>
+    <hyperlink ref="C44" r:id="rId17" location="t=aboutBook"/>
+    <hyperlink ref="C45" r:id="rId18"/>
+    <hyperlink ref="C48" r:id="rId19"/>
+    <hyperlink ref="C51" r:id="rId20"/>
+    <hyperlink ref="C52" r:id="rId21"/>
+    <hyperlink ref="C53" r:id="rId22"/>
+    <hyperlink ref="C54" r:id="rId23"/>
+    <hyperlink ref="C55" r:id="rId24" location=".Xhjy385zyM8;&#10;http://www.cp.jku.at/datasets/musicmicro/index.html;&#10;https://github.com/irecsys/CARSKit/tree/master/context-aware_data_sets;&#10;https://www.yelp.com/dataset"/>
+    <hyperlink ref="C56" r:id="rId25" location="heading20;&#10;https://www.sciencedirect.com/science/article/pii/B9780125587044500104;&#10;https://www.sciencedirect.com/science/article/abs/pii/0005791694900639;&#10;https://link.springer.com/chapter/10.1007/978-3-319-66790-4_1;&#10;https://link.springer.com/article/10.3758/s13428-016-0715-3;&#10;https://iui-lecture.org/&#10;https://www.youtube.com/watch?v=NOazEIijXTo&amp;list=PLsZdV05-bvLHcePpoXlIVFNfT7q2Y1kOx&amp;index=34"/>
+    <hyperlink ref="C57" r:id="rId26"/>
+    <hyperlink ref="C58" r:id="rId27"/>
+    <hyperlink ref="C59" r:id="rId28"/>
+    <hyperlink ref="C61" r:id="rId29"/>
+    <hyperlink ref="C62" r:id="rId30"/>
+    <hyperlink ref="C63" r:id="rId31"/>
+    <hyperlink ref="C71" r:id="rId32"/>
+    <hyperlink ref="C76" r:id="rId33"/>
+    <hyperlink ref="C77" r:id="rId34"/>
+    <hyperlink ref="C78" r:id="rId35"/>
+    <hyperlink ref="C79" r:id="rId36"/>
+    <hyperlink ref="C80" r:id="rId37"/>
+    <hyperlink ref="C81" r:id="rId38"/>
+    <hyperlink ref="C82" r:id="rId39"/>
+    <hyperlink ref="C83" r:id="rId40"/>
+    <hyperlink ref="C84" r:id="rId41"/>
+    <hyperlink ref="C85" r:id="rId42"/>
+    <hyperlink ref="C86" r:id="rId43"/>
+    <hyperlink ref="C88" r:id="rId44"/>
+    <hyperlink ref="C101" r:id="rId45"/>
+    <hyperlink ref="C104" r:id="rId46"/>
+    <hyperlink ref="C105" r:id="rId47"/>
+    <hyperlink ref="C106" r:id="rId48"/>
+    <hyperlink ref="C108" r:id="rId49"/>
+    <hyperlink ref="C109" r:id="rId50"/>
+    <hyperlink ref="C110" r:id="rId51"/>
+    <hyperlink ref="C112" r:id="rId52"/>
+    <hyperlink ref="C113" r:id="rId53"/>
+    <hyperlink ref="C126" r:id="rId54"/>
+    <hyperlink ref="C127" r:id="rId55"/>
+    <hyperlink ref="C128" r:id="rId56"/>
+    <hyperlink ref="C129" r:id="rId57"/>
+    <hyperlink ref="C153" r:id="rId58"/>
+    <hyperlink ref="C154" r:id="rId59"/>
+    <hyperlink ref="C155" r:id="rId60"/>
+    <hyperlink ref="C156" r:id="rId61"/>
+    <hyperlink ref="C157" r:id="rId62"/>
+    <hyperlink ref="C160" r:id="rId63"/>
+    <hyperlink ref="C161" r:id="rId64"/>
+    <hyperlink ref="C164" r:id="rId65"/>
+    <hyperlink ref="C165" r:id="rId66"/>
+    <hyperlink ref="C166" r:id="rId67"/>
+    <hyperlink ref="C168" r:id="rId68"/>
+    <hyperlink ref="C173" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="962">
   <si>
     <t>Project Theme/Title</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>JW-5: A learning support application for Autism spectrum disorder (ASD) pupils</t>
+  </si>
+  <si>
+    <t>JW-6: Using AI techniques to analyse Japanese animations and movies</t>
   </si>
   <si>
     <t>An interval temporal network is a network whose edges are active for one or more time intervals and inactive the rest of the time. Work has been done previously on instantaneous connectivity of interval temporal networks, where the network is considered to be connected during a period of time [x,y], if it is connected for all time instances within the continuous time interval [x,y]. This project will look at the implementation of existing and possible development of new approaches to preserve connectivity of an interval temporal network over time (by maintaining a 'bank' of extra edges, available during certain time intervals, which can reconnect the network in case it becomes disconnected).</t>
@@ -1503,10 +1506,14 @@
     <t>Design and implement an automatic assistant function to support learners in essay writing or sentence translating. The system should also record all the learner behaviour and report the analysis result in a dashboard.</t>
   </si>
   <si>
-    <t>The student(s) doing this project will design an audio model and implement an AI-based speech feedback system. This system will give feedback to the learner who inputs an audio record. The feedback will help the learner better identify their speech issues. Sample audio recordings and corresponding feedback will be provided by an expert(Dr Kaoru Umezawa, Assisstant Professor (Teaching) in Japanese, Centre for Foreign Language Studies Study (CFLS), School of Modern Languages &amp; Cultures (MLaC), durham university) for training the model.</t>
+    <t xml:space="preserve">The student(s) doing this project will design an audio or gesture model and implement an AI-based speech feedback system. This system will give feedback to the learner who inputs an audio or video record. The feedback will help the learner better identify their speech issues. </t>
   </si>
   <si>
     <t>Explore, design, and implement a supportive game/application/system addressing the learning difficulty of ASD pupils considering they are more sensitive to sounds or lights. The system should be also able to record the learning behavior and report to the learners or their carers through a dashboard. VR technique could be considered. This is a joint project with Professor BRADLEY STEVEN in CS department, and Professor RIBY DEBORAH and Dr Mary Hanley in the Department of Psychology.</t>
+  </si>
+  <si>
+    <t>This is a joint project with Professor Li Xiaoyan in the School of Interdisciplinary Science and Innovation, Kyushu University, Japan.
+An animation and movie dataset will be provided for training the model.</t>
   </si>
   <si>
     <t>https://www.worldscientific.com/doi/pdf/10.1142/S0129626419500099</t>
@@ -2984,6 +2991,10 @@
     <t>Implementation of a learning support game /application/system for ASD pupils.</t>
   </si>
   <si>
+    <t>Compare the result analysed by AI with the human experts' annotation.
+Train a model for automatic annotation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">An interest and background knowledge in graph theory and graph algorithms </t>
   </si>
   <si>
@@ -3441,6 +3452,9 @@
     <t>Python/Java/C#</t>
   </si>
   <si>
+    <t>Python, Machine learning, or Deep learning</t>
+  </si>
+  <si>
     <t>CS Level 3: ✅
 CS Level 4: ✅</t>
   </si>
@@ -3934,6 +3948,9 @@
   </si>
   <si>
     <t xml:space="preserve">learning support, data analysis, Autism spectrum disorder (ASD) </t>
+  </si>
+  <si>
+    <t>AI, Data analysis</t>
   </si>
   <si>
     <t>No</t>
@@ -4310,7 +4327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4347,25 +4364,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="H2" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4373,25 +4390,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="H3" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4399,22 +4416,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F4" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G4" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="H4" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4422,25 +4439,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E5" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F5" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G5" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="H5" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4448,22 +4465,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E6" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F6" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G6" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="H6" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4471,25 +4488,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F7" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G7" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="H7" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4497,25 +4514,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F8" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G8" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="H8" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4523,25 +4540,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F9" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G9" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="H9" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4549,25 +4566,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F10" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G10" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="H10" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4575,25 +4592,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D11" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E11" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F11" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G11" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="H11" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4601,25 +4618,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D12" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E12" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F12" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G12" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="H12" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4627,25 +4644,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D13" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E13" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F13" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G13" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="H13" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4653,25 +4670,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F14" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G14" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="H14" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4679,22 +4696,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E15" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F15" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="H15" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4702,22 +4719,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F16" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H16" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4725,25 +4742,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D17" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E17" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F17" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G17" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="H17" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4751,25 +4768,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E18" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F18" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G18" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="H18" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4777,25 +4794,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E19" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F19" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G19" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="H19" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4803,25 +4820,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D20" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E20" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F20" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G20" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="H20" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4829,25 +4846,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E21" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="F21" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G21" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="H21" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4855,25 +4872,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E22" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F22" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G22" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="H22" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4881,25 +4898,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D23" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E23" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F23" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G23" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="H23" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4907,25 +4924,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F24" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G24" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="H24" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4933,25 +4950,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D25" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E25" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F25" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G25" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H25" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4959,25 +4976,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D26" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E26" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="F26" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G26" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="H26" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4985,19 +5002,19 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E27" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F27" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H27" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5005,25 +5022,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D28" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E28" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F28" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G28" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="H28" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5031,25 +5048,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D29" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E29" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F29" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G29" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="H29" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5057,25 +5074,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E30" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F30" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G30" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="H30" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5083,25 +5100,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E31" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F31" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G31" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="H31" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5109,25 +5126,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D32" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E32" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F32" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G32" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="H32" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5135,25 +5152,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D33" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E33" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F33" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G33" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="H33" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5161,25 +5178,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D34" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E34" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F34" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G34" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="H34" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5187,22 +5204,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D35" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E35" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F35" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G35" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H35" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5210,22 +5227,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E36" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F36" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G36" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="H36" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5233,25 +5250,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E37" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="F37" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G37" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="H37" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5259,25 +5276,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E38" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F38" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G38" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="H38" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5285,25 +5302,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D39" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E39" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F39" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G39" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="H39" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5311,25 +5328,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D40" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E40" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F40" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G40" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="H40" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5337,25 +5354,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D41" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E41" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F41" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G41" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="H41" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5363,22 +5380,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E42" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F42" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G42" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="H42" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5386,25 +5403,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E43" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F43" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G43" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="H43" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5412,25 +5429,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D44" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E44" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F44" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G44" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="H44" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5438,25 +5455,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D45" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E45" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F45" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G45" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="H45" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5464,25 +5481,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D46" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E46" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F46" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G46" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="H46" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5490,25 +5507,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E47" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F47" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G47" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="H47" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5516,25 +5533,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D48" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E48" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F48" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G48" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="H48" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5542,22 +5559,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E49" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F49" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G49" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="H49" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5565,16 +5582,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F50" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H50" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5582,19 +5599,19 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E51" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F51" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H51" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5602,22 +5619,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E52" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F52" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G52" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="H52" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5625,25 +5642,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D53" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E53" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F53" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G53" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="H53" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5651,25 +5668,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D54" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E54" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F54" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G54" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="H54" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5677,25 +5694,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D55" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E55" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="F55" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G55" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="H55" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5703,25 +5720,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D56" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E56" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F56" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G56" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="H56" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5729,25 +5746,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D57" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E57" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F57" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G57" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="H57" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5755,25 +5772,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E58" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F58" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G58" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="H58" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5781,25 +5798,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D59" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E59" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F59" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G59" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="H59" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5807,25 +5824,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D60" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E60" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F60" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G60" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="H60" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5833,25 +5850,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D61" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E61" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F61" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G61" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="H61" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5859,25 +5876,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D62" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E62" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F62" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G62" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="H62" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5885,25 +5902,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D63" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E63" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F63" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G63" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="H63" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5911,25 +5928,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D64" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E64" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F64" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G64" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="H64" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5937,25 +5954,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C65" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D65" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E65" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F65" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G65" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="H65" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5963,25 +5980,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C66" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D66" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E66" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F66" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G66" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="H66" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5989,22 +6006,22 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D67" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E67" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F67" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G67" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="H67" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6012,25 +6029,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D68" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E68" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F68" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G68" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="H68" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6038,25 +6055,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D69" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E69" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F69" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G69" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="H69" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6064,25 +6081,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D70" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E70" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F70" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G70" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="H70" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6090,25 +6107,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D71" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E71" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F71" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G71" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H71" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6116,25 +6133,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D72" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E72" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F72" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G72" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="H72" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6142,25 +6159,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C73" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D73" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E73" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F73" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G73" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="H73" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6168,25 +6185,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D74" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E74" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F74" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G74" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="H74" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6194,25 +6211,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E75" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F75" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G75" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="H75" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6220,25 +6237,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D76" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E76" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F76" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G76" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="H76" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6246,25 +6263,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D77" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E77" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F77" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G77" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="H77" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6272,25 +6289,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D78" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E78" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F78" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G78" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="H78" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6298,25 +6315,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D79" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E79" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F79" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G79" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="H79" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6324,25 +6341,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E80" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F80" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G80" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="H80" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6350,25 +6367,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D81" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E81" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F81" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G81" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H81" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6376,25 +6393,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E82" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F82" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G82" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="H82" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6402,25 +6419,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D83" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E83" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F83" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G83" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H83" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6428,25 +6445,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D84" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E84" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F84" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G84" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="H84" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6454,25 +6471,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D85" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E85" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F85" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G85" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="H85" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6480,25 +6497,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D86" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E86" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F86" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G86" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="H86" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6506,25 +6523,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D87" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E87" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F87" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G87" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="H87" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6532,25 +6549,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D88" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E88" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F88" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G88" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="H88" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6558,22 +6575,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C89" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D89" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F89" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G89" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="H89" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6581,25 +6598,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C90" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E90" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F90" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G90" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H90" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6607,19 +6624,19 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F91" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G91" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H91" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6627,25 +6644,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D92" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E92" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F92" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G92" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="H92" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6653,22 +6670,22 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E93" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F93" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G93" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="H93" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6676,22 +6693,22 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E94" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F94" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G94" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="H94" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6699,22 +6716,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E95" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F95" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G95" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="H95" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6722,25 +6739,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C96" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D96" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E96" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F96" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G96" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="H96" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6748,25 +6765,25 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D97" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E97" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F97" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G97" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="H97" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6774,25 +6791,25 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C98" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D98" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E98" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F98" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G98" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="H98" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6800,25 +6817,25 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D99" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E99" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F99" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G99" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="H99" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6826,25 +6843,25 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D100" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E100" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F100" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G100" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="H100" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6852,25 +6869,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D101" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E101" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F101" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G101" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="H101" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6878,22 +6895,22 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E102" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F102" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G102" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="H102" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6901,19 +6918,19 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E103" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F103" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H103" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6921,25 +6938,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D104" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E104" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F104" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G104" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="H104" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6947,25 +6964,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D105" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E105" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F105" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G105" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="H105" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6973,25 +6990,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D106" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E106" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F106" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G106" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="H106" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6999,22 +7016,22 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D107" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E107" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F107" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G107" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="H107" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7022,25 +7039,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D108" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E108" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F108" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G108" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="H108" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7048,25 +7065,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D109" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E109" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F109" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G109" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H109" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7074,25 +7091,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D110" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E110" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F110" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G110" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="H110" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7100,25 +7117,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C111" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D111" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E111" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F111" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G111" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H111" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7126,25 +7143,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D112" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E112" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F112" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G112" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="H112" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7152,25 +7169,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D113" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E113" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F113" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G113" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H113" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7178,25 +7195,25 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C114" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D114" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E114" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F114" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G114" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="H114" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7204,25 +7221,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C115" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D115" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E115" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F115" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G115" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="H115" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7230,25 +7247,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C116" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D116" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E116" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F116" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G116" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="H116" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7256,25 +7273,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C117" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D117" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E117" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F117" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G117" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="H117" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7282,25 +7299,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D118" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E118" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F118" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G118" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="H118" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7308,25 +7325,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D119" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E119" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F119" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G119" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="H119" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7334,25 +7351,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D120" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E120" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F120" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G120" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H120" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7360,25 +7377,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D121" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E121" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F121" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G121" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="H121" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7386,25 +7403,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C122" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D122" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E122" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F122" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G122" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="H122" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7412,25 +7429,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C123" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D123" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E123" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F123" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G123" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="H123" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7438,25 +7455,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C124" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D124" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E124" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F124" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G124" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="H124" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7464,25 +7481,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C125" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D125" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E125" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F125" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G125" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="H125" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7490,25 +7507,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D126" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E126" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F126" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G126" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="H126" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7516,25 +7533,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D127" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E127" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F127" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G127" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="H127" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7542,25 +7559,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D128" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E128" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F128" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G128" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="H128" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7568,25 +7585,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D129" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E129" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F129" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G129" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="H129" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7594,25 +7611,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C130" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D130" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E130" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F130" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G130" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="H130" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7620,22 +7637,22 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D131" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E131" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F131" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G131" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H131" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7643,19 +7660,19 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D132" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E132" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F132" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="H132" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7663,25 +7680,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C133" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D133" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E133" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F133" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G133" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="H133" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7689,25 +7706,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C134" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D134" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E134" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F134" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G134" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="H134" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7715,25 +7732,25 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C135" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D135" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E135" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F135" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G135" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="H135" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7741,25 +7758,25 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C136" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D136" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E136" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F136" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G136" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="H136" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7767,25 +7784,25 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C137" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D137" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E137" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F137" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G137" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="H137" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7793,25 +7810,25 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C138" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D138" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E138" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F138" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G138" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="H138" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7819,25 +7836,25 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C139" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D139" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E139" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F139" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G139" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="H139" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7845,19 +7862,19 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C140" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D140" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F140" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H140" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7865,16 +7882,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D141" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F141" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H141" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7882,19 +7899,19 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D142" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E142" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F142" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H142" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7902,19 +7919,19 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C143" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D143" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F143" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H143" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7922,19 +7939,19 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C144" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D144" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F144" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H144" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7942,25 +7959,25 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C145" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E145" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F145" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G145" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="H145" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7968,25 +7985,25 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C146" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D146" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E146" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F146" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G146" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="H146" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7994,25 +8011,25 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C147" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D147" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E147" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F147" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G147" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="H147" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8020,25 +8037,25 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C148" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D148" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E148" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F148" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G148" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="H148" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8046,25 +8063,25 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C149" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D149" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E149" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F149" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G149" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="H149" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8072,25 +8089,25 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C150" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D150" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E150" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F150" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G150" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="H150" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8098,25 +8115,25 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C151" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D151" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E151" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F151" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G151" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="H151" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8124,22 +8141,22 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D152" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E152" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F152" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G152" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="H152" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8147,25 +8164,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D153" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E153" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F153" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G153" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="H153" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8173,25 +8190,25 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D154" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E154" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="F154" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G154" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="H154" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8199,25 +8216,25 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D155" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E155" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F155" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G155" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="H155" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8225,25 +8242,25 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D156" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E156" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F156" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G156" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="H156" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8251,25 +8268,25 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D157" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E157" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="F157" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G157" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="H157" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8277,25 +8294,25 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C158" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D158" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E158" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F158" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G158" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="H158" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8303,22 +8320,22 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D159" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E159" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F159" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G159" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="H159" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8326,25 +8343,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D160" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E160" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F160" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G160" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="H160" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8352,25 +8369,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D161" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E161" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F161" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G161" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="H161" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8378,19 +8395,19 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D162" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E162" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F162" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H162" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8398,25 +8415,25 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C163" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D163" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E163" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="F163" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G163" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="H163" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8424,25 +8441,25 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D164" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E164" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F164" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G164" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="H164" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8450,25 +8467,25 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D165" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E165" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="F165" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G165" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="H165" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8476,25 +8493,25 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D166" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E166" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F166" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G166" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="H166" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8502,25 +8519,25 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C167" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E167" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F167" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G167" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="H167" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8528,25 +8545,25 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D168" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E168" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F168" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G168" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="H168" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8554,25 +8571,25 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C169" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D169" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E169" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F169" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G169" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="H169" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8580,25 +8597,25 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C170" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D170" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E170" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="F170" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G170" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="H170" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8606,22 +8623,22 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D171" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E171" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F171" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G171" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="H171" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8629,22 +8646,22 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D172" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E172" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="F172" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G172" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="H172" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8652,25 +8669,48 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D173" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E173" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F173" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="G173" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="H173" t="s">
-        <v>955</v>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" t="s">
+        <v>353</v>
+      </c>
+      <c r="D174" t="s">
+        <v>662</v>
+      </c>
+      <c r="E174" t="s">
+        <v>798</v>
+      </c>
+      <c r="F174" t="s">
+        <v>799</v>
+      </c>
+      <c r="G174" t="s">
+        <v>959</v>
+      </c>
+      <c r="H174" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="985">
   <si>
     <t>Project Theme/Title</t>
   </si>
@@ -109,6 +109,9 @@
     <t>NBe-4: Tentative Title: &lt;BR&gt;How good are your trade-offs?: Getting further insights about the trade-offs of Decision-Making Techniques for SAS using Non-Inferiority Trials</t>
   </si>
   <si>
+    <t>NBe-5: Development and Evaluation of a tool for shared decision-making for hormone replacement therapy</t>
+  </si>
+  <si>
     <t>SC-1: Using NLP to understand political success based on party manifestos</t>
   </si>
   <si>
@@ -230,6 +233,15 @@
   </si>
   <si>
     <t>II-5: A blockchain based system for the secure handling of research data</t>
+  </si>
+  <si>
+    <t>SJa-1: Exploiting Knowledge Graph relations to detect objects in Artworks</t>
+  </si>
+  <si>
+    <t>SJa-2: Self-Supervised Correlation detection for motif discovery in Art</t>
+  </si>
+  <si>
+    <t>SJa-3: What does Open Street Map Image-based camera localisation rely on?</t>
   </si>
   <si>
     <t>AJ-1: Smart energy management in homes, industries or commercial sectors</t>
@@ -660,6 +672,13 @@
 [Principal Ideas]  
 To answer these questions,  and under the umbrella of a cross-disciplinary initiative, we propose a novel approach based on the Non-Inferiority (NI) Trial, used in clinical trials,  to compare different decision-making techniques in SAS to tackle the previous questions. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context:
+Hormone replacement therapy (HRT) is a form of treatment intended to relieve symptoms of menopause, and it is considered to be an effective option for many affected women. However, access to HRT and decision-making around prescribing of HRT can often be complicated by concerns around its safety. As a result, it is thought that many women are missing out on exploring possibly helpful treatment options. Shared decision-making assisted by decision aids can improve the quality of decision-making. However, there is currently a lack of good, accessible decision aids on HRT.
+Aims
+The project aims as follows: (a) to develop a tool to facilitate shared decision-making between health professionals and women exploring HRT as a treatment option for pre-menopausal symptoms using Bayesian Inference/Learning, and (b) to evaluate this tool using synthetic data generated with the support of primary care health professionals.
+ </t>
   </si>
   <si>
     <t xml:space="preserve">Apply NLP and data analysis techniques to the manifesto project dataset to examine how political manifestos relate to voting practices or wider societal events and trends.  
@@ -989,6 +1008,22 @@
 &lt;p&gt;This project will develop a system based on blockchain technology and smart contracts for the secure handling of research data. The objective of the project is to ensure data integrity, and address concerns related to confidentiality and ethical data usage, in ways that go beyond the most common current practice of implementing very tight data-access restrictions.&lt;/p&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">Knowledge Graphs explains the relationships between entities, such as, Leonardo Da Vinci &lt;"has works in"&gt; the Louvre. In addition, they can also describe the visual content using the relation &lt;"depicts"&gt;, &lt;"style"&gt; or even &lt;"material"&gt;. However, this remains disconnected from the parts of the image the relation is referring to.  This project will exploit advances in unsupervised detection of object like structures in image content, known as objectness [2,3], to correlate features with Knowledge Graph relations. In doing so a detector can be trained to localise the Knowledge Graph information within the image. &lt;/br&gt;&lt;/br&gt;
+The use of structured data such as Knowledge Graphs are abundant within the Digital Humanities as they can be used to explain events. However, the atomic nature does not allow the analysis of change in the visual domain. In allowing the detection of objects and also unusual object categories in images will allow the analysis to increase validity of explanations and also shine light on new research questions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project would involve implementing and testing existing approaches to slot-attention for Self-Supervised learning of semantically meaningful classes. Then evaluating the potential to correlate patches as a second step using statistical correlation to identify motifs. &lt;/br&gt;&lt;/br&gt;
+Object detection in images is common place, however, requires large quantities of training data. Therefore, object discovery through self-supervised methods have become prominent in literature to learn semantically meaningful regions that can be after correlated with labels. A common approach for this is Slot-Attention [1] which aligns the features space into randomly initialised slots, which can be seen as similar to Gaussian Mixture Model [2]. However, the approach is highly dependent on the positional encoder in non disentanglement datasets (e.g. Disentanglement Dataset [3]) to train and separate the slots. This project will develop on open source slot-attention methods adapting to use different Positional Encoder methods to evaluate which are best able to overcome the bias of the traditional positional encoder. With the removal (or reduction) in spatial bias the project will evaluate the potential of simple statistical methods for feature correlation to identify motifs. &lt;/br&gt;&lt;/br&gt;
+The project will be evaluated against existing methods [4] on the Brueghel dataset [5].
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localising cameras is commonly tackled in 3D for applications such as AR initialisation or 3D Reconstruction. However, required having large scale data to compare the query image against. An alternative to this is to localise only the latitude longitude and orientation of the camera (3DoF). Commonly these approaches use Open Street Map tiles to align an embedding of the image to the tile. However, this raises the question what features of open street map is the embedding relying on (roads, signs, objects, etc.). &lt;/br&gt;&lt;/br&gt;
+In this project will take the state-of-the-art OrienterNet [1] and render different tiles to understand which combination of features provide the highest performance. This analysis can further be expanded on using explainability style approaches (such as GradCam [3]) to analyse what the encoding is focusing on. In the event that objects play a key role in localisation datasets such as Flatlandia [4] can be used to understand the role of different object classes. 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Project aim (broad):
 The project would aim to revamp the way energy is used in smart homes, industries or commercial sectors based on the known/forecasted usage patterns.
 Techniques:
@@ -1652,6 +1687,14 @@
 Other References will be provided once the student chooses the project.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wellspring.health/hrt/
+-Decision-making under uncertainty: be aware of your priorities
+Huma Samin, Nelly Bencomo &amp; Peter Sawyer 
+Software and Systems Modeling Journal, 2022
+https://link.springer.com/article/10.1007/s10270-021-00956-0
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;ul&gt;
 &lt;li&gt;https://manifesto-project.wzb.eu/datasets &lt;/li&gt; 
 &lt;li&gt; https://manifesto-project.wzb.eu/publications/all &lt;/li&gt; 
@@ -1837,6 +1880,27 @@
   <si>
     <t>&lt;p&gt;https://ori.hhs.gov/education/products/n_illinois_u/datamanagement/dhtopic.html&lt;/p&gt;
 &lt;p&gt;https://www.ibm.com/uk-en/topics/what-is-blockchain&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Wikidata &lt;/br&gt;
+[2] Alexe, Bogdan, Thomas Deselaers, and Vittorio Ferrari. "Measuring the objectness of image windows." IEEE transactions on pattern analysis and machine intelligence 34.11 (2012): 2189-2202. &lt;/br&gt;
+[3] Kim, Dahun, et al. "Learning open-world object proposals without learning to classify." IEEE Robotics and Automation Letters 7.2 (2022): 5453-5460.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Locatello, Francesco, et al. "Object-centric learning with slot attention." Advances in Neural Information Processing Systems 33 (2020): 11525-11538. &lt;/br&gt;
+[2] https://en.wikipedia.org/wiki/Mixture_model &lt;/br&gt;
+[3] https://github.com/deepmind/3d-shapes &lt;/br&gt;
+[4] Shen, Xi, Alexei A. Efros, and Mathieu Aubry. "Discovering visual patterns in art collections with spatially-consistent feature learning." Proceedings of the IEEE/CVF conference on computer vision and pattern recognition. 2019. &lt;/br&gt;
+[5] http://imagine.enpc.fr/~shenx/ArtMiner/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Sarlin, Paul-Edouard, et al. "OrienterNet: Visual Localization in 2D Public Maps with Neural Matching." Proceedings of the IEEE/CVF Conference on Computer Vision and Pattern Recognition. 2023. &lt;/br&gt;
+[2] https://github.com/facebookresearch/OrienterNet &lt;/br&gt;
+[3] Selvaraju, Ramprasaath R., et al. "Grad-cam: Visual explanations from deep networks via gradient-based localization." Proceedings of the IEEE international conference on computer vision. 2017. &lt;/br&gt;
+[4] Toso, Matteo, et al. "You are here! Finding position and orientation on a 2D map from a single image: The Flatlandia localization problem and dataset." arXiv preprint arXiv:2304.06373 (2023).
+</t>
   </si>
   <si>
     <t>[1] A. Jindal, N. Kumar, and J. J. P. C. Rodrigues, \"A Heuristic-based Smart HVAC Energy Management Scheme for University Buildings,\'\' IEEE Transactions on Industrial Informatics, vol. 14, no. 11, pp. 5074-5086, 2018.
@@ -2408,6 +2472,9 @@
 </t>
   </si>
   <si>
+    <t>- Design and the Tool to support shared decision-making between health professionals and women exploring HRT. - A potential research paper co-author by the student and supervisor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Potential outcomes may include: descriptive, predictive and/or explanatory data analytics; building prediction models based the manifestos and or related open datasets (e.g. government, news, google ngrams, ParlaSpeech Corpus, Hansard Speeches and Sentiment dataset); exploring political and other forms of bias in word embeddings trained on the manifestos data; visualisation of the data for a user-facing system. </t>
   </si>
   <si>
@@ -2556,6 +2623,15 @@
   </si>
   <si>
     <t xml:space="preserve">A blockchain based system, using smart contract written in Solidity, for handling the data of a research project. </t>
+  </si>
+  <si>
+    <t>Evaluation of the effectiveness using Knowledge Graphs to supervise object detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An implementation of Slot-Attention with ablation on the performance of methods for positional encoding to overcome spatial bias. Additionally, an analysis of the correlation of features for higher-order meaning </t>
+  </si>
+  <si>
+    <t>Analysis of what Open Street Map tile information localisation methods rely on.</t>
   </si>
   <si>
     <t xml:space="preserve">Anticipated outcomes include:
@@ -3048,7 +3124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Preferably, at least basic knowledge of AI techniques and Java and / or Python
+    <t xml:space="preserve">Preferably, at least basic knowledge of AI/Probability techniques and Java and / or Python
 </t>
   </si>
   <si>
@@ -3057,6 +3133,9 @@
   <si>
     <t xml:space="preserve">Preferably knowledge of Java or python
 </t>
+  </si>
+  <si>
+    <t>Preferably knowledge of Java or python</t>
   </si>
   <si>
     <t xml:space="preserve">Some understanding of data analytics and NLP; some level of experience with pandas, Matplotlib, Seaborn, R, PyTorch, Keras or similar is useful.  </t>
@@ -3170,6 +3249,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Recommended: Basic Python (or similar language), Basic experience / interest in PyTorch</t>
+  </si>
+  <si>
+    <t>Recommended: Basic Python (or similar language), Basic experience/interest in PyTorch</t>
   </si>
   <si>
     <t>There are no pre-requirements, however, one should have interest in the project and the willingness to learn the techniques.</t>
@@ -3534,6 +3619,9 @@
 </t>
   </si>
   <si>
+    <t>Shared Decision-Making, Bayesian Inference/Learning</t>
+  </si>
+  <si>
     <t xml:space="preserve">data analytics, NLP, visualisation, politics, bias, visualisation </t>
   </si>
   <si>
@@ -3643,6 +3731,15 @@
   </si>
   <si>
     <t>Blockchain, smart contracts, Solidity, data handling, ethical data usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Vision, Object Detection, Knowledge Graphs, Artwork. </t>
+  </si>
+  <si>
+    <t>Computer Vision, Self-Supervised learning, Art, Humanities</t>
+  </si>
+  <si>
+    <t>Computer Vision, Mapping.</t>
   </si>
   <si>
     <t>Smart cities; smart energy management</t>
@@ -4327,7 +4424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4364,25 +4461,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D2" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="F2" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G2" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="H2" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4390,25 +4487,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E3" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="F3" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G3" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="H3" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4416,22 +4513,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F4" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="G4" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="H4" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4439,25 +4536,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="E5" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="F5" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G5" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="H5" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4465,22 +4562,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="E6" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="F6" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G6" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="H6" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4488,25 +4585,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="E7" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="F7" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G7" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="H7" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4514,25 +4611,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="E8" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F8" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G8" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="H8" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4540,25 +4637,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="E9" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F9" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G9" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="H9" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4566,25 +4663,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E10" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="F10" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="G10" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="H10" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4592,25 +4689,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F11" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G11" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="H11" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4618,25 +4715,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F12" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G12" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="H12" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4644,25 +4741,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E13" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="F13" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G13" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="H13" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4670,25 +4767,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="E14" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="F14" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G14" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="H14" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4696,22 +4793,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E15" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="F15" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="H15" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4719,22 +4816,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="E16" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="F16" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="H16" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4742,25 +4839,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E17" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="F17" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G17" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="H17" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4768,25 +4865,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E18" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="F18" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G18" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="H18" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4794,25 +4891,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="E19" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="F19" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G19" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="H19" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4820,25 +4917,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="E20" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="F20" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G20" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="H20" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4846,25 +4943,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D21" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="E21" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F21" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G21" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="H21" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4872,25 +4969,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="E22" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="F22" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G22" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="H22" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4898,25 +4995,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D23" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="E23" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="F23" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G23" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="H23" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4924,25 +5021,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D24" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E24" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="F24" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G24" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="H24" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4950,25 +5047,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" t="s">
-        <v>376</v>
+        <v>208</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="D25" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="E25" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="F25" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G25" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="H25" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4976,25 +5073,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D26" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="E26" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="F26" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G26" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="H26" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5002,19 +5099,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>378</v>
+        <v>386</v>
+      </c>
+      <c r="D27" t="s">
+        <v>535</v>
       </c>
       <c r="E27" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="F27" t="s">
-        <v>799</v>
+        <v>818</v>
+      </c>
+      <c r="G27" t="s">
+        <v>843</v>
       </c>
       <c r="H27" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5022,25 +5125,19 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" t="s">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="E28" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="F28" t="s">
-        <v>799</v>
-      </c>
-      <c r="G28" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H28" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5048,25 +5145,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="E29" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="F29" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G29" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="H29" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5074,25 +5171,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>381</v>
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>389</v>
       </c>
       <c r="D30" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="E30" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F30" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G30" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="H30" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5100,25 +5197,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D31" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="E31" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="F31" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G31" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="H31" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5126,25 +5223,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D32" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="E32" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="F32" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G32" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="H32" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5152,25 +5249,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" t="s">
-        <v>384</v>
+        <v>216</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="D33" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="E33" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="F33" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G33" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="H33" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5178,25 +5275,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D34" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="E34" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="F34" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G34" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="H34" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5204,22 +5301,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>394</v>
       </c>
       <c r="D35" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E35" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="F35" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G35" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="H35" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5227,22 +5327,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="E36" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="F36" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G36" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="H36" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5250,25 +5350,22 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" t="s">
-        <v>386</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="E37" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="F37" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G37" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="H37" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5276,25 +5373,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>387</v>
+        <v>221</v>
+      </c>
+      <c r="C38" t="s">
+        <v>395</v>
       </c>
       <c r="D38" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="E38" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="F38" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G38" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="H38" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5302,25 +5399,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="E39" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="F39" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G39" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="H39" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5328,25 +5425,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D40" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="E40" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="F40" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G40" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="H40" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5354,25 +5451,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D41" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="E41" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="F41" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G41" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="H41" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5380,22 +5477,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>225</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="D42" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="E42" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="F42" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G42" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="H42" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5403,25 +5503,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="E43" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="F43" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G43" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="H43" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5429,25 +5526,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="E44" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="F44" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G44" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="H44" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5455,25 +5552,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D45" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="E45" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="F45" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G45" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="H45" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5481,25 +5578,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" t="s">
-        <v>394</v>
+        <v>229</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="E46" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="F46" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G46" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="H46" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5507,25 +5604,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D47" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="E47" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="F47" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G47" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="H47" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5533,25 +5630,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>396</v>
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
       </c>
       <c r="D48" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="E48" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="F48" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G48" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="H48" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5559,22 +5656,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" t="s">
-        <v>397</v>
+        <v>232</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" t="s">
+        <v>556</v>
       </c>
       <c r="E49" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="F49" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G49" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="H49" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5582,16 +5682,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C50" t="s">
-        <v>398</v>
+        <v>406</v>
+      </c>
+      <c r="E50" t="s">
+        <v>720</v>
       </c>
       <c r="F50" t="s">
-        <v>799</v>
+        <v>818</v>
+      </c>
+      <c r="G50" t="s">
+        <v>864</v>
       </c>
       <c r="H50" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5599,19 +5705,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E51" t="s">
-        <v>704</v>
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>407</v>
       </c>
       <c r="F51" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="H51" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5619,22 +5722,19 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E52" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="F52" t="s">
-        <v>799</v>
-      </c>
-      <c r="G52" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="H52" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5642,25 +5742,22 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D53" t="s">
-        <v>544</v>
+        <v>409</v>
       </c>
       <c r="E53" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="F53" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G53" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="H53" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5668,25 +5765,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D54" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E54" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="F54" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G54" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="H54" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5694,25 +5791,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D55" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="E55" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="F55" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G55" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="H55" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5720,25 +5817,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D56" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="E56" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="F56" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G56" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="H56" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5746,25 +5843,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D57" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="E57" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="F57" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G57" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="H57" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5772,25 +5869,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D58" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="E58" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="F58" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G58" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="H58" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5798,25 +5895,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D59" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="E59" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="F59" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G59" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="H59" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5824,25 +5921,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
-      </c>
-      <c r="C60" t="s">
-        <v>408</v>
+        <v>243</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D60" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="E60" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="F60" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G60" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="H60" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5850,25 +5947,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>409</v>
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>417</v>
       </c>
       <c r="D61" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="E61" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="F61" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G61" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
       <c r="H61" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5876,25 +5973,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D62" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="E62" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="F62" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G62" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="H62" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5902,25 +5999,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D63" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="E63" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="F63" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G63" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="H63" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5928,25 +6025,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
-      </c>
-      <c r="C64" t="s">
-        <v>412</v>
+        <v>247</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="D64" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="E64" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="F64" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G64" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="H64" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5954,25 +6051,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D65" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="E65" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="F65" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G65" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
       <c r="H65" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5980,25 +6077,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D66" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="E66" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="F66" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G66" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="H66" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6006,22 +6103,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>423</v>
       </c>
       <c r="D67" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="E67" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="F67" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G67" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="H67" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6029,25 +6129,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D68" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="E68" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="F68" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G68" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="H68" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6055,25 +6155,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D69" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E69" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="F69" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G69" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="H69" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6081,25 +6181,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="E70" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="F70" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G70" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="H70" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6107,25 +6207,22 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>418</v>
+        <v>254</v>
       </c>
       <c r="D71" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="E71" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="F71" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G71" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="H71" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6133,25 +6230,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C72" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D72" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="E72" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="F72" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G72" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="H72" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6159,25 +6256,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D73" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="E73" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="F73" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G73" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="H73" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6185,25 +6282,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C74" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D74" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="E74" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="F74" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G74" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="H74" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6211,25 +6308,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
-      </c>
-      <c r="C75" t="s">
-        <v>422</v>
+        <v>258</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="D75" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="E75" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="F75" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="G75" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="H75" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6237,25 +6334,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>423</v>
+        <v>259</v>
+      </c>
+      <c r="C76" t="s">
+        <v>431</v>
       </c>
       <c r="D76" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="E76" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F76" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="G76" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="H76" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6263,25 +6360,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>256</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>424</v>
+        <v>260</v>
+      </c>
+      <c r="C77" t="s">
+        <v>432</v>
       </c>
       <c r="D77" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="E77" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="F77" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G77" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="H77" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6289,25 +6386,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>425</v>
+        <v>261</v>
+      </c>
+      <c r="C78" t="s">
+        <v>433</v>
       </c>
       <c r="D78" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="E78" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="F78" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G78" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="H78" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6315,25 +6412,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>426</v>
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>434</v>
       </c>
       <c r="D79" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="E79" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F79" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G79" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="H79" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6341,25 +6438,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D80" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E80" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="F80" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G80" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="H80" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6367,25 +6464,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D81" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="E81" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="F81" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="G81" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="H81" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6393,25 +6490,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D82" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E82" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="F82" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G82" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="H82" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6419,25 +6516,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="D83" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="E83" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="F83" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G83" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="H83" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6445,25 +6542,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="D84" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="E84" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="F84" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G84" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="H84" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6471,25 +6568,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D85" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="E85" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="F85" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="G85" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="H85" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6497,25 +6594,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D86" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="E86" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="F86" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G86" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="H86" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6523,25 +6620,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
-      </c>
-      <c r="C87" t="s">
-        <v>434</v>
+        <v>270</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="D87" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="E87" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F87" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G87" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="H87" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6549,25 +6646,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D88" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E88" t="s">
         <v>733</v>
       </c>
       <c r="F88" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="G88" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="H88" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6575,22 +6672,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" t="s">
-        <v>436</v>
+        <v>272</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="D89" t="s">
-        <v>580</v>
+        <v>592</v>
+      </c>
+      <c r="E89" t="s">
+        <v>733</v>
       </c>
       <c r="F89" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G89" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="H89" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6598,25 +6698,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
-      </c>
-      <c r="C90" t="s">
-        <v>437</v>
+        <v>273</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="D90" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="E90" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="F90" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G90" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="H90" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6624,19 +6724,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>274</v>
+      </c>
+      <c r="C91" t="s">
+        <v>446</v>
       </c>
       <c r="D91" t="s">
-        <v>582</v>
+        <v>594</v>
+      </c>
+      <c r="E91" t="s">
+        <v>751</v>
       </c>
       <c r="F91" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G91" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="H91" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6644,25 +6750,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
-      </c>
-      <c r="C92" t="s">
-        <v>438</v>
+        <v>275</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="D92" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E92" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="F92" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G92" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="H92" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6670,22 +6776,22 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="C93" t="s">
+        <v>448</v>
       </c>
       <c r="D93" t="s">
-        <v>584</v>
-      </c>
-      <c r="E93" t="s">
-        <v>736</v>
+        <v>596</v>
       </c>
       <c r="F93" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G93" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="H93" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6693,22 +6799,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>449</v>
       </c>
       <c r="D94" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="E94" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="F94" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G94" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="H94" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6716,22 +6825,19 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D95" t="s">
-        <v>586</v>
-      </c>
-      <c r="E95" t="s">
-        <v>738</v>
+        <v>598</v>
       </c>
       <c r="F95" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G95" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="H95" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6739,25 +6845,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="D96" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="E96" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="F96" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G96" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="H96" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6765,25 +6871,22 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
-      </c>
-      <c r="C97" t="s">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E97" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="F97" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G97" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="H97" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6791,25 +6894,22 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
-      </c>
-      <c r="C98" t="s">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="D98" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="E98" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="F98" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G98" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="H98" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6817,25 +6917,22 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
-      </c>
-      <c r="C99" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="D99" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E99" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="F99" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G99" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="H99" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6843,25 +6940,25 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C100" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D100" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="E100" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="F100" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G100" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="H100" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6869,25 +6966,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>280</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>443</v>
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>452</v>
       </c>
       <c r="D101" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E101" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F101" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G101" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="H101" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6895,22 +6992,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>453</v>
       </c>
       <c r="D102" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="E102" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="F102" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G102" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="H102" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6918,19 +7018,25 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>282</v>
+        <v>286</v>
+      </c>
+      <c r="C103" t="s">
+        <v>453</v>
       </c>
       <c r="D103" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="E103" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="F103" t="s">
-        <v>799</v>
+        <v>818</v>
+      </c>
+      <c r="G103" t="s">
+        <v>915</v>
       </c>
       <c r="H103" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6938,25 +7044,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>283</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>444</v>
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>454</v>
       </c>
       <c r="D104" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="E104" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="F104" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G104" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="H104" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6964,25 +7070,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D105" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="E105" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="F105" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G105" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="H105" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6990,25 +7096,22 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>285</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>446</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="E106" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="F106" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G106" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="H106" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7016,22 +7119,19 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="E107" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="F107" t="s">
-        <v>799</v>
-      </c>
-      <c r="G107" t="s">
-        <v>899</v>
+        <v>818</v>
       </c>
       <c r="H107" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7039,25 +7139,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D108" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="E108" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="F108" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G108" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="H108" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7065,25 +7165,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D109" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E109" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="F109" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G109" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="H109" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7091,25 +7191,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D110" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="E110" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="F110" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G110" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="H110" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7117,25 +7217,22 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
-      </c>
-      <c r="C111" t="s">
-        <v>450</v>
+        <v>294</v>
       </c>
       <c r="D111" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="E111" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="F111" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G111" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="H111" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7143,25 +7240,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D112" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="E112" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="F112" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G112" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="H112" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7169,25 +7266,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D113" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="E113" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="F113" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G113" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="H113" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7195,25 +7292,25 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
-      </c>
-      <c r="C114" t="s">
-        <v>453</v>
+        <v>297</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="D114" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="E114" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="F114" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G114" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="H114" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7221,25 +7318,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C115" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D115" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="E115" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="F115" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G115" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="H115" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7247,25 +7344,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
-      </c>
-      <c r="C116" t="s">
-        <v>455</v>
+        <v>299</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="D116" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E116" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="F116" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G116" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="H116" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7273,25 +7370,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>296</v>
-      </c>
-      <c r="C117" t="s">
-        <v>456</v>
+        <v>300</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D117" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="E117" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="F117" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G117" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="H117" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7299,25 +7396,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C118" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D118" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="E118" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="F118" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G118" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="H118" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7325,25 +7422,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C119" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D119" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="E119" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="F119" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G119" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="H119" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7351,25 +7448,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C120" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D120" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="E120" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="F120" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G120" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="H120" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7377,25 +7474,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C121" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D121" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="E121" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="F121" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G121" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="H121" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7403,25 +7500,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C122" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D122" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="E122" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="F122" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G122" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="H122" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7429,25 +7526,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C123" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D123" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="E123" t="s">
-        <v>716</v>
+        <v>777</v>
       </c>
       <c r="F123" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G123" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="H123" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7455,25 +7552,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C124" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D124" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="E124" t="s">
-        <v>716</v>
+        <v>778</v>
       </c>
       <c r="F124" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G124" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="H124" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7481,25 +7578,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C125" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D125" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="E125" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="F125" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="G125" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="H125" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7507,25 +7604,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>305</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>465</v>
+        <v>309</v>
+      </c>
+      <c r="C126" t="s">
+        <v>473</v>
       </c>
       <c r="D126" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="E126" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="F126" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="G126" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7533,25 +7630,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>306</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>466</v>
+        <v>310</v>
+      </c>
+      <c r="C127" t="s">
+        <v>474</v>
       </c>
       <c r="D127" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="E127" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="F127" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G127" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="H127" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7559,25 +7656,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>307</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>467</v>
+        <v>311</v>
+      </c>
+      <c r="C128" t="s">
+        <v>475</v>
       </c>
       <c r="D128" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="E128" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="F128" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G128" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="H128" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7585,25 +7682,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>468</v>
+        <v>312</v>
+      </c>
+      <c r="C129" t="s">
+        <v>476</v>
       </c>
       <c r="D129" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E129" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="F129" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G129" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="H129" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7611,25 +7708,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
-      </c>
-      <c r="C130" t="s">
-        <v>469</v>
+        <v>313</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="D130" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="E130" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="F130" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G130" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="H130" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7637,22 +7734,25 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="D131" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="E131" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="F131" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G131" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="H131" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7660,19 +7760,25 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="D132" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E132" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="F132" t="s">
-        <v>801</v>
+        <v>818</v>
+      </c>
+      <c r="G132" t="s">
+        <v>943</v>
       </c>
       <c r="H132" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7680,25 +7786,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>312</v>
-      </c>
-      <c r="C133" t="s">
-        <v>470</v>
+        <v>316</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="D133" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="E133" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="F133" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G133" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="H133" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7706,25 +7812,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C134" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D134" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="E134" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="F134" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G134" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="H134" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7732,25 +7838,22 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>314</v>
-      </c>
-      <c r="C135" t="s">
-        <v>472</v>
+        <v>318</v>
       </c>
       <c r="D135" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="E135" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="F135" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G135" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="H135" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7758,25 +7861,19 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>315</v>
-      </c>
-      <c r="C136" t="s">
-        <v>473</v>
+        <v>319</v>
       </c>
       <c r="D136" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="E136" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="F136" t="s">
-        <v>801</v>
-      </c>
-      <c r="G136" t="s">
-        <v>927</v>
+        <v>820</v>
       </c>
       <c r="H136" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7784,25 +7881,25 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C137" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D137" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="E137" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="F137" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G137" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="H137" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7810,25 +7907,25 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C138" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D138" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="E138" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="F138" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G138" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="H138" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7836,25 +7933,25 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C139" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D139" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="E139" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="F139" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G139" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="H139" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7862,19 +7959,25 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C140" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D140" t="s">
-        <v>628</v>
+        <v>640</v>
+      </c>
+      <c r="E140" t="s">
+        <v>789</v>
       </c>
       <c r="F140" t="s">
-        <v>799</v>
+        <v>820</v>
+      </c>
+      <c r="G140" t="s">
+        <v>950</v>
       </c>
       <c r="H140" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7882,16 +7985,25 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>320</v>
+        <v>324</v>
+      </c>
+      <c r="C141" t="s">
+        <v>486</v>
       </c>
       <c r="D141" t="s">
-        <v>629</v>
+        <v>641</v>
+      </c>
+      <c r="E141" t="s">
+        <v>789</v>
       </c>
       <c r="F141" t="s">
-        <v>799</v>
+        <v>820</v>
+      </c>
+      <c r="G141" t="s">
+        <v>951</v>
       </c>
       <c r="H141" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7899,19 +8011,25 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="C142" t="s">
+        <v>487</v>
       </c>
       <c r="D142" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="E142" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="F142" t="s">
-        <v>799</v>
+        <v>820</v>
+      </c>
+      <c r="G142" t="s">
+        <v>952</v>
       </c>
       <c r="H142" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7919,19 +8037,25 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C143" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D143" t="s">
-        <v>631</v>
+        <v>643</v>
+      </c>
+      <c r="E143" t="s">
+        <v>789</v>
       </c>
       <c r="F143" t="s">
-        <v>799</v>
+        <v>820</v>
+      </c>
+      <c r="G143" t="s">
+        <v>953</v>
       </c>
       <c r="H143" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7939,19 +8063,19 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C144" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D144" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="F144" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="H144" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7959,25 +8083,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>324</v>
-      </c>
-      <c r="C145" t="s">
-        <v>480</v>
+        <v>328</v>
       </c>
       <c r="D145" t="s">
-        <v>633</v>
-      </c>
-      <c r="E145" t="s">
-        <v>773</v>
+        <v>645</v>
       </c>
       <c r="F145" t="s">
-        <v>799</v>
-      </c>
-      <c r="G145" t="s">
-        <v>931</v>
+        <v>818</v>
       </c>
       <c r="H145" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7985,25 +8100,19 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>325</v>
-      </c>
-      <c r="C146" t="s">
-        <v>481</v>
+        <v>329</v>
       </c>
       <c r="D146" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="E146" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="F146" t="s">
-        <v>799</v>
-      </c>
-      <c r="G146" t="s">
-        <v>932</v>
+        <v>818</v>
       </c>
       <c r="H146" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8011,25 +8120,19 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C147" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D147" t="s">
-        <v>635</v>
-      </c>
-      <c r="E147" t="s">
-        <v>774</v>
+        <v>647</v>
       </c>
       <c r="F147" t="s">
-        <v>799</v>
-      </c>
-      <c r="G147" t="s">
-        <v>933</v>
+        <v>818</v>
       </c>
       <c r="H147" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8037,25 +8140,19 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D148" t="s">
-        <v>636</v>
-      </c>
-      <c r="E148" t="s">
-        <v>775</v>
+        <v>648</v>
       </c>
       <c r="F148" t="s">
-        <v>799</v>
-      </c>
-      <c r="G148" t="s">
-        <v>934</v>
+        <v>818</v>
       </c>
       <c r="H148" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8063,25 +8160,25 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C149" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D149" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E149" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="F149" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G149" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="H149" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8089,25 +8186,25 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C150" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D150" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="E150" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="F150" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G150" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="H150" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8115,25 +8212,25 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C151" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D151" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="E151" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="F151" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G151" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="H151" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8141,22 +8238,25 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="C152" t="s">
+        <v>495</v>
       </c>
       <c r="D152" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="E152" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F152" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G152" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="H152" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8164,25 +8264,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>487</v>
+        <v>336</v>
+      </c>
+      <c r="C153" t="s">
+        <v>496</v>
       </c>
       <c r="D153" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="E153" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="F153" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G153" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="H153" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8190,25 +8290,25 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>333</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>488</v>
+        <v>337</v>
+      </c>
+      <c r="C154" t="s">
+        <v>497</v>
       </c>
       <c r="D154" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="E154" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="F154" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G154" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="H154" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8216,25 +8316,25 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>489</v>
+        <v>338</v>
+      </c>
+      <c r="C155" t="s">
+        <v>498</v>
       </c>
       <c r="D155" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="E155" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="F155" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="G155" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="H155" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8242,25 +8342,22 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>335</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>490</v>
+        <v>339</v>
       </c>
       <c r="D156" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="E156" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="F156" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G156" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="H156" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8268,25 +8365,25 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D157" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="E157" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="F157" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G157" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="H157" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8294,25 +8391,25 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>337</v>
-      </c>
-      <c r="C158" t="s">
-        <v>492</v>
+        <v>341</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="D158" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="E158" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="F158" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G158" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="H158" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8320,22 +8417,25 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>338</v>
+        <v>342</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D159" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="E159" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="F159" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G159" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="H159" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8343,25 +8443,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D160" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="E160" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="F160" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G160" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="H160" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8369,25 +8469,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D161" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="E161" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="F161" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G161" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="H161" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8395,19 +8495,25 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>341</v>
+        <v>345</v>
+      </c>
+      <c r="C162" t="s">
+        <v>504</v>
       </c>
       <c r="D162" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="E162" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="F162" t="s">
-        <v>799</v>
+        <v>818</v>
+      </c>
+      <c r="G162" t="s">
+        <v>967</v>
       </c>
       <c r="H162" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8415,25 +8521,22 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>342</v>
-      </c>
-      <c r="C163" t="s">
-        <v>495</v>
+        <v>346</v>
       </c>
       <c r="D163" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="E163" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="F163" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G163" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="H163" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8441,25 +8544,25 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D164" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="E164" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="F164" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G164" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="H164" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8467,25 +8570,25 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D165" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="E165" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="F165" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G165" t="s">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="H165" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8493,25 +8596,19 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>345</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
       <c r="D166" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="E166" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="F166" t="s">
-        <v>801</v>
-      </c>
-      <c r="G166" t="s">
-        <v>951</v>
+        <v>818</v>
       </c>
       <c r="H166" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8519,25 +8616,25 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D167" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="E167" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="F167" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="G167" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="H167" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8545,25 +8642,25 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D168" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="E168" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="F168" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G168" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="H168" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8571,25 +8668,25 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>348</v>
-      </c>
-      <c r="C169" t="s">
-        <v>501</v>
+        <v>352</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="D169" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="E169" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="F169" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G169" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="H169" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8597,25 +8694,25 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>349</v>
-      </c>
-      <c r="C170" t="s">
-        <v>502</v>
+        <v>353</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="D170" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="E170" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="F170" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G170" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="H170" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8623,22 +8720,25 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>354</v>
+      </c>
+      <c r="C171" t="s">
+        <v>511</v>
       </c>
       <c r="D171" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="E171" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="F171" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="G171" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="H171" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8646,22 +8746,25 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>355</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="D172" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E172" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="F172" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="G172" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="H172" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8669,25 +8772,25 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>503</v>
+        <v>356</v>
+      </c>
+      <c r="C173" t="s">
+        <v>513</v>
       </c>
       <c r="D173" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="E173" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="F173" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G173" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="H173" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8695,22 +8798,120 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>353</v>
+        <v>357</v>
+      </c>
+      <c r="C174" t="s">
+        <v>514</v>
       </c>
       <c r="D174" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="E174" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="F174" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="G174" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="H174" t="s">
-        <v>960</v>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" t="s">
+        <v>675</v>
+      </c>
+      <c r="E175" t="s">
+        <v>814</v>
+      </c>
+      <c r="F175" t="s">
+        <v>820</v>
+      </c>
+      <c r="G175" t="s">
+        <v>979</v>
+      </c>
+      <c r="H175" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>359</v>
+      </c>
+      <c r="D176" t="s">
+        <v>676</v>
+      </c>
+      <c r="E176" t="s">
+        <v>815</v>
+      </c>
+      <c r="F176" t="s">
+        <v>820</v>
+      </c>
+      <c r="G176" t="s">
+        <v>980</v>
+      </c>
+      <c r="H176" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" t="s">
+        <v>360</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D177" t="s">
+        <v>677</v>
+      </c>
+      <c r="E177" t="s">
+        <v>816</v>
+      </c>
+      <c r="F177" t="s">
+        <v>818</v>
+      </c>
+      <c r="G177" t="s">
+        <v>981</v>
+      </c>
+      <c r="H177" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" t="s">
+        <v>361</v>
+      </c>
+      <c r="D178" t="s">
+        <v>678</v>
+      </c>
+      <c r="E178" t="s">
+        <v>817</v>
+      </c>
+      <c r="F178" t="s">
+        <v>818</v>
+      </c>
+      <c r="G178" t="s">
+        <v>982</v>
+      </c>
+      <c r="H178" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -8723,67 +8924,68 @@
     <hyperlink ref="C13" r:id="rId6"/>
     <hyperlink ref="C14" r:id="rId7"/>
     <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C30" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId9"/>
     <hyperlink ref="C31" r:id="rId10"/>
     <hyperlink ref="C32" r:id="rId11"/>
-    <hyperlink ref="C38" r:id="rId12"/>
+    <hyperlink ref="C33" r:id="rId12"/>
     <hyperlink ref="C39" r:id="rId13"/>
     <hyperlink ref="C40" r:id="rId14"/>
     <hyperlink ref="C41" r:id="rId15"/>
-    <hyperlink ref="C43" r:id="rId16"/>
-    <hyperlink ref="C44" r:id="rId17" location="t=aboutBook"/>
-    <hyperlink ref="C45" r:id="rId18"/>
-    <hyperlink ref="C48" r:id="rId19"/>
-    <hyperlink ref="C51" r:id="rId20"/>
+    <hyperlink ref="C42" r:id="rId16"/>
+    <hyperlink ref="C44" r:id="rId17"/>
+    <hyperlink ref="C45" r:id="rId18" location="t=aboutBook"/>
+    <hyperlink ref="C46" r:id="rId19"/>
+    <hyperlink ref="C49" r:id="rId20"/>
     <hyperlink ref="C52" r:id="rId21"/>
     <hyperlink ref="C53" r:id="rId22"/>
     <hyperlink ref="C54" r:id="rId23"/>
-    <hyperlink ref="C55" r:id="rId24" location=".Xhjy385zyM8;&#10;http://www.cp.jku.at/datasets/musicmicro/index.html;&#10;https://github.com/irecsys/CARSKit/tree/master/context-aware_data_sets;&#10;https://www.yelp.com/dataset"/>
-    <hyperlink ref="C56" r:id="rId25" location="heading20;&#10;https://www.sciencedirect.com/science/article/pii/B9780125587044500104;&#10;https://www.sciencedirect.com/science/article/abs/pii/0005791694900639;&#10;https://link.springer.com/chapter/10.1007/978-3-319-66790-4_1;&#10;https://link.springer.com/article/10.3758/s13428-016-0715-3;&#10;https://iui-lecture.org/&#10;https://www.youtube.com/watch?v=NOazEIijXTo&amp;list=PLsZdV05-bvLHcePpoXlIVFNfT7q2Y1kOx&amp;index=34"/>
-    <hyperlink ref="C57" r:id="rId26"/>
+    <hyperlink ref="C55" r:id="rId24"/>
+    <hyperlink ref="C56" r:id="rId25" location=".Xhjy385zyM8;&#10;http://www.cp.jku.at/datasets/musicmicro/index.html;&#10;https://github.com/irecsys/CARSKit/tree/master/context-aware_data_sets;&#10;https://www.yelp.com/dataset"/>
+    <hyperlink ref="C57" r:id="rId26" location="heading20;&#10;https://www.sciencedirect.com/science/article/pii/B9780125587044500104;&#10;https://www.sciencedirect.com/science/article/abs/pii/0005791694900639;&#10;https://link.springer.com/chapter/10.1007/978-3-319-66790-4_1;&#10;https://link.springer.com/article/10.3758/s13428-016-0715-3;&#10;https://iui-lecture.org/&#10;https://www.youtube.com/watch?v=NOazEIijXTo&amp;list=PLsZdV05-bvLHcePpoXlIVFNfT7q2Y1kOx&amp;index=34"/>
     <hyperlink ref="C58" r:id="rId27"/>
     <hyperlink ref="C59" r:id="rId28"/>
-    <hyperlink ref="C61" r:id="rId29"/>
+    <hyperlink ref="C60" r:id="rId29"/>
     <hyperlink ref="C62" r:id="rId30"/>
     <hyperlink ref="C63" r:id="rId31"/>
-    <hyperlink ref="C71" r:id="rId32"/>
-    <hyperlink ref="C76" r:id="rId33"/>
-    <hyperlink ref="C77" r:id="rId34"/>
-    <hyperlink ref="C78" r:id="rId35"/>
-    <hyperlink ref="C79" r:id="rId36"/>
-    <hyperlink ref="C80" r:id="rId37"/>
-    <hyperlink ref="C81" r:id="rId38"/>
-    <hyperlink ref="C82" r:id="rId39"/>
-    <hyperlink ref="C83" r:id="rId40"/>
-    <hyperlink ref="C84" r:id="rId41"/>
-    <hyperlink ref="C85" r:id="rId42"/>
-    <hyperlink ref="C86" r:id="rId43"/>
-    <hyperlink ref="C88" r:id="rId44"/>
-    <hyperlink ref="C101" r:id="rId45"/>
-    <hyperlink ref="C104" r:id="rId46"/>
-    <hyperlink ref="C105" r:id="rId47"/>
-    <hyperlink ref="C106" r:id="rId48"/>
-    <hyperlink ref="C108" r:id="rId49"/>
-    <hyperlink ref="C109" r:id="rId50"/>
-    <hyperlink ref="C110" r:id="rId51"/>
-    <hyperlink ref="C112" r:id="rId52"/>
-    <hyperlink ref="C113" r:id="rId53"/>
-    <hyperlink ref="C126" r:id="rId54"/>
-    <hyperlink ref="C127" r:id="rId55"/>
-    <hyperlink ref="C128" r:id="rId56"/>
-    <hyperlink ref="C129" r:id="rId57"/>
-    <hyperlink ref="C153" r:id="rId58"/>
-    <hyperlink ref="C154" r:id="rId59"/>
-    <hyperlink ref="C155" r:id="rId60"/>
-    <hyperlink ref="C156" r:id="rId61"/>
-    <hyperlink ref="C157" r:id="rId62"/>
-    <hyperlink ref="C160" r:id="rId63"/>
-    <hyperlink ref="C161" r:id="rId64"/>
-    <hyperlink ref="C164" r:id="rId65"/>
-    <hyperlink ref="C165" r:id="rId66"/>
-    <hyperlink ref="C166" r:id="rId67"/>
-    <hyperlink ref="C168" r:id="rId68"/>
-    <hyperlink ref="C173" r:id="rId69"/>
+    <hyperlink ref="C64" r:id="rId32"/>
+    <hyperlink ref="C75" r:id="rId33"/>
+    <hyperlink ref="C80" r:id="rId34"/>
+    <hyperlink ref="C81" r:id="rId35"/>
+    <hyperlink ref="C82" r:id="rId36"/>
+    <hyperlink ref="C83" r:id="rId37"/>
+    <hyperlink ref="C84" r:id="rId38"/>
+    <hyperlink ref="C85" r:id="rId39"/>
+    <hyperlink ref="C86" r:id="rId40"/>
+    <hyperlink ref="C87" r:id="rId41"/>
+    <hyperlink ref="C88" r:id="rId42"/>
+    <hyperlink ref="C89" r:id="rId43"/>
+    <hyperlink ref="C90" r:id="rId44"/>
+    <hyperlink ref="C92" r:id="rId45"/>
+    <hyperlink ref="C105" r:id="rId46"/>
+    <hyperlink ref="C108" r:id="rId47"/>
+    <hyperlink ref="C109" r:id="rId48"/>
+    <hyperlink ref="C110" r:id="rId49"/>
+    <hyperlink ref="C112" r:id="rId50"/>
+    <hyperlink ref="C113" r:id="rId51"/>
+    <hyperlink ref="C114" r:id="rId52"/>
+    <hyperlink ref="C116" r:id="rId53"/>
+    <hyperlink ref="C117" r:id="rId54"/>
+    <hyperlink ref="C130" r:id="rId55"/>
+    <hyperlink ref="C131" r:id="rId56"/>
+    <hyperlink ref="C132" r:id="rId57"/>
+    <hyperlink ref="C133" r:id="rId58"/>
+    <hyperlink ref="C157" r:id="rId59"/>
+    <hyperlink ref="C158" r:id="rId60"/>
+    <hyperlink ref="C159" r:id="rId61"/>
+    <hyperlink ref="C160" r:id="rId62"/>
+    <hyperlink ref="C161" r:id="rId63"/>
+    <hyperlink ref="C164" r:id="rId64"/>
+    <hyperlink ref="C165" r:id="rId65"/>
+    <hyperlink ref="C168" r:id="rId66"/>
+    <hyperlink ref="C169" r:id="rId67"/>
+    <hyperlink ref="C170" r:id="rId68"/>
+    <hyperlink ref="C172" r:id="rId69"/>
+    <hyperlink ref="C177" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1030">
   <si>
     <t>Project Theme/Title</t>
   </si>
@@ -85,16 +85,22 @@
     <t>GA-4: Blockchain framework for supply chain management</t>
   </si>
   <si>
-    <t>EB-1: Generative modelling of non-text handwritten document annotations</t>
-  </si>
-  <si>
-    <t>EB-2: Open project in code as primary source material in the &lt;blink&gt;history of computing&lt;/blink&gt;</t>
-  </si>
-  <si>
-    <t>EB-3: Analysing relevance, reliability, and information flow in user-generated comments on online music videos</t>
-  </si>
-  <si>
-    <t>EB-4: Tracking the production and circulation of MIDI files during the 1990s</t>
+    <t>EB-1: Toward a new history of the recording industry: processing crowdsourced free-text data about record labels</t>
+  </si>
+  <si>
+    <t>EB-2: Generative modelling of non-text handwritten document annotations</t>
+  </si>
+  <si>
+    <t>EB-3: Open project in code as primary source material in the &lt;blink&gt;history of computing&lt;/blink&gt;</t>
+  </si>
+  <si>
+    <t>EB-4: Analysing relevance, reliability, and information flow in user-generated comments on online music videos</t>
+  </si>
+  <si>
+    <t>EB-5: Tracking the production and circulation of MIDI files during the 1990s</t>
+  </si>
+  <si>
+    <t>EB-6: Unsupervised discovery of visual motifs and similarities in large collections of graphic design images</t>
   </si>
   <si>
     <t>NBe-1: Tentative Title: Simulations of MicroServices: an exemplar for evaluation and comparison of decision-making techniques for self-adaptation</t>
@@ -532,7 +538,34 @@
     <t>AT-4: Characterising Equilibria of the EU Grant Games</t>
   </si>
   <si>
-    <t>WT-1: Wireless Multicast at the MAC Layer</t>
+    <t>WT-1: Data Traffic Analysis for IoT Devices in Smart Buildings</t>
+  </si>
+  <si>
+    <t>WT-2: Implementation of The Seamless UAV Trajectory Algorithm</t>
+  </si>
+  <si>
+    <t>WT-3: Enhancing Trust Management in Vehicle Networks</t>
+  </si>
+  <si>
+    <t>WT-4: Mitigating IPv4 Address Exhaustion</t>
+  </si>
+  <si>
+    <t>WT-5: Investigating Smart City Networking Development in the UK</t>
+  </si>
+  <si>
+    <t>WT-6: Implementing MAODV in Network Simulator</t>
+  </si>
+  <si>
+    <t>WT-7: Simulating Starlink Satellite Networks</t>
+  </si>
+  <si>
+    <t>WT-8: Jammer Detection in Internet-of-Things Networks</t>
+  </si>
+  <si>
+    <t>WT-9: Balancing The Security-Efficiency Tradeoff In QUIC</t>
+  </si>
+  <si>
+    <t>WT-10: Wireless Multicast at the MAC Layer</t>
   </si>
   <si>
     <t>TV-1: Near-Insensitivity of occupancy-based load distribution policies in multi-server homogeneous systems</t>
@@ -626,6 +659,9 @@
     <t>In the past decade, global market is heavily linked to and affected by supply chains (SCs). An SC is defined as a system comprising various activities involving people, technology, resources, manufacturing, and selling goods to the consumers. SC management plays a crucial role in the oversight and management of SC activities. In the past SC systems have faced several challenges as a result of conventional SC management options such as (ERP) enterprise resource planning and financial ledgers. Blockchain is a newer technology that has the potential to provide SC systems with many benefits because of its powerful properties. Many existing proposals have adopted blockchain for SCs. However, there are still some critical gaps in the research. Thus, this work aims to overcome the incompetency of the existing frameworks by designing a scalable blockchain framework for the circular SC ecosystem.</t>
   </si>
   <si>
+    <t>Discographies are reference works that list key data about sound recordings: vinyl LPs, CDs, cassette tapes, and even digital downloads. Discogs.com is a popular crowdsourced discography platform and features (at the time of writing) over 11M unique freely-licensed entries. Although Discogs.com data primarily supports music fans and collectors, the discographic data it contains is of immense value to the history of sound recording. However, much of this data is represented in free-text fields, such as in the case of corporate biographical data relating to record labels. By using contemporary natural language-processing (NLP) techniques, including recent implementations of solutions to standard tasks such as named entity recognition (NER) and relation extraction, this project will analyse this information about approximately 1.8M labels to understand the evolution of the global recorded music industry over time. The goal is to produce structured representations of events in the history of each of these labels, including their founding, their acquisition by or transfer between other labels and holding entities, and their closure. This will contribute to the first systematic study of the industry with the help of crowdsourced discographic data.</t>
+  </si>
+  <si>
     <t>Handwritten annotations enrich documents with extra information, not least text. While there is considerable interest in handwritten text recognition (HTR) for commercial, government, and cultural applications there is less focus on non-text annotations: underlines, editorial marks, deletions, doodles, and so on. This applied machine learning project, in the area of document analysis, will explore the use of generative models of raster (image) and/or vector graphic representations of non-text handwritten annotations. Generative models of this data are useful, since they may be used to generate synthetic training data used in other downstream document analysis tasks, including semantic document layout analysis (semantic segmentation of document images). Solutions to this problem have applications in information management and to the digital humanities, particularly in the field of digitized cultural heritage.</t>
   </si>
   <si>
@@ -636,6 +672,9 @@
   </si>
   <si>
     <t>MIDI files are a compact representation of music data, designed to be consumed by sequencers and synthesizers (both hardware and software). A new archive of approximately 400,000 MIDI files dating from the 1990s has been distilled from a large set of CD images (.iso files) that have been available online from the Internet Archive (archive.org). This project requires a set of tools for the analysis of MIDI files at scale, as well as their relations to each other, based on shared content, metadata, and co-occurence on the same CD image. Research questions include: (a) the design of an efficient and scalable software pipeline information extraction (IE) and other knowledge mining techniques to extract structured data from the plaintext metadata that these files include; (b) the production of temporal dynamic graphs that model historically interesting relations between files, as well as an evaluation of the suitability of standard and non-standard graph metrics for deriving insight from these graphs; (c) the design and implementation of a user interface, using standard data analysis frameworks, for the effective and user-friendly analysis of large volumes of MIDI files.</t>
+  </si>
+  <si>
+    <t>Graphic design is everywhere: in food wrappers, in music album art and physical media design, in signage, in bank cards, and so on. Large collections of images of objects - e.g. CD album art, bank cards, cassette tapes - circulate widely online. Historians of graphic design and popular culture can use these images to better understand the environments that they circulate in, but to date they have relied largely on the manual analysis of these images. Specifically, this project works within the "distant viewing" tradition to explore new ways of defining the similarity between images of material artefacts of a standardised shape and size by taking advantage of and combining (a) novel zero-shot image segmentation models; (b) deep neural network models of image similarity (semantic and structural); (c) interactive, browser-based technologies for the exploration of large image datasets.</t>
   </si>
   <si>
     <t xml:space="preserve">Microservices refer to small autonomous and self-adaptive services that work together to fulfil a particular goal. The popularity of the application of microservices has recently grown in the industry and as a result, has sparked an interest in the research community to evaluate the self-adaptive mechanisms in the microservices domain.  A number of challenges need to be addressed with respect to the self-adaptive decision-making approaches such as the quantification of the uncertainty of events that cannot be foreseen in advance and their effects and dealing with conflicting objectives that inherently involve multi-objective decision making.  
@@ -1488,6 +1527,33 @@
 </t>
   </si>
   <si>
+    <t>Smart buildings employ various IoT (Internet-of-Things) devices, such as lighting, CCTV, smoke sensors, plugs, to realise building automation. While these smart devices provide low-cost benefits for building management, they are often vulnerable to malicious attacks. To secure smart buildings and their networks, it is important to understand the attributes of traffic generated or received by these devices. This project concerns analysis of data traffic in smart building networks so as to derive and define the characteristics for traffic from or to different IoT devices. On this basis, traffic features that help to detect security vulnerability will be developed.</t>
+  </si>
+  <si>
+    <t>Many UAV (Unmanned Aerial Vehicle)-related applications require group communications between UAVs to reliably and efficiently deliver rich media content as well as to extend line-of-sight coverage between sky and ground. UAV group communications often need to accommodate UAV movement so as to enable activities such as adapting to the movements of ground devices, capture different videos/images, etc. During our research, we have designed the seamless UAV trajectory algorithm to handover UAVs in a group communication network without degrading data communication performance. This project is to implement the algorithm by programming simulators or real-world UAVs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The trustworthiness of vehicle messages is a major focus in intelligent transportation research. Existing studies focus on enhancing the accuracy of vehicle trustworthiness evaluation, overlooking that the transmission performance may affect the quality of vehicle messages. This project is to design a transmission strategy to regulate vehiclesâ€™ transmissions so that incident messages for any part of the road can be reliably and accurately sent to a roadside unit. You will also implement the strategy by programming, and evaluate key relevant performance metrics. </t>
+  </si>
+  <si>
+    <t>There are 232 IPv4 addresses in total to identify individual devices on the Internet, while the deployment of new types of application always encourages the dramatic growth of devices on the Internet. The shortage of IPv4 addresses has driven several enhancement technologies, including Classless IP addressing, NAT, and IPv6. However, these schemes either only temporarily delay IPv4 address exhaustion or confront implementation issues in practical networks. In this project, you will not only show an understanding of the reasons for the IPv4 address shortage (even with those enhancement technologies) but also develop/explore your own idea in mitigating IPv4 address exhaustion (via either extending/improving existing enhancement technologies or developing something new). You may also be expected to do experiments to justify the feasibility of your idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cities around the world are currently rapidly transitioning to a resource efficient, low carbon emission economy while maintaining a high quality of life. In this project, you will investigate state-of-the-art smart city developments in the UK. In particular, you will focus on collecting and analysing the deployment of and innovations in networking technologies in order to support smart cities around the UK. On this basis, you are expected to draw insight and present arguments regarding further smart city networking developments in the UK. </t>
+  </si>
+  <si>
+    <t>The Multicast Ad hoc On-Demand Distance Vector (MAODV) routing protocol is the multicast operation of the Ad hoc On-Demand Distance Vector (AODV) routing protocol between mobile devices. Multicast operations enable data to be delivered to a group of receivers simultaneously. In this project, you will study the MAODV routing protocol to understand how the protocol processes/forwards mobile data in a multicasting fashion. You will then develop/program this protocol in Network Simulator. As a further part of your results, you will need to test and demonstrate the accurate implementation of this protocol in Network Simulator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpaceX has launched 2500+ satellites to low earth orbits to form the well-known Starlink satellite constellation to provide global coverage. This project is to investigate Starlink and so to understand the deployment, the structure, and the performance of this new Internet backbone. Simulations will be carried out to develop Starlink, demonstrate data transmissions via this system, and evaluate basic data communication performance. </t>
+  </si>
+  <si>
+    <t>Many Internet-of-Things (IoT) networks interconnect a massive number of unsupervised devices. These devices are often exposed to transmissions of unexpected nearby wireless devices that generate jamming signals over transmission channels. As a consequence, legitimate transmissions are hindered, channels are busier, packet receptions at receivers is disrupted and the batteries of IoT devices drain, degrading the overall performance of the IoT network. This project is to design a solution to detect and localise such jammers. You will also implement your solution in experiment and so to evaluate the performance of your proposal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIC is a transport layer network protocol initially designed at Google. Ever since the first deployment in 2012, QUIC has been used by more than half of all connections from the Chrome web browser to Googleâ€™s servers. In addition, Microsoft Edge and Firefox also support this protocol. This project is to investigate how we may enhance the tradeoff between the security and the transmission efficiency for QUIC applications. You will establish an experimental platform to derive such findings. You will also evaluate your findings through simulation. </t>
+  </si>
+  <si>
     <t xml:space="preserve">In computer networking, multicast is a resource-efficient transmission method to distribute data to a group of coexisting receivers. However, with current networking standards and protocols, it is not trivial to implement multicasts in wireless networks. This project is to investigate a potential solution that can effectively implement wireless multicasting transmissions at the MAC layer. You will look into networking algorithms, machine learning algorithms, etc. to work out this potential solution. You will also evaluate the potential solution via experiments (say simulations). </t>
   </si>
   <si>
@@ -1612,6 +1678,13 @@
     <t xml:space="preserve">1. Chang, Shuchih E., and Yichian Chen. "When blockchain meets supply chain: A systematic literature review on current development and potential applications." IEEE Access 8 (2020): 62478-62494.â€ 
 2. Kshetri, Nir. "1 Blockchainâ€™s roles in meeting key supply chain management objectives." International Journal of information management 39 (2018): 80-89.
 </t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;Bogdanov, Dmitry, and Xavier Serra. "Quantifying Music Trends and Facts Using Editorial Metadata from the Discogs Database". In Proceedings of the 18th International Society for Music Information Retrieval Conference, 89-95. Suzhou, China: International Society for Music Information Retrieval (ISMIR), 2017. http://hdl.handle.net/10230/32931.&lt;/li&gt;
+&lt;li&gt;Devine, Kyle. Decomposed: The Political Ecology of Music. Cambridge, Mass.: MIT Press, 2019.&lt;/li&gt;
+&lt;li&gt;Youngblood, Mason, Karim Baraghith, and Patrick E. Savage. "Phylogenetic Reconstruction of the Cultural Evolution of Electronic Music via Dynamic Community Detection (1975--1999)". Evolution and Human Behavior 42, no. 6 (November 2021): 573-82. https://doi.org/10.1016/j.evolhumbehav.2021.06.002.&lt;/li&gt;
+&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Carlier, Alexandre, Martin Danelljan, Alexandre Alahi, and Radu Timofte. "DeepSVG: A Hierarchical Generative Network for Vector Graphics Animation". In Advances in Neural Information Processing Systems, 33:16351-61. 2020. https://proceedings.neurips.cc/paper/2020/hash/bcf9d6bd14a2095866ce8c950b702341-Abstract.html&lt;/li&gt;
@@ -1637,6 +1710,14 @@
     <t xml:space="preserve">&lt;ul&gt;
 &lt;li&gt;Lisena, Pasquale, Albert Meroño-Peñuela, and Raphaël Troncy. ‘MIDI2vec: Learning MIDI Embeddings for Reliable Prediction of Symbolic Music Metadata’. Semantic Web 13, no. 3 (2022): 357–77. &lt;a href="https://doi.org/10.3233/SW-210446"&gt;https://doi.org/10.3233/SW-210446&lt;/a&gt;.&lt;/li&gt;
 &lt;li&gt;Raffel, Colin, and Daniel P. W. Ellis. ‘Extracting Ground-Truth Information from MIDI Files: A MIDIfesto.’ Proceedings of the 17th International Society for Music Information Retrieval Conference. New York City, United States, August 2016. &lt;a href="https://doi.org/10.5281/zenodo.1418233"&gt;https://doi.org/10.5281/zenodo.1418233&lt;/a&gt;.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;Arnold, Taylor, and Lauren Tilton. “Distant Viewing: Analyzing Large Visual Corpora.” &lt;em&gt;Digital Scholarship in the Humanities&lt;/em&gt; 34, no. Supplement 1 (December 2019): i3–16. &lt;a href="https://doi.org/10.1093/llc/fqz013"&gt;https://doi.org/10.1093/llc/fqz013&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;Kirillov, Alexander, Eric Mintun, Nikhila Ravi, Hanzi Mao, Chloe Rolland, Laura Gustafson, Tete Xiao, et al. “Segment Anything.” arXiv, April 5, 2023. &lt;a href="https://doi.org/10.48550/arXiv.2304.02643"&gt;https://doi.org/10.48550/arXiv.2304.02643&lt;/a&gt;.&lt;/li&gt;
+&lt;li&gt;Park, Sungkyu, Hyeonho Song, Sungwon Han, Berhane Weldegebriel, Lev Manovich, Emanuele Arielli, and Meeyoung Cha. “Using Web Data to Reveal 22-Year History of Sneaker Designs.” In &lt;em&gt;Proceedings of the ACM Web Conference 2022&lt;/em&gt;, 2967–77. WWW ’22. New York, NY, USA: Association for Computing Machinery, 2022. &lt;a href="https://doi.org/10.1145/3485447.3512017"&gt;https://doi.org/10.1145/3485447.3512017&lt;/a&gt;.&lt;/li&gt;
 &lt;/ul&gt;
 </t>
   </si>
@@ -2430,6 +2511,9 @@
 </t>
   </si>
   <si>
+    <t>The desired outcome is a scalable text-processing pipeline to extract relevant information from free-text contributions to the Discogs.com database. Project students may alternatively wish to work on a user interface to this data.</t>
+  </si>
+  <si>
     <t>The student will be expected to identify, collect, create or otherwise curate a dataset of handwritten non-text annotations, choose and implement a suitable generative model, and evaluate its performance using standard techniques.</t>
   </si>
   <si>
@@ -2437,6 +2521,9 @@
   </si>
   <si>
     <t>To be discussed with supervisor</t>
+  </si>
+  <si>
+    <t>New machine learning and GUI workflow(s) for exploring large collections of images, applying new unsupervised/zero-shot segmentation models as well as information retrieval techniques in a browser-based tool</t>
   </si>
   <si>
     <t xml:space="preserve">- A simulation tool for microservices (MS_Simulator) 
@@ -3030,6 +3117,41 @@
 - Extensions to the EU grant game with analysis</t>
   </si>
   <si>
+    <t xml:space="preserve">Data traffic features of major smart building devices; 
+A set of minimum features that can be employed to detect security vulnerability. </t>
+  </si>
+  <si>
+    <t>Workable algorithm in the simulator or UAVs to demonstrate seamless UAV trajectories; 
+Performance analysis results.</t>
+  </si>
+  <si>
+    <t>Transmission strategy for vehicles;
+Strategy implementation; 
+Performance results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good understanding of the subject issue; a potential proposal for mitigating IPv4 address exhaustion; results of feasibility study. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good understanding of the subject area; potential guidance for further development. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workable MAODV in Network Simulator; tangible results showing the accurate implementation of the protocol in Network Simulator. </t>
+  </si>
+  <si>
+    <t>Starlink satellite network simulator; 
+Data communication performance results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jammer detection solution;
+Performance results from experiments. </t>
+  </si>
+  <si>
+    <t>Experimental platform;
+Findings for balancing the tradeoff;
+Framework to combine these findings.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A potentially feasible wireless multicast; simulation evaluation of this multicast method. </t>
   </si>
   <si>
@@ -3107,13 +3229,13 @@
     <t>Knowledge about blockchain, smart contracts, solidity (would be useful), python.</t>
   </si>
   <si>
+    <t>(COMP2271 Data Science OR COMP2261 Artificial Intelligence). Desirable (for L3 project students, as co-requisite): COMP3517 Computational Modelling in the Humanities and Social Sciences.</t>
+  </si>
+  <si>
     <t>COMP3527 Computer Vision OR COMP3547 Deep Learning</t>
   </si>
   <si>
     <t>No formal prerequisites but project students must have excellent written expression and attention to detail in report-writing, curiosity about the history of computing, as well as a capacity to interpret and analyse code examples written in obsolete, unfamiliar, and often poorly documented programming languages.</t>
-  </si>
-  <si>
-    <t>(COMP2271 Data Science OR COMP2261 Artificial Intelligence). Desirable (for L3 project students, as co-requisite): COMP3517 Computational Modelling in the Humanities and Social Sciences.</t>
   </si>
   <si>
     <t>(COMP2271 Data Science OR COMP2261 Artificial Intelligence). 
@@ -3504,7 +3626,29 @@
 -Programming/Analytical skills </t>
   </si>
   <si>
+    <t xml:space="preserve">Data analysis skills; 
+Critical thinking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C/C++; critical thinking; knowledge in computer networks. </t>
+  </si>
+  <si>
+    <t>Computer systems, Networks and systems, programming</t>
+  </si>
+  <si>
+    <t>Computer networks; critical thinking; system experiments.</t>
+  </si>
+  <si>
+    <t>Computer networks; critical thinking.</t>
+  </si>
+  <si>
+    <t>C++; computer networks; critical thinking.</t>
+  </si>
+  <si>
     <t>Computer systems, Networks and Systems, C/C++, Python</t>
+  </si>
+  <si>
+    <t>Computer systems, Network and systems, programming</t>
   </si>
   <si>
     <t>Networks and Systems, Data Science</t>
@@ -3592,6 +3736,9 @@
     <t>Electric Vehicles, Edge Computing, Cloud Computing, Critical Infrastructures, Internet of Things</t>
   </si>
   <si>
+    <t>natural language processing, digital humanities, music, history of music</t>
+  </si>
+  <si>
     <t xml:space="preserve">computer vision, document analysis, semantic segmentation, handwriting, generative modelling
 </t>
   </si>
@@ -3605,6 +3752,9 @@
     <t>MIDI, music processing</t>
   </si>
   <si>
+    <t>computer vision, deep learning, image segmentation, exploratory data analysis, cultural analytics, digital humanities</t>
+  </si>
+  <si>
     <t>Microservices, Self-Adaptation, Decision-Making</t>
   </si>
   <si>
@@ -4012,6 +4162,9 @@
   </si>
   <si>
     <t>Game Theory, Networks, Graphs, Analysis, Programming</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Servers, Queues, JSQ, Delay, Erlang</t>
@@ -4424,7 +4577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4461,25 +4614,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="F2" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G2" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="H2" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4487,25 +4640,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="E3" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="F3" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G3" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="H3" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4513,22 +4666,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="F4" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="G4" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="H4" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4536,25 +4689,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="E5" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="F5" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G5" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="H5" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4562,22 +4715,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E6" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="F6" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G6" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="H6" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4585,25 +4738,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="E7" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="F7" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G7" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="H7" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4611,25 +4764,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="E8" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="F8" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G8" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="H8" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4637,25 +4790,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="F9" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G9" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="H9" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4663,25 +4816,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="D10" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="F10" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="G10" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="H10" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4689,25 +4842,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="E11" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="F11" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G11" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="H11" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4715,25 +4868,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="E12" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="F12" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G12" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="H12" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4741,25 +4894,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="D13" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="E13" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="F13" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G13" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="H13" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4767,25 +4920,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="E14" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="F14" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G14" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="H14" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4793,22 +4946,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="E15" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="F15" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="H15" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4816,22 +4969,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="E16" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="F16" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="H16" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4839,25 +4992,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="D17" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="E17" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="F17" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G17" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="H17" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4865,25 +5018,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="E18" t="s">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="F18" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="G18" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="H18" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4891,25 +5044,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="E19" t="s">
-        <v>692</v>
+        <v>727</v>
       </c>
       <c r="F19" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G19" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="H19" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4917,25 +5070,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="D20" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="E20" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="F20" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G20" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="H20" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4943,25 +5096,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="D21" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="E21" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="F21" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G21" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="H21" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4969,25 +5122,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="D22" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="E22" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="F22" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G22" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="H22" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4995,25 +5148,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D23" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="E23" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="F23" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G23" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="H23" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5021,25 +5174,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="D24" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="E24" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
       <c r="F24" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G24" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="H24" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5047,25 +5200,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>384</v>
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>406</v>
       </c>
       <c r="D25" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="E25" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="F25" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G25" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="H25" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5073,25 +5226,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="D26" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="E26" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="F26" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G26" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="H26" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5099,25 +5252,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" t="s">
-        <v>386</v>
+        <v>221</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D27" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="E27" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="F27" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G27" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="H27" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5125,19 +5278,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
-        <v>387</v>
+        <v>409</v>
+      </c>
+      <c r="D28" t="s">
+        <v>560</v>
       </c>
       <c r="E28" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="F28" t="s">
-        <v>818</v>
+        <v>860</v>
+      </c>
+      <c r="G28" t="s">
+        <v>886</v>
       </c>
       <c r="H28" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5145,25 +5304,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="D29" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="E29" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="F29" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G29" t="s">
-        <v>844</v>
+        <v>887</v>
       </c>
       <c r="H29" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5171,25 +5330,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>389</v>
-      </c>
-      <c r="D30" t="s">
-        <v>537</v>
+        <v>411</v>
       </c>
       <c r="E30" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="F30" t="s">
-        <v>820</v>
-      </c>
-      <c r="G30" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="H30" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5197,25 +5350,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>390</v>
+        <v>225</v>
+      </c>
+      <c r="C31" t="s">
+        <v>412</v>
       </c>
       <c r="D31" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="E31" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="F31" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G31" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="H31" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5223,25 +5376,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>391</v>
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>413</v>
       </c>
       <c r="D32" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="E32" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="F32" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="G32" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="H32" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5249,25 +5402,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="D33" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="E33" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="F33" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G33" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="H33" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5275,25 +5428,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" t="s">
-        <v>393</v>
+        <v>228</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="D34" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="E34" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="F34" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G34" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="H34" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5301,25 +5454,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" t="s">
-        <v>394</v>
+        <v>229</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D35" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="E35" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="F35" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G35" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="H35" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5327,22 +5480,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>417</v>
       </c>
       <c r="D36" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="E36" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="F36" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="G36" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="H36" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5350,22 +5506,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>231</v>
+      </c>
+      <c r="C37" t="s">
+        <v>418</v>
       </c>
       <c r="D37" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="E37" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="F37" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G37" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="H37" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5373,25 +5532,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C38" t="s">
-        <v>395</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="E38" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="F38" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G38" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="H38" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5399,25 +5555,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>396</v>
+        <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="E39" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="F39" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G39" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="H39" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5425,25 +5578,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>397</v>
+        <v>234</v>
+      </c>
+      <c r="C40" t="s">
+        <v>419</v>
       </c>
       <c r="D40" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E40" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="F40" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G40" t="s">
-        <v>855</v>
+        <v>897</v>
       </c>
       <c r="H40" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5451,25 +5604,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="D41" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="E41" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="F41" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G41" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="H41" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5477,25 +5630,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="D42" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="E42" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="F42" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G42" t="s">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="H42" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5503,22 +5656,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>237</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="D43" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="E43" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="F43" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G43" t="s">
-        <v>858</v>
+        <v>900</v>
       </c>
       <c r="H43" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5526,25 +5682,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="D44" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="E44" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="F44" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G44" t="s">
-        <v>859</v>
+        <v>901</v>
       </c>
       <c r="H44" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5552,25 +5708,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>401</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="E45" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="F45" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G45" t="s">
-        <v>860</v>
+        <v>902</v>
       </c>
       <c r="H45" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5578,25 +5731,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="D46" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="E46" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="F46" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G46" t="s">
-        <v>861</v>
+        <v>903</v>
       </c>
       <c r="H46" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5604,25 +5757,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" t="s">
-        <v>403</v>
+        <v>241</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="D47" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="E47" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="F47" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G47" t="s">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="H47" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5630,25 +5783,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" t="s">
-        <v>404</v>
+        <v>242</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="D48" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="E48" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="F48" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G48" t="s">
-        <v>862</v>
+        <v>905</v>
       </c>
       <c r="H48" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5656,25 +5809,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>405</v>
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
       </c>
       <c r="D49" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="E49" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="F49" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G49" t="s">
-        <v>863</v>
+        <v>906</v>
       </c>
       <c r="H49" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5682,22 +5835,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>406</v>
+        <v>428</v>
+      </c>
+      <c r="D50" t="s">
+        <v>581</v>
       </c>
       <c r="E50" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="F50" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G50" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="H50" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5705,16 +5861,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
-      </c>
-      <c r="C51" t="s">
-        <v>407</v>
+        <v>245</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D51" t="s">
+        <v>582</v>
+      </c>
+      <c r="E51" t="s">
+        <v>754</v>
       </c>
       <c r="F51" t="s">
-        <v>818</v>
+        <v>860</v>
+      </c>
+      <c r="G51" t="s">
+        <v>907</v>
       </c>
       <c r="H51" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5722,19 +5887,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>408</v>
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
+        <v>430</v>
       </c>
       <c r="E52" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="F52" t="s">
-        <v>818</v>
+        <v>860</v>
+      </c>
+      <c r="G52" t="s">
+        <v>908</v>
       </c>
       <c r="H52" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5742,22 +5910,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E53" t="s">
-        <v>722</v>
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
+        <v>431</v>
       </c>
       <c r="F53" t="s">
-        <v>818</v>
-      </c>
-      <c r="G53" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="H53" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5765,25 +5927,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D54" t="s">
-        <v>557</v>
+        <v>432</v>
       </c>
       <c r="E54" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="F54" t="s">
-        <v>818</v>
-      </c>
-      <c r="G54" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="H54" t="s">
-        <v>984</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5791,25 +5947,22 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D55" t="s">
-        <v>558</v>
+        <v>433</v>
       </c>
       <c r="E55" t="s">
-        <v>724</v>
+        <v>757</v>
       </c>
       <c r="F55" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G55" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="H55" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5817,25 +5970,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="D56" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="E56" t="s">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="F56" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G56" t="s">
-        <v>868</v>
+        <v>910</v>
       </c>
       <c r="H56" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5843,25 +5996,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="D57" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="E57" t="s">
-        <v>726</v>
+        <v>759</v>
       </c>
       <c r="F57" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G57" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="H57" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -5869,25 +6022,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="D58" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="E58" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="F58" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="G58" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="H58" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5895,25 +6048,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D59" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="E59" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="F59" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="G59" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="H59" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5921,25 +6074,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="D60" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="E60" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="F60" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G60" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="H60" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5947,25 +6100,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" t="s">
-        <v>417</v>
+        <v>255</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="D61" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="E61" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="F61" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G61" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="H61" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5973,25 +6126,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="D62" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="E62" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="F62" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G62" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="H62" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5999,25 +6152,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>419</v>
+        <v>257</v>
+      </c>
+      <c r="C63" t="s">
+        <v>441</v>
       </c>
       <c r="D63" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="E63" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="F63" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G63" t="s">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="H63" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6025,25 +6178,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D64" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="E64" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="F64" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G64" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="H64" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6051,25 +6204,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
-      </c>
-      <c r="C65" t="s">
-        <v>421</v>
+        <v>259</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="D65" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E65" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F65" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G65" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="H65" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6077,25 +6230,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" t="s">
-        <v>422</v>
+        <v>260</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="D66" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="E66" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="F66" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G66" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="H66" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6103,25 +6256,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="D67" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="E67" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="F67" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G67" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
       <c r="H67" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6129,25 +6282,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C68" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D68" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="E68" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="F68" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G68" t="s">
-        <v>880</v>
+        <v>922</v>
       </c>
       <c r="H68" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6155,25 +6308,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="D69" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="E69" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
       <c r="F69" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G69" t="s">
-        <v>881</v>
+        <v>923</v>
       </c>
       <c r="H69" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6181,25 +6334,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="D70" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="E70" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="F70" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G70" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
       <c r="H70" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6207,22 +6360,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>265</v>
+      </c>
+      <c r="C71" t="s">
+        <v>449</v>
       </c>
       <c r="D71" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="E71" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="F71" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G71" t="s">
-        <v>883</v>
+        <v>925</v>
       </c>
       <c r="H71" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6230,25 +6386,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D72" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="E72" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="F72" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G72" t="s">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="H72" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6256,25 +6412,22 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>256</v>
-      </c>
-      <c r="C73" t="s">
-        <v>428</v>
+        <v>267</v>
       </c>
       <c r="D73" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="E73" t="s">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="F73" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G73" t="s">
-        <v>885</v>
+        <v>927</v>
       </c>
       <c r="H73" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6282,25 +6435,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="D74" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="E74" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="F74" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G74" t="s">
-        <v>886</v>
+        <v>928</v>
       </c>
       <c r="H74" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6308,25 +6461,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>430</v>
+        <v>269</v>
+      </c>
+      <c r="C75" t="s">
+        <v>452</v>
       </c>
       <c r="D75" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="E75" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="F75" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G75" t="s">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="H75" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6334,25 +6487,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="D76" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="E76" t="s">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="F76" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G76" t="s">
-        <v>888</v>
+        <v>930</v>
       </c>
       <c r="H76" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6360,25 +6513,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
-      </c>
-      <c r="C77" t="s">
-        <v>432</v>
+        <v>271</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="D77" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="E77" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="F77" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="G77" t="s">
-        <v>889</v>
+        <v>931</v>
       </c>
       <c r="H77" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6386,25 +6539,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="D78" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="E78" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="F78" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="G78" t="s">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="H78" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6412,25 +6565,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D79" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="E79" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="F79" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G79" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="H79" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6438,25 +6591,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>435</v>
+        <v>274</v>
+      </c>
+      <c r="C80" t="s">
+        <v>457</v>
       </c>
       <c r="D80" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="E80" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
       <c r="F80" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G80" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="H80" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6464,25 +6617,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>436</v>
+        <v>275</v>
+      </c>
+      <c r="C81" t="s">
+        <v>458</v>
       </c>
       <c r="D81" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="E81" t="s">
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="F81" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G81" t="s">
-        <v>893</v>
+        <v>935</v>
       </c>
       <c r="H81" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6490,25 +6643,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="D82" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="E82" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="F82" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="G82" t="s">
-        <v>894</v>
+        <v>936</v>
       </c>
       <c r="H82" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6516,25 +6669,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="D83" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="E83" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="F83" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="G83" t="s">
-        <v>895</v>
+        <v>937</v>
       </c>
       <c r="H83" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6542,25 +6695,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="D84" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="E84" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="F84" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G84" t="s">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="H84" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6568,25 +6721,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D85" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="E85" t="s">
-        <v>733</v>
+        <v>782</v>
       </c>
       <c r="F85" t="s">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="G85" t="s">
-        <v>897</v>
+        <v>939</v>
       </c>
       <c r="H85" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6594,25 +6747,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="D86" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="E86" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="F86" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G86" t="s">
-        <v>898</v>
+        <v>940</v>
       </c>
       <c r="H86" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6620,25 +6773,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="D87" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="E87" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="F87" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="G87" t="s">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="H87" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6646,25 +6799,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="D88" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="E88" t="s">
-        <v>733</v>
+        <v>784</v>
       </c>
       <c r="F88" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G88" t="s">
-        <v>900</v>
+        <v>942</v>
       </c>
       <c r="H88" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6672,25 +6825,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="D89" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="E89" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="F89" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G89" t="s">
-        <v>901</v>
+        <v>943</v>
       </c>
       <c r="H89" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6698,25 +6851,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="D90" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="E90" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="F90" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="G90" t="s">
-        <v>902</v>
+        <v>944</v>
       </c>
       <c r="H90" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6724,25 +6877,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
-      </c>
-      <c r="C91" t="s">
-        <v>446</v>
+        <v>285</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="D91" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="E91" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="F91" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G91" t="s">
-        <v>903</v>
+        <v>945</v>
       </c>
       <c r="H91" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6750,25 +6903,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="D92" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="E92" t="s">
-        <v>752</v>
+        <v>785</v>
       </c>
       <c r="F92" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G92" t="s">
-        <v>904</v>
+        <v>946</v>
       </c>
       <c r="H92" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6776,22 +6929,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="D93" t="s">
-        <v>596</v>
+        <v>620</v>
+      </c>
+      <c r="E93" t="s">
+        <v>786</v>
       </c>
       <c r="F93" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G93" t="s">
-        <v>905</v>
+        <v>947</v>
       </c>
       <c r="H93" t="s">
-        <v>984</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6799,25 +6955,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
-      </c>
-      <c r="C94" t="s">
-        <v>449</v>
+        <v>288</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D94" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="E94" t="s">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="F94" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G94" t="s">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="H94" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6825,19 +6981,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>289</v>
+      </c>
+      <c r="C95" t="s">
+        <v>472</v>
       </c>
       <c r="D95" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="F95" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G95" t="s">
-        <v>907</v>
+        <v>949</v>
       </c>
       <c r="H95" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6845,25 +7004,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D96" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="E96" t="s">
-        <v>754</v>
+        <v>788</v>
       </c>
       <c r="F96" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G96" t="s">
-        <v>908</v>
+        <v>950</v>
       </c>
       <c r="H96" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6871,22 +7030,19 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D97" t="s">
-        <v>600</v>
-      </c>
-      <c r="E97" t="s">
-        <v>755</v>
+        <v>624</v>
       </c>
       <c r="F97" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G97" t="s">
-        <v>909</v>
+        <v>951</v>
       </c>
       <c r="H97" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6894,22 +7050,25 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>292</v>
+      </c>
+      <c r="C98" t="s">
+        <v>474</v>
       </c>
       <c r="D98" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="E98" t="s">
-        <v>756</v>
+        <v>789</v>
       </c>
       <c r="F98" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G98" t="s">
-        <v>910</v>
+        <v>952</v>
       </c>
       <c r="H98" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6917,22 +7076,22 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D99" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="E99" t="s">
-        <v>757</v>
+        <v>790</v>
       </c>
       <c r="F99" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G99" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="H99" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6940,25 +7099,22 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" t="s">
-        <v>451</v>
+        <v>294</v>
       </c>
       <c r="D100" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="E100" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="F100" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G100" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="H100" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6966,25 +7122,22 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" t="s">
-        <v>452</v>
+        <v>295</v>
       </c>
       <c r="D101" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="E101" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="F101" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G101" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="H101" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6992,25 +7145,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="D102" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="E102" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="F102" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G102" t="s">
-        <v>914</v>
+        <v>956</v>
       </c>
       <c r="H102" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7018,25 +7171,25 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="D103" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="E103" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="F103" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G103" t="s">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="H103" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7044,25 +7197,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D104" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="E104" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="F104" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G104" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="H104" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7070,25 +7223,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>455</v>
+        <v>299</v>
+      </c>
+      <c r="C105" t="s">
+        <v>477</v>
       </c>
       <c r="D105" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="E105" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="F105" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G105" t="s">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="H105" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7096,22 +7249,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>300</v>
+      </c>
+      <c r="C106" t="s">
+        <v>478</v>
       </c>
       <c r="D106" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="E106" t="s">
-        <v>764</v>
+        <v>797</v>
       </c>
       <c r="F106" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G106" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="H106" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7119,19 +7275,25 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>301</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="D107" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="E107" t="s">
-        <v>765</v>
+        <v>798</v>
       </c>
       <c r="F107" t="s">
-        <v>818</v>
+        <v>860</v>
+      </c>
+      <c r="G107" t="s">
+        <v>961</v>
       </c>
       <c r="H107" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7139,25 +7301,22 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>456</v>
+        <v>302</v>
       </c>
       <c r="D108" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="E108" t="s">
-        <v>766</v>
+        <v>799</v>
       </c>
       <c r="F108" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G108" t="s">
-        <v>919</v>
+        <v>962</v>
       </c>
       <c r="H108" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7165,25 +7324,19 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>457</v>
+        <v>303</v>
       </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="E109" t="s">
-        <v>767</v>
+        <v>800</v>
       </c>
       <c r="F109" t="s">
-        <v>818</v>
-      </c>
-      <c r="G109" t="s">
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="H109" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7191,25 +7344,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="D110" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="E110" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="F110" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G110" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="H110" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7217,22 +7370,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="D111" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="E111" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
       <c r="F111" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G111" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="H111" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7240,25 +7396,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="D112" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E112" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="F112" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G112" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="H112" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7266,25 +7422,22 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>460</v>
+        <v>307</v>
       </c>
       <c r="D113" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="E113" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="F113" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G113" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="H113" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7292,25 +7445,25 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="D114" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="E114" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="F114" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G114" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="H114" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7318,25 +7471,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
-      </c>
-      <c r="C115" t="s">
-        <v>462</v>
+        <v>309</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="D115" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="E115" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="F115" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G115" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="H115" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7344,25 +7497,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="D116" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="E116" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="F116" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G116" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="H116" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7370,25 +7523,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>464</v>
+        <v>311</v>
+      </c>
+      <c r="C117" t="s">
+        <v>486</v>
       </c>
       <c r="D117" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="E117" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
       <c r="F117" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G117" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
       <c r="H117" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7396,25 +7549,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>301</v>
-      </c>
-      <c r="C118" t="s">
-        <v>465</v>
+        <v>312</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D118" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="E118" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="F118" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G118" t="s">
-        <v>929</v>
+        <v>971</v>
       </c>
       <c r="H118" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7422,25 +7575,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" t="s">
-        <v>466</v>
+        <v>313</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="D119" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="E119" t="s">
-        <v>774</v>
+        <v>805</v>
       </c>
       <c r="F119" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G119" t="s">
-        <v>930</v>
+        <v>972</v>
       </c>
       <c r="H119" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7448,25 +7601,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C120" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="D120" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="E120" t="s">
-        <v>775</v>
+        <v>808</v>
       </c>
       <c r="F120" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G120" t="s">
-        <v>931</v>
+        <v>973</v>
       </c>
       <c r="H120" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7474,25 +7627,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C121" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="D121" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="E121" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="F121" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G121" t="s">
-        <v>932</v>
+        <v>974</v>
       </c>
       <c r="H121" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7500,25 +7653,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="D122" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="E122" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="F122" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G122" t="s">
-        <v>933</v>
+        <v>975</v>
       </c>
       <c r="H122" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7526,25 +7679,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C123" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="D123" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="E123" t="s">
-        <v>777</v>
+        <v>811</v>
       </c>
       <c r="F123" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G123" t="s">
-        <v>934</v>
+        <v>976</v>
       </c>
       <c r="H123" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7552,25 +7705,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="D124" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="E124" t="s">
-        <v>778</v>
+        <v>812</v>
       </c>
       <c r="F124" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G124" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
       <c r="H124" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7578,25 +7731,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C125" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="D125" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="E125" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="F125" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G125" t="s">
-        <v>936</v>
+        <v>978</v>
       </c>
       <c r="H125" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7604,25 +7757,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C126" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="D126" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="E126" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="F126" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G126" t="s">
-        <v>937</v>
+        <v>979</v>
       </c>
       <c r="H126" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7630,25 +7783,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C127" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="D127" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="E127" t="s">
-        <v>733</v>
+        <v>814</v>
       </c>
       <c r="F127" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="G127" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
       <c r="H127" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7656,25 +7809,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C128" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="D128" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="E128" t="s">
-        <v>733</v>
+        <v>815</v>
       </c>
       <c r="F128" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="G128" t="s">
-        <v>939</v>
+        <v>981</v>
       </c>
       <c r="H128" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7682,25 +7835,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="D129" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="E129" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F129" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G129" t="s">
-        <v>940</v>
+        <v>982</v>
       </c>
       <c r="H129" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7708,25 +7861,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>477</v>
+        <v>324</v>
+      </c>
+      <c r="C130" t="s">
+        <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="E130" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="F130" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G130" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="H130" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7734,25 +7887,25 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>478</v>
+        <v>325</v>
+      </c>
+      <c r="C131" t="s">
+        <v>500</v>
       </c>
       <c r="D131" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="E131" t="s">
-        <v>783</v>
+        <v>816</v>
       </c>
       <c r="F131" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G131" t="s">
-        <v>942</v>
+        <v>984</v>
       </c>
       <c r="H131" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7760,25 +7913,25 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="D132" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="E132" t="s">
-        <v>784</v>
+        <v>817</v>
       </c>
       <c r="F132" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G132" t="s">
-        <v>943</v>
+        <v>985</v>
       </c>
       <c r="H132" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7786,25 +7939,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="D133" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="E133" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
       <c r="F133" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G133" t="s">
-        <v>944</v>
+        <v>986</v>
       </c>
       <c r="H133" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7812,25 +7965,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
-      </c>
-      <c r="C134" t="s">
-        <v>481</v>
+        <v>328</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="D134" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="E134" t="s">
-        <v>786</v>
+        <v>819</v>
       </c>
       <c r="F134" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G134" t="s">
-        <v>945</v>
+        <v>987</v>
       </c>
       <c r="H134" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7838,22 +7991,25 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>329</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="D135" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="E135" t="s">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="F135" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G135" t="s">
-        <v>946</v>
+        <v>988</v>
       </c>
       <c r="H135" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7861,19 +8017,25 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>319</v>
+        <v>330</v>
+      </c>
+      <c r="C136" t="s">
+        <v>505</v>
       </c>
       <c r="D136" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="E136" t="s">
-        <v>788</v>
+        <v>821</v>
       </c>
       <c r="F136" t="s">
-        <v>820</v>
+        <v>862</v>
+      </c>
+      <c r="G136" t="s">
+        <v>989</v>
       </c>
       <c r="H136" t="s">
-        <v>984</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7881,25 +8043,22 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>320</v>
-      </c>
-      <c r="C137" t="s">
-        <v>482</v>
+        <v>331</v>
       </c>
       <c r="D137" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="E137" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="F137" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G137" t="s">
-        <v>947</v>
+        <v>990</v>
       </c>
       <c r="H137" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7907,25 +8066,19 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>321</v>
-      </c>
-      <c r="C138" t="s">
-        <v>483</v>
+        <v>332</v>
       </c>
       <c r="D138" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="E138" t="s">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="F138" t="s">
-        <v>820</v>
-      </c>
-      <c r="G138" t="s">
-        <v>948</v>
+        <v>862</v>
       </c>
       <c r="H138" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7933,25 +8086,25 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="D139" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="E139" t="s">
-        <v>789</v>
+        <v>824</v>
       </c>
       <c r="F139" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G139" t="s">
-        <v>949</v>
+        <v>991</v>
       </c>
       <c r="H139" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7959,25 +8112,25 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="D140" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="E140" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="F140" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G140" t="s">
-        <v>950</v>
+        <v>992</v>
       </c>
       <c r="H140" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7985,25 +8138,25 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C141" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="D141" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="E141" t="s">
-        <v>789</v>
+        <v>824</v>
       </c>
       <c r="F141" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G141" t="s">
-        <v>951</v>
+        <v>993</v>
       </c>
       <c r="H141" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8011,25 +8164,25 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C142" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="D142" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="E142" t="s">
-        <v>789</v>
+        <v>824</v>
       </c>
       <c r="F142" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G142" t="s">
-        <v>952</v>
+        <v>994</v>
       </c>
       <c r="H142" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8037,25 +8190,25 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C143" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="D143" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="E143" t="s">
-        <v>789</v>
+        <v>824</v>
       </c>
       <c r="F143" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="G143" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="H143" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8063,19 +8216,25 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C144" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="D144" t="s">
-        <v>644</v>
+        <v>668</v>
+      </c>
+      <c r="E144" t="s">
+        <v>824</v>
       </c>
       <c r="F144" t="s">
-        <v>818</v>
+        <v>862</v>
+      </c>
+      <c r="G144" t="s">
+        <v>996</v>
       </c>
       <c r="H144" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8083,16 +8242,25 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>328</v>
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
+        <v>512</v>
       </c>
       <c r="D145" t="s">
-        <v>645</v>
+        <v>669</v>
+      </c>
+      <c r="E145" t="s">
+        <v>824</v>
       </c>
       <c r="F145" t="s">
-        <v>818</v>
+        <v>862</v>
+      </c>
+      <c r="G145" t="s">
+        <v>997</v>
       </c>
       <c r="H145" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8100,19 +8268,19 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>329</v>
+        <v>340</v>
+      </c>
+      <c r="C146" t="s">
+        <v>513</v>
       </c>
       <c r="D146" t="s">
-        <v>646</v>
-      </c>
-      <c r="E146" t="s">
-        <v>791</v>
+        <v>670</v>
       </c>
       <c r="F146" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="H146" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8120,19 +8288,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
-      </c>
-      <c r="C147" t="s">
-        <v>490</v>
+        <v>341</v>
       </c>
       <c r="D147" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="F147" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="H147" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8140,19 +8305,19 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>331</v>
-      </c>
-      <c r="C148" t="s">
-        <v>491</v>
+        <v>342</v>
       </c>
       <c r="D148" t="s">
-        <v>648</v>
+        <v>672</v>
+      </c>
+      <c r="E148" t="s">
+        <v>826</v>
       </c>
       <c r="F148" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="H148" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8160,25 +8325,19 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C149" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="D149" t="s">
-        <v>649</v>
-      </c>
-      <c r="E149" t="s">
-        <v>792</v>
+        <v>673</v>
       </c>
       <c r="F149" t="s">
-        <v>818</v>
-      </c>
-      <c r="G149" t="s">
-        <v>954</v>
+        <v>860</v>
       </c>
       <c r="H149" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8186,25 +8345,19 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="D150" t="s">
-        <v>650</v>
-      </c>
-      <c r="E150" t="s">
-        <v>792</v>
+        <v>674</v>
       </c>
       <c r="F150" t="s">
-        <v>818</v>
-      </c>
-      <c r="G150" t="s">
-        <v>955</v>
+        <v>860</v>
       </c>
       <c r="H150" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8212,25 +8365,25 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="D151" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="E151" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
       <c r="F151" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G151" t="s">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="H151" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8238,25 +8391,25 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C152" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D152" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="E152" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="F152" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G152" t="s">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="H152" t="s">
-        <v>984</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8264,25 +8417,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C153" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="D153" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="E153" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="F153" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G153" t="s">
-        <v>958</v>
+        <v>1000</v>
       </c>
       <c r="H153" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8290,25 +8443,25 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="D154" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="E154" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="F154" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G154" t="s">
-        <v>959</v>
+        <v>1001</v>
       </c>
       <c r="H154" t="s">
-        <v>984</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8316,25 +8469,25 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C155" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="D155" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="E155" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
       <c r="F155" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G155" t="s">
-        <v>960</v>
+        <v>1002</v>
       </c>
       <c r="H155" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8342,22 +8495,25 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>350</v>
+      </c>
+      <c r="C156" t="s">
+        <v>521</v>
       </c>
       <c r="D156" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="E156" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="F156" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="G156" t="s">
-        <v>961</v>
+        <v>1003</v>
       </c>
       <c r="H156" t="s">
-        <v>984</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8365,25 +8521,25 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>499</v>
+        <v>351</v>
+      </c>
+      <c r="C157" t="s">
+        <v>522</v>
       </c>
       <c r="D157" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="E157" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="F157" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="G157" t="s">
-        <v>962</v>
+        <v>1004</v>
       </c>
       <c r="H157" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8391,25 +8547,22 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="D158" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="E158" t="s">
-        <v>798</v>
+        <v>831</v>
       </c>
       <c r="F158" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G158" t="s">
-        <v>963</v>
+        <v>1005</v>
       </c>
       <c r="H158" t="s">
-        <v>983</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8417,25 +8570,25 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="D159" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="E159" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
       <c r="F159" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G159" t="s">
-        <v>964</v>
+        <v>1006</v>
       </c>
       <c r="H159" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8443,25 +8596,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="D160" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="E160" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="F160" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G160" t="s">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="H160" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8469,25 +8622,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="D161" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="E161" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="F161" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G161" t="s">
-        <v>966</v>
+        <v>1008</v>
       </c>
       <c r="H161" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8495,25 +8648,25 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>345</v>
-      </c>
-      <c r="C162" t="s">
-        <v>504</v>
+        <v>356</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="D162" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="E162" t="s">
-        <v>802</v>
+        <v>835</v>
       </c>
       <c r="F162" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G162" t="s">
-        <v>967</v>
+        <v>1009</v>
       </c>
       <c r="H162" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8521,22 +8674,25 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>346</v>
+        <v>357</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="D163" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="E163" t="s">
-        <v>803</v>
+        <v>836</v>
       </c>
       <c r="F163" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G163" t="s">
-        <v>968</v>
+        <v>1010</v>
       </c>
       <c r="H163" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8544,25 +8700,25 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>347</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>505</v>
+        <v>358</v>
+      </c>
+      <c r="C164" t="s">
+        <v>528</v>
       </c>
       <c r="D164" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="E164" t="s">
-        <v>804</v>
+        <v>837</v>
       </c>
       <c r="F164" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G164" t="s">
-        <v>969</v>
+        <v>1011</v>
       </c>
       <c r="H164" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8570,25 +8726,22 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>348</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>506</v>
+        <v>359</v>
       </c>
       <c r="D165" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="E165" t="s">
-        <v>805</v>
+        <v>838</v>
       </c>
       <c r="F165" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G165" t="s">
-        <v>970</v>
+        <v>1012</v>
       </c>
       <c r="H165" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8596,19 +8749,25 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>349</v>
+        <v>360</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="D166" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="E166" t="s">
-        <v>806</v>
+        <v>839</v>
       </c>
       <c r="F166" t="s">
-        <v>818</v>
+        <v>860</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1013</v>
       </c>
       <c r="H166" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8616,25 +8775,25 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>350</v>
-      </c>
-      <c r="C167" t="s">
-        <v>507</v>
+        <v>361</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D167" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="E167" t="s">
-        <v>807</v>
+        <v>840</v>
       </c>
       <c r="F167" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G167" t="s">
-        <v>971</v>
+        <v>1014</v>
       </c>
       <c r="H167" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8642,25 +8801,19 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>351</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>508</v>
+        <v>362</v>
       </c>
       <c r="D168" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="E168" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="F168" t="s">
-        <v>820</v>
-      </c>
-      <c r="G168" t="s">
-        <v>972</v>
+        <v>860</v>
       </c>
       <c r="H168" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8668,25 +8821,19 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>352</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>509</v>
+        <v>363</v>
       </c>
       <c r="D169" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="E169" t="s">
-        <v>809</v>
+        <v>842</v>
       </c>
       <c r="F169" t="s">
-        <v>820</v>
-      </c>
-      <c r="G169" t="s">
-        <v>973</v>
+        <v>860</v>
       </c>
       <c r="H169" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8694,25 +8841,19 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>353</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>510</v>
+        <v>364</v>
       </c>
       <c r="D170" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="E170" t="s">
-        <v>810</v>
+        <v>843</v>
       </c>
       <c r="F170" t="s">
-        <v>820</v>
-      </c>
-      <c r="G170" t="s">
-        <v>974</v>
+        <v>860</v>
       </c>
       <c r="H170" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8720,25 +8861,19 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>354</v>
-      </c>
-      <c r="C171" t="s">
-        <v>511</v>
+        <v>365</v>
       </c>
       <c r="D171" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="E171" t="s">
-        <v>811</v>
+        <v>844</v>
       </c>
       <c r="F171" t="s">
-        <v>819</v>
-      </c>
-      <c r="G171" t="s">
-        <v>975</v>
+        <v>860</v>
       </c>
       <c r="H171" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8746,25 +8881,19 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>355</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
       <c r="D172" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="E172" t="s">
-        <v>808</v>
+        <v>845</v>
       </c>
       <c r="F172" t="s">
-        <v>820</v>
-      </c>
-      <c r="G172" t="s">
-        <v>976</v>
+        <v>860</v>
       </c>
       <c r="H172" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8772,25 +8901,19 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>356</v>
-      </c>
-      <c r="C173" t="s">
-        <v>513</v>
+        <v>367</v>
       </c>
       <c r="D173" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="E173" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="F173" t="s">
-        <v>818</v>
-      </c>
-      <c r="G173" t="s">
-        <v>977</v>
+        <v>860</v>
       </c>
       <c r="H173" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8798,25 +8921,19 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>357</v>
-      </c>
-      <c r="C174" t="s">
-        <v>514</v>
+        <v>368</v>
       </c>
       <c r="D174" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="E174" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="F174" t="s">
-        <v>820</v>
-      </c>
-      <c r="G174" t="s">
-        <v>978</v>
+        <v>860</v>
       </c>
       <c r="H174" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8824,22 +8941,19 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D175" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="E175" t="s">
-        <v>814</v>
+        <v>843</v>
       </c>
       <c r="F175" t="s">
-        <v>820</v>
-      </c>
-      <c r="G175" t="s">
-        <v>979</v>
+        <v>860</v>
       </c>
       <c r="H175" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8847,22 +8961,22 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D176" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E176" t="s">
-        <v>815</v>
+        <v>848</v>
       </c>
       <c r="F176" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="G176" t="s">
-        <v>980</v>
+        <v>1015</v>
       </c>
       <c r="H176" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8870,25 +8984,19 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>360</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>515</v>
+        <v>371</v>
       </c>
       <c r="D177" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="E177" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="F177" t="s">
-        <v>818</v>
-      </c>
-      <c r="G177" t="s">
-        <v>981</v>
+        <v>860</v>
       </c>
       <c r="H177" t="s">
-        <v>983</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8896,22 +9004,302 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>361</v>
+        <v>372</v>
+      </c>
+      <c r="C178" t="s">
+        <v>531</v>
       </c>
       <c r="D178" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="E178" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="F178" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="G178" t="s">
-        <v>982</v>
+        <v>1016</v>
       </c>
       <c r="H178" t="s">
-        <v>983</v>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D179" t="s">
+        <v>703</v>
+      </c>
+      <c r="E179" t="s">
+        <v>850</v>
+      </c>
+      <c r="F179" t="s">
+        <v>862</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" t="s">
+        <v>374</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D180" t="s">
+        <v>704</v>
+      </c>
+      <c r="E180" t="s">
+        <v>851</v>
+      </c>
+      <c r="F180" t="s">
+        <v>862</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>375</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D181" t="s">
+        <v>705</v>
+      </c>
+      <c r="E181" t="s">
+        <v>852</v>
+      </c>
+      <c r="F181" t="s">
+        <v>862</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>376</v>
+      </c>
+      <c r="C182" t="s">
+        <v>535</v>
+      </c>
+      <c r="D182" t="s">
+        <v>706</v>
+      </c>
+      <c r="E182" t="s">
+        <v>853</v>
+      </c>
+      <c r="F182" t="s">
+        <v>861</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" t="s">
+        <v>377</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D183" t="s">
+        <v>707</v>
+      </c>
+      <c r="E183" t="s">
+        <v>850</v>
+      </c>
+      <c r="F183" t="s">
+        <v>862</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
+        <v>378</v>
+      </c>
+      <c r="C184" t="s">
+        <v>537</v>
+      </c>
+      <c r="D184" t="s">
+        <v>708</v>
+      </c>
+      <c r="E184" t="s">
+        <v>854</v>
+      </c>
+      <c r="F184" t="s">
+        <v>860</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" t="s">
+        <v>538</v>
+      </c>
+      <c r="D185" t="s">
+        <v>709</v>
+      </c>
+      <c r="E185" t="s">
+        <v>855</v>
+      </c>
+      <c r="F185" t="s">
+        <v>862</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>380</v>
+      </c>
+      <c r="D186" t="s">
+        <v>710</v>
+      </c>
+      <c r="E186" t="s">
+        <v>856</v>
+      </c>
+      <c r="F186" t="s">
+        <v>862</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>381</v>
+      </c>
+      <c r="D187" t="s">
+        <v>711</v>
+      </c>
+      <c r="E187" t="s">
+        <v>857</v>
+      </c>
+      <c r="F187" t="s">
+        <v>862</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>382</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D188" t="s">
+        <v>712</v>
+      </c>
+      <c r="E188" t="s">
+        <v>858</v>
+      </c>
+      <c r="F188" t="s">
+        <v>860</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" t="s">
+        <v>383</v>
+      </c>
+      <c r="D189" t="s">
+        <v>713</v>
+      </c>
+      <c r="E189" t="s">
+        <v>859</v>
+      </c>
+      <c r="F189" t="s">
+        <v>860</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -8924,68 +9312,68 @@
     <hyperlink ref="C13" r:id="rId6"/>
     <hyperlink ref="C14" r:id="rId7"/>
     <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C25" r:id="rId9"/>
-    <hyperlink ref="C31" r:id="rId10"/>
-    <hyperlink ref="C32" r:id="rId11"/>
-    <hyperlink ref="C33" r:id="rId12"/>
-    <hyperlink ref="C39" r:id="rId13"/>
-    <hyperlink ref="C40" r:id="rId14"/>
-    <hyperlink ref="C41" r:id="rId15"/>
-    <hyperlink ref="C42" r:id="rId16"/>
-    <hyperlink ref="C44" r:id="rId17"/>
-    <hyperlink ref="C45" r:id="rId18" location="t=aboutBook"/>
-    <hyperlink ref="C46" r:id="rId19"/>
-    <hyperlink ref="C49" r:id="rId20"/>
-    <hyperlink ref="C52" r:id="rId21"/>
-    <hyperlink ref="C53" r:id="rId22"/>
-    <hyperlink ref="C54" r:id="rId23"/>
-    <hyperlink ref="C55" r:id="rId24"/>
-    <hyperlink ref="C56" r:id="rId25" location=".Xhjy385zyM8;&#10;http://www.cp.jku.at/datasets/musicmicro/index.html;&#10;https://github.com/irecsys/CARSKit/tree/master/context-aware_data_sets;&#10;https://www.yelp.com/dataset"/>
-    <hyperlink ref="C57" r:id="rId26" location="heading20;&#10;https://www.sciencedirect.com/science/article/pii/B9780125587044500104;&#10;https://www.sciencedirect.com/science/article/abs/pii/0005791694900639;&#10;https://link.springer.com/chapter/10.1007/978-3-319-66790-4_1;&#10;https://link.springer.com/article/10.3758/s13428-016-0715-3;&#10;https://iui-lecture.org/&#10;https://www.youtube.com/watch?v=NOazEIijXTo&amp;list=PLsZdV05-bvLHcePpoXlIVFNfT7q2Y1kOx&amp;index=34"/>
-    <hyperlink ref="C58" r:id="rId27"/>
-    <hyperlink ref="C59" r:id="rId28"/>
-    <hyperlink ref="C60" r:id="rId29"/>
-    <hyperlink ref="C62" r:id="rId30"/>
-    <hyperlink ref="C63" r:id="rId31"/>
-    <hyperlink ref="C64" r:id="rId32"/>
-    <hyperlink ref="C75" r:id="rId33"/>
-    <hyperlink ref="C80" r:id="rId34"/>
-    <hyperlink ref="C81" r:id="rId35"/>
-    <hyperlink ref="C82" r:id="rId36"/>
-    <hyperlink ref="C83" r:id="rId37"/>
-    <hyperlink ref="C84" r:id="rId38"/>
-    <hyperlink ref="C85" r:id="rId39"/>
-    <hyperlink ref="C86" r:id="rId40"/>
-    <hyperlink ref="C87" r:id="rId41"/>
-    <hyperlink ref="C88" r:id="rId42"/>
-    <hyperlink ref="C89" r:id="rId43"/>
-    <hyperlink ref="C90" r:id="rId44"/>
-    <hyperlink ref="C92" r:id="rId45"/>
-    <hyperlink ref="C105" r:id="rId46"/>
-    <hyperlink ref="C108" r:id="rId47"/>
-    <hyperlink ref="C109" r:id="rId48"/>
-    <hyperlink ref="C110" r:id="rId49"/>
-    <hyperlink ref="C112" r:id="rId50"/>
-    <hyperlink ref="C113" r:id="rId51"/>
-    <hyperlink ref="C114" r:id="rId52"/>
-    <hyperlink ref="C116" r:id="rId53"/>
-    <hyperlink ref="C117" r:id="rId54"/>
-    <hyperlink ref="C130" r:id="rId55"/>
-    <hyperlink ref="C131" r:id="rId56"/>
-    <hyperlink ref="C132" r:id="rId57"/>
-    <hyperlink ref="C133" r:id="rId58"/>
-    <hyperlink ref="C157" r:id="rId59"/>
-    <hyperlink ref="C158" r:id="rId60"/>
-    <hyperlink ref="C159" r:id="rId61"/>
-    <hyperlink ref="C160" r:id="rId62"/>
-    <hyperlink ref="C161" r:id="rId63"/>
-    <hyperlink ref="C164" r:id="rId64"/>
-    <hyperlink ref="C165" r:id="rId65"/>
-    <hyperlink ref="C168" r:id="rId66"/>
-    <hyperlink ref="C169" r:id="rId67"/>
-    <hyperlink ref="C170" r:id="rId68"/>
-    <hyperlink ref="C172" r:id="rId69"/>
-    <hyperlink ref="C177" r:id="rId70"/>
+    <hyperlink ref="C27" r:id="rId9"/>
+    <hyperlink ref="C33" r:id="rId10"/>
+    <hyperlink ref="C34" r:id="rId11"/>
+    <hyperlink ref="C35" r:id="rId12"/>
+    <hyperlink ref="C41" r:id="rId13"/>
+    <hyperlink ref="C42" r:id="rId14"/>
+    <hyperlink ref="C43" r:id="rId15"/>
+    <hyperlink ref="C44" r:id="rId16"/>
+    <hyperlink ref="C46" r:id="rId17"/>
+    <hyperlink ref="C47" r:id="rId18" location="t=aboutBook"/>
+    <hyperlink ref="C48" r:id="rId19"/>
+    <hyperlink ref="C51" r:id="rId20"/>
+    <hyperlink ref="C54" r:id="rId21"/>
+    <hyperlink ref="C55" r:id="rId22"/>
+    <hyperlink ref="C56" r:id="rId23"/>
+    <hyperlink ref="C57" r:id="rId24"/>
+    <hyperlink ref="C58" r:id="rId25" location=".Xhjy385zyM8;&#10;http://www.cp.jku.at/datasets/musicmicro/index.html;&#10;https://github.com/irecsys/CARSKit/tree/master/context-aware_data_sets;&#10;https://www.yelp.com/dataset"/>
+    <hyperlink ref="C59" r:id="rId26" location="heading20;&#10;https://www.sciencedirect.com/science/article/pii/B9780125587044500104;&#10;https://www.sciencedirect.com/science/article/abs/pii/0005791694900639;&#10;https://link.springer.com/chapter/10.1007/978-3-319-66790-4_1;&#10;https://link.springer.com/article/10.3758/s13428-016-0715-3;&#10;https://iui-lecture.org/&#10;https://www.youtube.com/watch?v=NOazEIijXTo&amp;list=PLsZdV05-bvLHcePpoXlIVFNfT7q2Y1kOx&amp;index=34"/>
+    <hyperlink ref="C60" r:id="rId27"/>
+    <hyperlink ref="C61" r:id="rId28"/>
+    <hyperlink ref="C62" r:id="rId29"/>
+    <hyperlink ref="C64" r:id="rId30"/>
+    <hyperlink ref="C65" r:id="rId31"/>
+    <hyperlink ref="C66" r:id="rId32"/>
+    <hyperlink ref="C77" r:id="rId33"/>
+    <hyperlink ref="C82" r:id="rId34"/>
+    <hyperlink ref="C83" r:id="rId35"/>
+    <hyperlink ref="C84" r:id="rId36"/>
+    <hyperlink ref="C85" r:id="rId37"/>
+    <hyperlink ref="C86" r:id="rId38"/>
+    <hyperlink ref="C87" r:id="rId39"/>
+    <hyperlink ref="C88" r:id="rId40"/>
+    <hyperlink ref="C89" r:id="rId41"/>
+    <hyperlink ref="C90" r:id="rId42"/>
+    <hyperlink ref="C91" r:id="rId43"/>
+    <hyperlink ref="C92" r:id="rId44"/>
+    <hyperlink ref="C94" r:id="rId45"/>
+    <hyperlink ref="C107" r:id="rId46"/>
+    <hyperlink ref="C110" r:id="rId47"/>
+    <hyperlink ref="C111" r:id="rId48"/>
+    <hyperlink ref="C112" r:id="rId49"/>
+    <hyperlink ref="C114" r:id="rId50"/>
+    <hyperlink ref="C115" r:id="rId51"/>
+    <hyperlink ref="C116" r:id="rId52"/>
+    <hyperlink ref="C118" r:id="rId53"/>
+    <hyperlink ref="C119" r:id="rId54"/>
+    <hyperlink ref="C132" r:id="rId55"/>
+    <hyperlink ref="C133" r:id="rId56"/>
+    <hyperlink ref="C134" r:id="rId57"/>
+    <hyperlink ref="C135" r:id="rId58"/>
+    <hyperlink ref="C159" r:id="rId59"/>
+    <hyperlink ref="C160" r:id="rId60"/>
+    <hyperlink ref="C161" r:id="rId61"/>
+    <hyperlink ref="C162" r:id="rId62"/>
+    <hyperlink ref="C163" r:id="rId63"/>
+    <hyperlink ref="C166" r:id="rId64"/>
+    <hyperlink ref="C167" r:id="rId65"/>
+    <hyperlink ref="C179" r:id="rId66"/>
+    <hyperlink ref="C180" r:id="rId67"/>
+    <hyperlink ref="C181" r:id="rId68"/>
+    <hyperlink ref="C183" r:id="rId69"/>
+    <hyperlink ref="C188" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1035">
   <si>
     <t>Project Theme/Title</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>RL-8: A PyTorch implementation of the UMAP embedding method</t>
+  </si>
+  <si>
+    <t>RL-9: Collaborative Text Editing with ChatGPT</t>
   </si>
   <si>
     <t>YL-1: AI-pedia</t>
@@ -1250,6 +1253,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;ChatGPT has extraordinary capabilities for creating high-quality text from prompts. However, the prompt-response mode of interaction has a major shortcoming: it is not possible to collaboratively edit an existing document to improve its quality. Instead, one can only request the model to rewrite/regenerate the text, which often changes many things at once (potentially messing up carefully formulated parts of the text) and does not allow for a fine-grained control. Prompt engineering can be used to mitigate this problem by asking for very specific changes, but this is tedious and does not always produce the desired results.&lt;/p&gt;
+&lt;p&gt;This theme is about building a collaborative text editing app that acts as an intermediate layer and mediator between a human editor and ChatGPT. The human can ask for suggestions for specific parts of the text and provide additional information, such as the style (formal, colloquial, funny, ... ) that should be used. The app then translates this into a prompt for ChatGPT using carefully designed prompt templates. The response is then processed and compared to the existing text to present the user with specific and easy-to-use suggestions. For instance, if a colloquially written text should be changed to a formal style, the app may run multiple queries to ChatGPT, align the responses with the existing text and present the user with simple drop-down choices for replacing single words or short segments, without messing up the entire document.&lt;/p&gt;
+&lt;p&gt;If this project is well implemented, it has the potential for a scientific publication and/or commercialisation as a start-up/spin-off.&lt;/p&gt;
+</t>
+  </si>
+  <si>
     <t>Are you interested in AI? Do you want to have a broad overview and solid foundation of AI knowledge? And do you want to make the study fun? If your answers to the above three questions are yes, you should choose this project. You will follow one of the best AI textbooks and enjoy learning. The AI topic can be tailored to your interest that ranges from traditional problem-solving agents to advanced machine learning, deep neural networks, computer vision, natural language processing, or even down-streaming applications, commercialisation and business models or up-streaming theories and philosophy of AI. And you will come up with novel ideas to make learning fun. And finally, you will implement your ideas on the web/app so that other people can learn AI as fast as you can.</t>
   </si>
   <si>
@@ -2868,6 +2877,9 @@
 </t>
   </si>
   <si>
+    <t>An app for collaborative text editing using ChatGPT.</t>
+  </si>
+  <si>
     <t>Extensive AI knowledge and skills; Gamification skills; Web/App Design;</t>
   </si>
   <si>
@@ -3463,6 +3475,13 @@
     <t>deep learning (you need to be proficient in PyTorch to do this project)</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;proficiency in Python and basic knowledge of web design (for building a simple app)&lt;/li&gt;
+&lt;li&gt;basic text processing skills (to process the responses and compare to the existing text)&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
     <t>No technical requirements.</t>
   </si>
   <si>
@@ -3983,6 +4002,9 @@
   </si>
   <si>
     <t>artificial intelligence; machine learning; deep learning; data embedding; data visualisation</t>
+  </si>
+  <si>
+    <t>artificial intelligence, ChatGPT, human-computer interaction, natural language processing, large language models, web design</t>
   </si>
   <si>
     <t>AI, pedia, game, web/app design</t>
@@ -4577,7 +4599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4614,25 +4636,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="H2" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4640,25 +4662,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F3" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G3" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="H3" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4666,22 +4688,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F4" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G4" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="H4" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4689,25 +4711,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E5" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F5" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G5" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="H5" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4715,22 +4737,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E6" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F6" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G6" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="H6" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4738,25 +4760,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E7" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F7" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G7" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="H7" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4764,25 +4786,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E8" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F8" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G8" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="H8" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4790,25 +4812,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E9" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F9" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G9" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H9" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4816,25 +4838,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E10" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F10" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G10" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="H10" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4842,25 +4864,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E11" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F11" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G11" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H11" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4868,25 +4890,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E12" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="F12" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G12" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H12" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4894,25 +4916,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E13" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="F13" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G13" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="H13" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4920,25 +4942,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D14" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E14" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F14" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G14" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="H14" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4946,22 +4968,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E15" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F15" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="H15" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4969,22 +4991,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E16" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F16" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H16" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4992,25 +5014,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E17" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F17" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G17" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="H17" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5018,25 +5040,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E18" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F18" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G18" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="H18" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5044,25 +5066,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E19" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="F19" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G19" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="H19" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5070,25 +5092,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D20" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E20" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F20" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G20" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="H20" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5096,25 +5118,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D21" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E21" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F21" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G21" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H21" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5122,25 +5144,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D22" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E22" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F22" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G22" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H22" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5148,25 +5170,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D23" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E23" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F23" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G23" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="H23" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -5174,25 +5196,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D24" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E24" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F24" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G24" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="H24" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -5200,25 +5222,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D25" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E25" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F25" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G25" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="H25" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -5226,25 +5248,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D26" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E26" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F26" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G26" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="H26" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5252,25 +5274,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D27" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E27" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F27" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G27" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="H27" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5278,25 +5300,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D28" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E28" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F28" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G28" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="H28" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5304,25 +5326,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E29" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F29" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G29" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="H29" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5330,19 +5352,19 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F30" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H30" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -5350,25 +5372,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E31" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F31" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G31" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="H31" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -5376,25 +5398,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E32" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F32" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G32" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="H32" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -5402,25 +5424,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E33" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F33" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G33" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="H33" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5428,25 +5450,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D34" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E34" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F34" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G34" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="H34" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -5454,25 +5476,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D35" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E35" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F35" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G35" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="H35" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -5480,25 +5502,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D36" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E36" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F36" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G36" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="H36" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5506,25 +5528,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D37" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E37" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F37" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G37" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="H37" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -5532,22 +5554,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E38" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F38" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G38" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="H38" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5555,22 +5577,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D39" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E39" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F39" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G39" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="H39" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -5578,25 +5600,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E40" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F40" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G40" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="H40" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -5604,25 +5626,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D41" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E41" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F41" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G41" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="H41" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -5630,25 +5652,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D42" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E42" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F42" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G42" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H42" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -5656,25 +5678,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D43" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E43" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F43" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G43" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="H43" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -5682,25 +5704,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D44" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E44" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F44" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G44" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="H44" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -5708,22 +5730,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E45" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F45" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G45" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="H45" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -5731,25 +5753,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D46" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E46" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F46" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G46" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="H46" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5757,25 +5779,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D47" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E47" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F47" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G47" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="H47" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5783,25 +5805,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E48" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F48" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G48" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="H48" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -5809,25 +5831,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D49" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F49" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G49" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="H49" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -5835,25 +5857,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D50" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E50" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F50" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G50" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="H50" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -5861,25 +5883,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E51" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F51" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G51" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="H51" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -5887,22 +5909,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E52" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F52" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G52" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H52" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5910,16 +5932,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F53" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H53" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5927,19 +5949,19 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E54" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F54" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H54" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -5947,22 +5969,22 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E55" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F55" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G55" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="H55" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5970,25 +5992,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E56" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F56" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G56" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="H56" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5996,25 +6018,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D57" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E57" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F57" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G57" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="H57" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6022,25 +6044,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D58" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E58" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F58" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G58" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="H58" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6048,25 +6070,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D59" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E59" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F59" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G59" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="H59" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6074,25 +6096,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D60" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E60" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F60" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G60" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="H60" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6100,25 +6122,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D61" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E61" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="F61" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G61" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="H61" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6126,25 +6148,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D62" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E62" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F62" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G62" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="H62" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6152,25 +6174,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C63" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D63" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E63" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="F63" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G63" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="H63" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6178,25 +6200,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D64" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E64" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F64" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G64" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="H64" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6204,25 +6226,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D65" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E65" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F65" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G65" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H65" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6230,25 +6252,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D66" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E66" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="F66" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G66" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="H66" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6256,25 +6278,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D67" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E67" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F67" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G67" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="H67" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6282,25 +6304,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C68" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D68" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E68" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F68" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G68" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="H68" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6308,25 +6330,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D69" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E69" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F69" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G69" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="H69" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6334,25 +6356,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D70" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E70" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F70" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G70" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="H70" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6360,25 +6382,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D71" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E71" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F71" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G71" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="H71" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6386,25 +6408,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D72" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E72" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F72" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G72" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="H72" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -6412,22 +6434,22 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E73" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F73" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G73" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="H73" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -6435,25 +6457,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D74" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E74" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="F74" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G74" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="H74" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -6461,25 +6483,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D75" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E75" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F75" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G75" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="H75" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -6487,25 +6509,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C76" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D76" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E76" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F76" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G76" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="H76" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -6513,25 +6535,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D77" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E77" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F77" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G77" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="H77" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -6539,25 +6561,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D78" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E78" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="F78" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G78" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="H78" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6565,25 +6587,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E79" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F79" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G79" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="H79" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -6591,25 +6613,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D80" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E80" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F80" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G80" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="H80" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -6617,25 +6639,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D81" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E81" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F81" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G81" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="H81" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -6643,25 +6665,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D82" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E82" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="F82" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G82" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="H82" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6669,25 +6691,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D83" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E83" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="F83" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G83" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="H83" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -6695,25 +6717,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D84" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E84" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F84" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G84" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="H84" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6721,25 +6743,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D85" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E85" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F85" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G85" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="H85" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -6747,25 +6769,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D86" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E86" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F86" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G86" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="H86" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -6773,25 +6795,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D87" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E87" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F87" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G87" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="H87" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6799,25 +6821,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D88" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E88" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F88" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G88" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="H88" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -6825,25 +6847,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D89" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E89" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F89" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G89" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="H89" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -6851,25 +6873,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D90" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E90" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F90" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G90" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="H90" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -6877,25 +6899,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D91" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E91" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F91" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G91" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="H91" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6903,25 +6925,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D92" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E92" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="F92" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G92" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="H92" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6929,25 +6951,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D93" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E93" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F93" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G93" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="H93" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6955,25 +6977,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D94" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E94" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="F94" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G94" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="H94" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6981,22 +7003,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D95" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F95" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G95" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="H95" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7004,25 +7026,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D96" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E96" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="F96" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G96" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="H96" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7030,19 +7052,19 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D97" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F97" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G97" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="H97" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7050,25 +7072,25 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D98" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E98" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F98" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G98" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="H98" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -7076,22 +7098,22 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D99" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E99" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F99" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G99" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="H99" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -7099,22 +7121,22 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D100" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E100" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="F100" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G100" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="H100" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -7122,22 +7144,22 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D101" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E101" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F101" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G101" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="H101" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7145,25 +7167,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D102" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E102" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="F102" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G102" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="H102" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7171,25 +7193,22 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" t="s">
-        <v>476</v>
+        <v>298</v>
       </c>
       <c r="D103" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E103" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="F103" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G103" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="H103" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -7197,25 +7216,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D104" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E104" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F104" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G104" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="H104" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -7223,25 +7242,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C105" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D105" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E105" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="F105" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G105" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="H105" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -7249,25 +7268,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D106" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E106" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F106" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G106" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="H106" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7275,25 +7294,25 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>479</v>
+        <v>302</v>
+      </c>
+      <c r="C107" t="s">
+        <v>480</v>
       </c>
       <c r="D107" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E107" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F107" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G107" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="H107" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -7301,22 +7320,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="D108" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E108" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F108" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G108" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="H108" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -7324,19 +7346,22 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E109" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F109" t="s">
-        <v>860</v>
+        <v>864</v>
+      </c>
+      <c r="G109" t="s">
+        <v>967</v>
       </c>
       <c r="H109" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -7344,25 +7369,19 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>480</v>
+        <v>305</v>
       </c>
       <c r="D110" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E110" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="F110" t="s">
-        <v>860</v>
-      </c>
-      <c r="G110" t="s">
-        <v>963</v>
+        <v>864</v>
       </c>
       <c r="H110" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7370,25 +7389,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D111" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E111" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="F111" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G111" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="H111" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7396,25 +7415,25 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D112" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E112" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="F112" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G112" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="H112" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7422,22 +7441,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="D113" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E113" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F113" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G113" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="H113" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -7445,25 +7467,22 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>483</v>
+        <v>309</v>
       </c>
       <c r="D114" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E114" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F114" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G114" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="H114" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -7471,25 +7490,25 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D115" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E115" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="F115" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G115" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="H115" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -7497,25 +7516,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D116" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E116" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F116" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G116" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H116" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -7523,25 +7542,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
-      </c>
-      <c r="C117" t="s">
-        <v>486</v>
+        <v>312</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D117" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E117" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="F117" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G117" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="H117" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -7549,25 +7568,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>312</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>487</v>
+        <v>313</v>
+      </c>
+      <c r="C118" t="s">
+        <v>488</v>
       </c>
       <c r="D118" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E118" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="F118" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G118" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="H118" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -7575,25 +7594,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D119" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E119" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="F119" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G119" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="H119" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -7601,25 +7620,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>314</v>
-      </c>
-      <c r="C120" t="s">
-        <v>489</v>
+        <v>315</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="D120" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E120" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F120" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G120" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="H120" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7627,25 +7646,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D121" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E121" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F121" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G121" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="H121" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -7653,25 +7672,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C122" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D122" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E122" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F122" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G122" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="H122" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7679,25 +7698,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C123" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D123" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E123" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F123" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G123" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="H123" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -7705,25 +7724,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C124" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D124" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E124" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F124" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G124" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="H124" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -7731,25 +7750,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D125" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E125" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F125" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G125" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="H125" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -7757,25 +7776,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C126" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D126" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E126" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="F126" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G126" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="H126" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7783,25 +7802,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D127" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E127" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="F127" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G127" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="H127" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -7809,25 +7828,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C128" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D128" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E128" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="F128" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="G128" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="H128" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7835,25 +7854,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C129" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E129" t="s">
-        <v>768</v>
+        <v>819</v>
       </c>
       <c r="F129" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="G129" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="H129" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -7861,25 +7880,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C130" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D130" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E130" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F130" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G130" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="H130" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -7887,25 +7906,25 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C131" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D131" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E131" t="s">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="F131" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G131" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="H131" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -7913,25 +7932,25 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>326</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>501</v>
+        <v>327</v>
+      </c>
+      <c r="C132" t="s">
+        <v>502</v>
       </c>
       <c r="D132" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E132" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F132" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G132" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="H132" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -7939,25 +7958,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D133" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E133" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="F133" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G133" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="H133" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7965,25 +7984,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D134" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E134" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="F134" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="G134" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="H134" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -7991,25 +8010,25 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D135" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E135" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="F135" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G135" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="H135" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8017,25 +8036,25 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>330</v>
-      </c>
-      <c r="C136" t="s">
-        <v>505</v>
+        <v>331</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="D136" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E136" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="F136" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G136" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="H136" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8043,22 +8062,25 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="C137" t="s">
+        <v>507</v>
       </c>
       <c r="D137" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E137" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="F137" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G137" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="H137" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -8066,19 +8088,22 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D138" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E138" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="F138" t="s">
-        <v>862</v>
+        <v>866</v>
+      </c>
+      <c r="G138" t="s">
+        <v>995</v>
       </c>
       <c r="H138" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -8086,25 +8111,19 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>333</v>
-      </c>
-      <c r="C139" t="s">
-        <v>506</v>
+        <v>334</v>
       </c>
       <c r="D139" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E139" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F139" t="s">
-        <v>862</v>
-      </c>
-      <c r="G139" t="s">
-        <v>991</v>
+        <v>866</v>
       </c>
       <c r="H139" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -8112,25 +8131,25 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C140" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D140" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E140" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F140" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G140" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="H140" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -8138,25 +8157,25 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C141" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D141" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E141" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="F141" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G141" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="H141" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -8164,25 +8183,25 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C142" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D142" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E142" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F142" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G142" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="H142" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -8190,25 +8209,25 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D143" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E143" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F143" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G143" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="H143" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -8216,25 +8235,25 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D144" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E144" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F144" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G144" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="H144" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -8242,25 +8261,25 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C145" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D145" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E145" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F145" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G145" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="H145" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -8268,19 +8287,25 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C146" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D146" t="s">
-        <v>670</v>
+        <v>672</v>
+      </c>
+      <c r="E146" t="s">
+        <v>828</v>
       </c>
       <c r="F146" t="s">
-        <v>860</v>
+        <v>866</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1002</v>
       </c>
       <c r="H146" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -8288,16 +8313,19 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="C147" t="s">
+        <v>515</v>
       </c>
       <c r="D147" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F147" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H147" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -8305,19 +8333,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D148" t="s">
-        <v>672</v>
-      </c>
-      <c r="E148" t="s">
-        <v>826</v>
+        <v>674</v>
       </c>
       <c r="F148" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H148" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -8325,19 +8350,19 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>343</v>
-      </c>
-      <c r="C149" t="s">
-        <v>514</v>
+        <v>344</v>
       </c>
       <c r="D149" t="s">
-        <v>673</v>
+        <v>675</v>
+      </c>
+      <c r="E149" t="s">
+        <v>830</v>
       </c>
       <c r="F149" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H149" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -8345,19 +8370,19 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C150" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D150" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F150" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H150" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -8365,25 +8390,19 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C151" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D151" t="s">
-        <v>675</v>
-      </c>
-      <c r="E151" t="s">
-        <v>827</v>
+        <v>677</v>
       </c>
       <c r="F151" t="s">
-        <v>860</v>
-      </c>
-      <c r="G151" t="s">
-        <v>998</v>
+        <v>864</v>
       </c>
       <c r="H151" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -8391,25 +8410,25 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C152" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D152" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E152" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F152" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G152" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="H152" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8417,25 +8436,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C153" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D153" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E153" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F153" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G153" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="H153" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -8443,25 +8462,25 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C154" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D154" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E154" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F154" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G154" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="H154" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -8469,25 +8488,25 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C155" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D155" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E155" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="F155" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G155" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="H155" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -8495,25 +8514,25 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C156" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D156" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E156" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F156" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G156" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="H156" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8521,25 +8540,25 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C157" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D157" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E157" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="F157" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="G157" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="H157" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -8547,22 +8566,25 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="C158" t="s">
+        <v>524</v>
       </c>
       <c r="D158" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E158" t="s">
         <v>831</v>
       </c>
       <c r="F158" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="G158" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="H158" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -8570,25 +8592,22 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>353</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>523</v>
+        <v>354</v>
       </c>
       <c r="D159" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E159" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F159" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G159" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="H159" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -8596,25 +8615,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D160" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E160" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="F160" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G160" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="H160" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -8622,25 +8641,25 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D161" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E161" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F161" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G161" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="H161" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -8648,25 +8667,25 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D162" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E162" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="F162" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G162" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="H162" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8674,25 +8693,25 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D163" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E163" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="F163" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G163" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="H163" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -8700,25 +8719,25 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>358</v>
-      </c>
-      <c r="C164" t="s">
-        <v>528</v>
+        <v>359</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="D164" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E164" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="F164" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G164" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H164" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -8726,22 +8745,25 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="C165" t="s">
+        <v>530</v>
       </c>
       <c r="D165" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E165" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="F165" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G165" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="H165" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8749,25 +8771,22 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>360</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>529</v>
+        <v>361</v>
       </c>
       <c r="D166" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E166" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F166" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G166" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="H166" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -8775,25 +8794,25 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D167" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E167" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="F167" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G167" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="H167" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -8801,19 +8820,25 @@
         <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="D168" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E168" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="F168" t="s">
-        <v>860</v>
+        <v>864</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1019</v>
       </c>
       <c r="H168" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -8821,19 +8846,19 @@
         <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D169" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E169" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="F169" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H169" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -8841,19 +8866,19 @@
         <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D170" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E170" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="F170" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H170" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -8861,19 +8886,19 @@
         <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D171" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E171" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F171" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H171" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8881,19 +8906,19 @@
         <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D172" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E172" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F172" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H172" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -8901,19 +8926,19 @@
         <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D173" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E173" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F173" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H173" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -8921,19 +8946,19 @@
         <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D174" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E174" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="F174" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H174" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8941,19 +8966,19 @@
         <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D175" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E175" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="F175" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="H175" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8961,22 +8986,19 @@
         <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D176" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E176" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F176" t="s">
-        <v>860</v>
-      </c>
-      <c r="G176" t="s">
-        <v>1015</v>
+        <v>864</v>
       </c>
       <c r="H176" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8984,19 +9006,22 @@
         <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D177" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E177" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F177" t="s">
-        <v>860</v>
+        <v>864</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1020</v>
       </c>
       <c r="H177" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -9004,25 +9029,19 @@
         <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>372</v>
-      </c>
-      <c r="C178" t="s">
-        <v>531</v>
+        <v>373</v>
       </c>
       <c r="D178" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E178" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F178" t="s">
-        <v>860</v>
-      </c>
-      <c r="G178" t="s">
-        <v>1016</v>
+        <v>864</v>
       </c>
       <c r="H178" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -9030,25 +9049,25 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>373</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>532</v>
+        <v>374</v>
+      </c>
+      <c r="C179" t="s">
+        <v>533</v>
       </c>
       <c r="D179" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E179" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F179" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G179" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="H179" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -9056,25 +9075,25 @@
         <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D180" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E180" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="F180" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G180" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="H180" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -9082,25 +9101,25 @@
         <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D181" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E181" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F181" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G181" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="H181" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9108,25 +9127,25 @@
         <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>376</v>
-      </c>
-      <c r="C182" t="s">
-        <v>535</v>
+        <v>377</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="D182" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E182" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="F182" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="G182" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="H182" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9134,25 +9153,25 @@
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>377</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>536</v>
+        <v>378</v>
+      </c>
+      <c r="C183" t="s">
+        <v>537</v>
       </c>
       <c r="D183" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E183" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="F183" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="G183" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="H183" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9160,25 +9179,25 @@
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>378</v>
-      </c>
-      <c r="C184" t="s">
-        <v>537</v>
+        <v>379</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="D184" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E184" t="s">
         <v>854</v>
       </c>
       <c r="F184" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="G184" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="H184" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9186,25 +9205,25 @@
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C185" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D185" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E185" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="F185" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G185" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="H185" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9212,22 +9231,25 @@
         <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="C186" t="s">
+        <v>540</v>
       </c>
       <c r="D186" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E186" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="F186" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G186" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="H186" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9235,22 +9257,22 @@
         <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D187" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E187" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F187" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="G187" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="H187" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9258,25 +9280,22 @@
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>382</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>539</v>
+        <v>383</v>
       </c>
       <c r="D188" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E188" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F188" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="G188" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="H188" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9284,22 +9303,48 @@
         <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="D189" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E189" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="F189" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G189" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="H189" t="s">
-        <v>1028</v>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>385</v>
+      </c>
+      <c r="D190" t="s">
+        <v>716</v>
+      </c>
+      <c r="E190" t="s">
+        <v>863</v>
+      </c>
+      <c r="F190" t="s">
+        <v>864</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -9349,31 +9394,31 @@
     <hyperlink ref="C91" r:id="rId43"/>
     <hyperlink ref="C92" r:id="rId44"/>
     <hyperlink ref="C94" r:id="rId45"/>
-    <hyperlink ref="C107" r:id="rId46"/>
-    <hyperlink ref="C110" r:id="rId47"/>
-    <hyperlink ref="C111" r:id="rId48"/>
-    <hyperlink ref="C112" r:id="rId49"/>
-    <hyperlink ref="C114" r:id="rId50"/>
-    <hyperlink ref="C115" r:id="rId51"/>
-    <hyperlink ref="C116" r:id="rId52"/>
-    <hyperlink ref="C118" r:id="rId53"/>
-    <hyperlink ref="C119" r:id="rId54"/>
-    <hyperlink ref="C132" r:id="rId55"/>
-    <hyperlink ref="C133" r:id="rId56"/>
-    <hyperlink ref="C134" r:id="rId57"/>
-    <hyperlink ref="C135" r:id="rId58"/>
-    <hyperlink ref="C159" r:id="rId59"/>
-    <hyperlink ref="C160" r:id="rId60"/>
-    <hyperlink ref="C161" r:id="rId61"/>
-    <hyperlink ref="C162" r:id="rId62"/>
-    <hyperlink ref="C163" r:id="rId63"/>
-    <hyperlink ref="C166" r:id="rId64"/>
-    <hyperlink ref="C167" r:id="rId65"/>
-    <hyperlink ref="C179" r:id="rId66"/>
-    <hyperlink ref="C180" r:id="rId67"/>
-    <hyperlink ref="C181" r:id="rId68"/>
-    <hyperlink ref="C183" r:id="rId69"/>
-    <hyperlink ref="C188" r:id="rId70"/>
+    <hyperlink ref="C108" r:id="rId46"/>
+    <hyperlink ref="C111" r:id="rId47"/>
+    <hyperlink ref="C112" r:id="rId48"/>
+    <hyperlink ref="C113" r:id="rId49"/>
+    <hyperlink ref="C115" r:id="rId50"/>
+    <hyperlink ref="C116" r:id="rId51"/>
+    <hyperlink ref="C117" r:id="rId52"/>
+    <hyperlink ref="C119" r:id="rId53"/>
+    <hyperlink ref="C120" r:id="rId54"/>
+    <hyperlink ref="C133" r:id="rId55"/>
+    <hyperlink ref="C134" r:id="rId56"/>
+    <hyperlink ref="C135" r:id="rId57"/>
+    <hyperlink ref="C136" r:id="rId58"/>
+    <hyperlink ref="C160" r:id="rId59"/>
+    <hyperlink ref="C161" r:id="rId60"/>
+    <hyperlink ref="C162" r:id="rId61"/>
+    <hyperlink ref="C163" r:id="rId62"/>
+    <hyperlink ref="C164" r:id="rId63"/>
+    <hyperlink ref="C167" r:id="rId64"/>
+    <hyperlink ref="C168" r:id="rId65"/>
+    <hyperlink ref="C180" r:id="rId66"/>
+    <hyperlink ref="C181" r:id="rId67"/>
+    <hyperlink ref="C182" r:id="rId68"/>
+    <hyperlink ref="C184" r:id="rId69"/>
+    <hyperlink ref="C189" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
